--- a/BoophilusAdultsDataCattleFarmRes(2).xlsx
+++ b/BoophilusAdultsDataCattleFarmRes(2).xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="238">
   <si>
     <t xml:space="preserve">***************************************************************************************************************************************************************</t>
   </si>
@@ -245,9 +245,81 @@
     <t xml:space="preserve">Proportion of randomisations that gave a LARGER Fis than the observed:</t>
   </si>
   <si>
+    <t xml:space="preserve"> Locus_Pair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boulouparis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bourail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gadji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LaFoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Poquereux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PortLaguerre</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sarramea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global_P_Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    B12.C07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    B12.D12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    B12.D10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    B12.A12</t>
+  </si>
+  <si>
     <t xml:space="preserve">Proportion of randomisations that gave a SMALLER Fis than the observed:</t>
   </si>
   <si>
+    <t xml:space="preserve">    B12.C03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    C07.D12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    C07.D10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    C07.A12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    C07.C03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    D12.D10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    D12.A12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    D12.C03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    D10.A12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    D10.C03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    A12.C03</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nei's estimation of heterozygosity </t>
   </si>
   <si>
@@ -299,9 +371,21 @@
     <t xml:space="preserve">   Locus_Pair</t>
   </si>
   <si>
+    <t xml:space="preserve"> Boulouparis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  LaFoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poquereux</t>
+  </si>
+  <si>
     <t xml:space="preserve">e</t>
   </si>
   <si>
+    <t xml:space="preserve">Sarramea</t>
+  </si>
+  <si>
     <t xml:space="preserve">B12 X C07</t>
   </si>
   <si>
@@ -407,27 +491,6 @@
     <t xml:space="preserve">relatc is relatedness inbreeding corrected following Pamilo (1984, 1985)</t>
   </si>
   <si>
-    <t xml:space="preserve">Boulouparis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bourail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gadji</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LaFoa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poquereux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PortLaguerre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sarramea</t>
-  </si>
-  <si>
     <t xml:space="preserve">sig_a, sig_b and sig_w are the component of variance</t>
   </si>
   <si>
@@ -621,9 +684,6 @@
   </si>
   <si>
     <t xml:space="preserve">Locus_Pair</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global_P_Value</t>
   </si>
   <si>
     <t xml:space="preserve">FSTAT</t>
@@ -683,11 +743,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.00"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.00"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -720,11 +780,18 @@
     </font>
     <font>
       <sz val="13"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -741,12 +808,30 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5EB91E"/>
+        <bgColor rgb="FF579D1C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFC5000B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA1467E"/>
+        <bgColor rgb="FF993366"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -783,7 +868,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -796,15 +881,39 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -812,7 +921,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -835,14 +944,13 @@
         <color rgb="FF000000"/>
         <sz val="12"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
   </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFC5000B"/>
+      <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -857,7 +965,7 @@
       <rgbColor rgb="FFBFBFBF"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF5B9BD5"/>
-      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFA1467E"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
@@ -869,7 +977,7 @@
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FFC5000B"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
@@ -882,7 +990,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF5EB91E"/>
       <rgbColor rgb="FFFFD320"/>
       <rgbColor rgb="FFFF950E"/>
       <rgbColor rgb="FFFF420E"/>
@@ -914,11 +1022,17 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:rPr>
               <a:t>Fstat vs R pvalues </a:t>
@@ -948,7 +1062,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Boulou</c:v>
+                  <c:v> Boulouparis</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -977,11 +1091,15 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -999,7 +1117,7 @@
             <c:numRef>
               <c:f>BoophilusAdultsDataCattleFarm!$C$153:$C$167</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0.9926</c:v>
@@ -1053,52 +1171,52 @@
             <c:numRef>
               <c:f>BoophilusAdultsDataCattleFarm!$P$153:$P$167</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.957</c:v>
+                  <c:v>0.9688</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.286</c:v>
+                  <c:v>0.3014</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.587</c:v>
+                  <c:v>0.6148</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2</c:v>
+                  <c:v>0.1949</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.182</c:v>
+                  <c:v>0.1995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.015</c:v>
+                  <c:v>0.0173</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.778</c:v>
+                  <c:v>0.7734</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.437</c:v>
+                  <c:v>0.4394</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.725</c:v>
+                  <c:v>0.7304</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.726</c:v>
+                  <c:v>0.7046</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.206</c:v>
+                  <c:v>0.2065</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.898</c:v>
+                  <c:v>0.9356</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.774</c:v>
+                  <c:v>0.7805</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.843</c:v>
+                  <c:v>0.855</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.554</c:v>
+                  <c:v>0.5792</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1114,7 +1232,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Bourai</c:v>
+                  <c:v>Bourail</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1128,7 +1246,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="star"/>
+            <c:symbol val="square"/>
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
@@ -1143,11 +1261,15 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1165,7 +1287,7 @@
             <c:numRef>
               <c:f>BoophilusAdultsDataCattleFarm!$D$153:$D$167</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0.5548</c:v>
@@ -1219,52 +1341,52 @@
             <c:numRef>
               <c:f>BoophilusAdultsDataCattleFarm!$Q$153:$Q$167</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.709</c:v>
+                  <c:v>0.7126</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.229</c:v>
+                  <c:v>0.2545</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.752</c:v>
+                  <c:v>0.7474</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.686</c:v>
+                  <c:v>0.6566</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.798</c:v>
+                  <c:v>0.8154</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.786</c:v>
+                  <c:v>0.7694</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.247</c:v>
+                  <c:v>0.2514</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.341</c:v>
+                  <c:v>0.3518</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.705</c:v>
+                  <c:v>0.7279</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.098</c:v>
+                  <c:v>0.0917</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.557</c:v>
+                  <c:v>0.5665</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.463</c:v>
+                  <c:v>0.4428</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.177</c:v>
+                  <c:v>0.1757</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.429</c:v>
+                  <c:v>0.4373</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.337</c:v>
+                  <c:v>0.3241</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1309,11 +1431,15 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1331,7 +1457,7 @@
             <c:numRef>
               <c:f>BoophilusAdultsDataCattleFarm!$E$153:$E$167</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0.5362</c:v>
@@ -1385,52 +1511,52 @@
             <c:numRef>
               <c:f>BoophilusAdultsDataCattleFarm!$R$153:$R$167</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.713</c:v>
+                  <c:v>0.7105</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36</c:v>
+                  <c:v>0.3487</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.554</c:v>
+                  <c:v>0.5705</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.657</c:v>
+                  <c:v>0.6542</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.969</c:v>
+                  <c:v>0.9658</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.074</c:v>
+                  <c:v>0.0722</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.884</c:v>
+                  <c:v>0.8856</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.786</c:v>
+                  <c:v>0.7788</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.045</c:v>
+                  <c:v>0.0402</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.752</c:v>
+                  <c:v>0.7679</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.097</c:v>
+                  <c:v>0.1073</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.502</c:v>
+                  <c:v>0.4805</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.679</c:v>
+                  <c:v>0.6748</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.836</c:v>
+                  <c:v>0.8306</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.076</c:v>
+                  <c:v>0.0618</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1475,11 +1601,15 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1497,7 +1627,7 @@
             <c:numRef>
               <c:f>BoophilusAdultsDataCattleFarm!$F$153:$F$167</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0.093</c:v>
@@ -1551,52 +1681,52 @@
             <c:numRef>
               <c:f>BoophilusAdultsDataCattleFarm!$S$153:$S$167</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.054</c:v>
+                  <c:v>0.0679</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.614</c:v>
+                  <c:v>0.61</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.18</c:v>
+                  <c:v>0.1626</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.934</c:v>
+                  <c:v>0.9417</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.089</c:v>
+                  <c:v>0.0812</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.657</c:v>
+                  <c:v>0.6398</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.032</c:v>
+                  <c:v>0.0283</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.28</c:v>
+                  <c:v>0.3076</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.002</c:v>
+                  <c:v>0.0019</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.622</c:v>
+                  <c:v>0.6062</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.547</c:v>
+                  <c:v>0.5393</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.961</c:v>
+                  <c:v>0.9681</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.508</c:v>
+                  <c:v>0.542</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.51</c:v>
+                  <c:v>0.4953</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.92</c:v>
+                  <c:v>0.923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1608,7 +1738,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>BoophilusAdultsDataCattleFarm!$T$152</c:f>
+              <c:f>BoophilusAdultsDataCattleFarm!$G$152</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1641,11 +1771,15 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1663,7 +1797,7 @@
             <c:numRef>
               <c:f>BoophilusAdultsDataCattleFarm!$G$153:$G$167</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0.1602</c:v>
@@ -1717,52 +1851,52 @@
             <c:numRef>
               <c:f>BoophilusAdultsDataCattleFarm!$T$153:$T$167</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.167</c:v>
+                  <c:v>0.168</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.93</c:v>
+                  <c:v>0.9335</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.728</c:v>
+                  <c:v>0.6964</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.83</c:v>
+                  <c:v>0.8347</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.29</c:v>
+                  <c:v>0.2747</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.02</c:v>
+                  <c:v>0.0243</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.331</c:v>
+                  <c:v>0.3634</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.883</c:v>
+                  <c:v>0.872</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.289</c:v>
+                  <c:v>0.2858</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.56</c:v>
+                  <c:v>0.5706</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.735</c:v>
+                  <c:v>0.7242</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.442</c:v>
+                  <c:v>0.4345</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.825</c:v>
+                  <c:v>0.824</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.005</c:v>
+                  <c:v>0.0084</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.1</c:v>
+                  <c:v>0.0935</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1778,7 +1912,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Poquer</c:v>
+                  <c:v>Poquereux</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1807,11 +1941,15 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1829,7 +1967,7 @@
             <c:numRef>
               <c:f>BoophilusAdultsDataCattleFarm!$H$153:$H$167</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0.2359</c:v>
@@ -1883,52 +2021,52 @@
             <c:numRef>
               <c:f>BoophilusAdultsDataCattleFarm!$U$153:$U$167</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.215</c:v>
+                  <c:v>0.2297</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.531</c:v>
+                  <c:v>0.5447</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.757</c:v>
+                  <c:v>0.7415</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.451</c:v>
+                  <c:v>0.4527</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.06</c:v>
+                  <c:v>0.0681</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.203</c:v>
+                  <c:v>0.1957</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.836</c:v>
+                  <c:v>0.8382</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.47</c:v>
+                  <c:v>0.4575</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.445</c:v>
+                  <c:v>0.4309</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.104</c:v>
+                  <c:v>0.1203</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.616</c:v>
+                  <c:v>0.6128</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.397</c:v>
+                  <c:v>0.3984</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.098</c:v>
+                  <c:v>0.1043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.545</c:v>
+                  <c:v>0.5182</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.112</c:v>
+                  <c:v>0.0978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1944,7 +2082,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PortLa</c:v>
+                  <c:v>PortLaguerre</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1973,11 +2111,15 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1995,7 +2137,7 @@
             <c:numRef>
               <c:f>BoophilusAdultsDataCattleFarm!$I$153:$I$167</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0.4969</c:v>
@@ -2049,52 +2191,52 @@
             <c:numRef>
               <c:f>BoophilusAdultsDataCattleFarm!$V$153:$V$167</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.462</c:v>
+                  <c:v>0.4744</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.118</c:v>
+                  <c:v>0.1212</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.388</c:v>
+                  <c:v>0.3957</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.245</c:v>
+                  <c:v>0.2463</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.203</c:v>
+                  <c:v>0.2126</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.156</c:v>
+                  <c:v>0.1875</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.589</c:v>
+                  <c:v>0.5772</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.71</c:v>
+                  <c:v>0.6946</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.411</c:v>
+                  <c:v>0.3796</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.175</c:v>
+                  <c:v>0.1902</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.731</c:v>
+                  <c:v>0.7357</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.185</c:v>
+                  <c:v>0.1819</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.324</c:v>
+                  <c:v>0.3118</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.345</c:v>
+                  <c:v>0.3439</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.088</c:v>
+                  <c:v>0.0714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2110,7 +2252,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sarram</c:v>
+                  <c:v> Sarramea</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2139,11 +2281,15 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2161,7 +2307,7 @@
             <c:numRef>
               <c:f>BoophilusAdultsDataCattleFarm!$J$153:$J$167</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0.9632</c:v>
@@ -2218,49 +2364,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.854</c:v>
+                  <c:v>0.962</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.491</c:v>
+                  <c:v>0.5012</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.986</c:v>
+                  <c:v>0.9791</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.602</c:v>
+                  <c:v>0.6295</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.79</c:v>
+                  <c:v>0.9251</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.249</c:v>
+                  <c:v>0.2429</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.762</c:v>
+                  <c:v>0.7761</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.802</c:v>
+                  <c:v>0.9161</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.635</c:v>
+                  <c:v>0.662</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.532</c:v>
+                  <c:v>0.5045</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.864</c:v>
+                  <c:v>0.8694</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.638</c:v>
+                  <c:v>0.6231</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.888</c:v>
+                  <c:v>0.8887</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.21</c:v>
+                  <c:v>0.2675</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.565</c:v>
+                  <c:v>0.7808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2276,7 +2422,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>   All</c:v>
+                  <c:v>Global_P_Value</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2305,11 +2451,15 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2327,7 +2477,7 @@
             <c:numRef>
               <c:f>BoophilusAdultsDataCattleFarm!$K$153:$K$167</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0.3753</c:v>
@@ -2384,66 +2534,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.5655</c:v>
+                  <c:v>0.566375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.59887</c:v>
+                  <c:v>0.59725</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.50675</c:v>
+                  <c:v>0.507075</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.501</c:v>
+                  <c:v>0.5002625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.50175</c:v>
+                  <c:v>0.500775</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.514</c:v>
+                  <c:v>0.5147</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.57737</c:v>
+                  <c:v>0.5807875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.61312</c:v>
+                  <c:v>0.6108625</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.5055</c:v>
+                  <c:v>0.51315</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.615</c:v>
+                  <c:v>0.6149</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.60637</c:v>
+                  <c:v>0.6067875</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.60137</c:v>
+                  <c:v>0.601275</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.46312</c:v>
+                  <c:v>0.4680875</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.48875</c:v>
+                  <c:v>0.4869625</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.48775</c:v>
+                  <c:v>0.4861125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="30070732"/>
-        <c:axId val="79233028"/>
+        <c:axId val="601228"/>
+        <c:axId val="51727854"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="30070732"/>
+        <c:axId val="601228"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>FstaT</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2460,17 +2638,20 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79233028"/>
+        <c:crossAx val="51727854"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79233028"/>
+        <c:axId val="51727854"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2485,7 +2666,35 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>R</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2502,14 +2711,17 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30070732"/>
+        <c:crossAx val="601228"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2535,6 +2747,9 @@
         <a:p>
           <a:pPr>
             <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Arial"/>
             </a:defRPr>
           </a:pPr>
@@ -2751,11 +2966,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="36477294"/>
-        <c:axId val="78534236"/>
+        <c:axId val="3987017"/>
+        <c:axId val="36339704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="36477294"/>
+        <c:axId val="3987017"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2797,12 +3012,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78534236"/>
+        <c:crossAx val="36339704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78534236"/>
+        <c:axId val="36339704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2844,7 +3059,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36477294"/>
+        <c:crossAx val="3987017"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3068,11 +3283,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="49251638"/>
-        <c:axId val="92475026"/>
+        <c:axId val="48460864"/>
+        <c:axId val="26969428"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="49251638"/>
+        <c:axId val="48460864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3114,12 +3329,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92475026"/>
+        <c:crossAx val="26969428"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="92475026"/>
+        <c:axId val="26969428"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3161,7 +3376,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49251638"/>
+        <c:crossAx val="48460864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3385,11 +3600,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="11790741"/>
-        <c:axId val="78127044"/>
+        <c:axId val="56547229"/>
+        <c:axId val="1271784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="11790741"/>
+        <c:axId val="56547229"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3431,12 +3646,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78127044"/>
+        <c:crossAx val="1271784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78127044"/>
+        <c:axId val="1271784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3478,7 +3693,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11790741"/>
+        <c:crossAx val="56547229"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3702,11 +3917,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="82115754"/>
-        <c:axId val="99708406"/>
+        <c:axId val="75858094"/>
+        <c:axId val="85571594"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="82115754"/>
+        <c:axId val="75858094"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3748,12 +3963,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99708406"/>
+        <c:crossAx val="85571594"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="99708406"/>
+        <c:axId val="85571594"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3795,7 +4010,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82115754"/>
+        <c:crossAx val="75858094"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4019,11 +4234,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="45418020"/>
-        <c:axId val="77320405"/>
+        <c:axId val="17710303"/>
+        <c:axId val="8522387"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="45418020"/>
+        <c:axId val="17710303"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4065,12 +4280,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77320405"/>
+        <c:crossAx val="8522387"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="77320405"/>
+        <c:axId val="8522387"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4112,7 +4327,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45418020"/>
+        <c:crossAx val="17710303"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4336,11 +4551,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="90078036"/>
-        <c:axId val="13696088"/>
+        <c:axId val="63231797"/>
+        <c:axId val="99417123"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="90078036"/>
+        <c:axId val="63231797"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4382,12 +4597,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13696088"/>
+        <c:crossAx val="99417123"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="13696088"/>
+        <c:axId val="99417123"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4429,7 +4644,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90078036"/>
+        <c:crossAx val="63231797"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4653,11 +4868,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="57777978"/>
-        <c:axId val="12864738"/>
+        <c:axId val="43892679"/>
+        <c:axId val="87100675"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="57777978"/>
+        <c:axId val="43892679"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4699,12 +4914,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12864738"/>
+        <c:crossAx val="87100675"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="12864738"/>
+        <c:axId val="87100675"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4746,7 +4961,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57777978"/>
+        <c:crossAx val="43892679"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4970,11 +5185,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="82221982"/>
-        <c:axId val="74564725"/>
+        <c:axId val="27364366"/>
+        <c:axId val="62194309"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="82221982"/>
+        <c:axId val="27364366"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5016,12 +5231,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74564725"/>
+        <c:crossAx val="62194309"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="74564725"/>
+        <c:axId val="62194309"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5063,7 +5278,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82221982"/>
+        <c:crossAx val="27364366"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5303,11 +5518,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="81105205"/>
-        <c:axId val="34695365"/>
+        <c:axId val="72424853"/>
+        <c:axId val="40725616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="81105205"/>
+        <c:axId val="72424853"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5349,12 +5564,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34695365"/>
+        <c:crossAx val="40725616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="34695365"/>
+        <c:axId val="40725616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5396,7 +5611,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81105205"/>
+        <c:crossAx val="72424853"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5435,9 +5650,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>295920</xdr:colOff>
+      <xdr:colOff>295560</xdr:colOff>
       <xdr:row>229</xdr:row>
-      <xdr:rowOff>155160</xdr:rowOff>
+      <xdr:rowOff>154800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5446,7 +5661,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="14734440" y="37119240"/>
-        <a:ext cx="11839680" cy="6660360"/>
+        <a:ext cx="11839320" cy="6660000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5470,9 +5685,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>408960</xdr:colOff>
+      <xdr:colOff>408600</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>113760</xdr:rowOff>
+      <xdr:rowOff>113400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5481,7 +5696,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="252360" y="3400560"/>
-        <a:ext cx="1941120" cy="2237760"/>
+        <a:ext cx="1940760" cy="2237400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5500,9 +5715,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>891360</xdr:colOff>
+      <xdr:colOff>891000</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>113400</xdr:rowOff>
+      <xdr:rowOff>113040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5511,7 +5726,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2341800" y="3390840"/>
-        <a:ext cx="2118240" cy="2247120"/>
+        <a:ext cx="2117880" cy="2246760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5530,9 +5745,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>65880</xdr:colOff>
+      <xdr:colOff>65520</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>75600</xdr:rowOff>
+      <xdr:rowOff>75240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5541,7 +5756,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4532040" y="3591000"/>
-        <a:ext cx="1779120" cy="2009160"/>
+        <a:ext cx="1778760" cy="2008800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5560,9 +5775,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>399240</xdr:colOff>
+      <xdr:colOff>398880</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>46800</xdr:rowOff>
+      <xdr:rowOff>46440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5571,7 +5786,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="6440400" y="3666960"/>
-        <a:ext cx="1988280" cy="1904400"/>
+        <a:ext cx="1987920" cy="1904040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5590,9 +5805,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>780480</xdr:colOff>
+      <xdr:colOff>780120</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>113760</xdr:rowOff>
+      <xdr:rowOff>113400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5601,7 +5816,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="8520120" y="3619440"/>
-        <a:ext cx="2074320" cy="2018880"/>
+        <a:ext cx="2073960" cy="2018520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5620,9 +5835,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>284760</xdr:colOff>
+      <xdr:colOff>284400</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>123120</xdr:rowOff>
+      <xdr:rowOff>122760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5631,7 +5846,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="10694880" y="3591000"/>
-        <a:ext cx="2080440" cy="2056680"/>
+        <a:ext cx="2080080" cy="2056320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5650,9 +5865,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>208800</xdr:colOff>
+      <xdr:colOff>208440</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>75600</xdr:rowOff>
+      <xdr:rowOff>75240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5661,7 +5876,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="12895200" y="3676680"/>
-        <a:ext cx="1588320" cy="1733040"/>
+        <a:ext cx="1587960" cy="1732680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5680,9 +5895,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>370800</xdr:colOff>
+      <xdr:colOff>370440</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5691,7 +5906,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="14612760" y="3610080"/>
-        <a:ext cx="1817280" cy="1923480"/>
+        <a:ext cx="1816920" cy="1923120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5710,9 +5925,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>399240</xdr:colOff>
+      <xdr:colOff>398880</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>84960</xdr:rowOff>
+      <xdr:rowOff>84600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5721,7 +5936,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="16502040" y="3647880"/>
-        <a:ext cx="1740600" cy="1771200"/>
+        <a:ext cx="1740240" cy="1770840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5913,16 +6128,16 @@
   </sheetPr>
   <dimension ref="A1:AJ349"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M142" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AE150" activeCellId="0" sqref="AE150"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J134" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M214" activeCellId="0" sqref="M214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.56640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="1" width="17.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="12.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="12.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="8.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="9.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="9.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8627,6 +8842,36 @@
       <c r="J120" s="1" t="n">
         <v>0.0115</v>
       </c>
+      <c r="P120" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q120" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="R120" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="S120" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T120" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="U120" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="V120" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="W120" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="X120" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y120" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="1" t="s">
@@ -8656,6 +8901,74 @@
       <c r="J121" s="1" t="n">
         <v>0.0027</v>
       </c>
+      <c r="O121" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P121" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q121" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R121" s="0" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="S121" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="T121" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U121" s="0" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="V121" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="W121" s="0" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="X121" s="0" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="Y121" s="0" t="n">
+        <v>0.435</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O122" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P122" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q122" s="0" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="R122" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="S122" s="0" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="T122" s="0" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="U122" s="0" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="V122" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W122" s="0" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="X122" s="0" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="Y122" s="0" t="n">
+        <v>0.4925</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="1" t="s">
@@ -8685,10 +8998,111 @@
       <c r="J123" s="1" t="n">
         <v>0.0009</v>
       </c>
+      <c r="O123" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P123" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q123" s="0" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="R123" s="0" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="S123" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="T123" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="U123" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="V123" s="0" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="W123" s="0" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="X123" s="0" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="Y123" s="0" t="n">
+        <v>0.44625</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O124" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P124" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q124" s="0" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="R124" s="0" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="S124" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="T124" s="0" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="U124" s="0" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="V124" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="W124" s="0" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="X124" s="0" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="Y124" s="0" t="n">
+        <v>0.4225</v>
+      </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="1" t="s">
-        <v>74</v>
+        <v>87</v>
+      </c>
+      <c r="O125" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P125" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q125" s="0" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="R125" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="S125" s="0" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="T125" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U125" s="0" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="V125" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="W125" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="X125" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y125" s="0" t="n">
+        <v>0.4675</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8719,6 +9133,39 @@
       <c r="J126" s="1" t="n">
         <v>0.9726</v>
       </c>
+      <c r="O126" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="P126" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q126" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="R126" s="0" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="S126" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="T126" s="0" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="U126" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V126" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="W126" s="0" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="X126" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y126" s="0" t="n">
+        <v>0.50625</v>
+      </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="1" t="s">
@@ -8748,6 +9195,39 @@
       <c r="J127" s="1" t="n">
         <v>0.7445</v>
       </c>
+      <c r="O127" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="P127" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q127" s="0" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="R127" s="0" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="S127" s="0" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="T127" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U127" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V127" s="0" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="W127" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="X127" s="0" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="Y127" s="0" t="n">
+        <v>0.51625</v>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="1" t="s">
@@ -8777,6 +9257,39 @@
       <c r="J128" s="1" t="n">
         <v>0.8403</v>
       </c>
+      <c r="O128" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="P128" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q128" s="0" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="R128" s="0" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="S128" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="T128" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="U128" s="0" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="V128" s="0" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="W128" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="X128" s="0" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="Y128" s="0" t="n">
+        <v>0.49</v>
+      </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="1" t="s">
@@ -8806,6 +9319,39 @@
       <c r="J129" s="1" t="n">
         <v>0.3772</v>
       </c>
+      <c r="O129" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="P129" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q129" s="0" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="R129" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="S129" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T129" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U129" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="V129" s="0" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="W129" s="0" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="X129" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Y129" s="0" t="n">
+        <v>0.4525</v>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="1" t="s">
@@ -8835,6 +9381,39 @@
       <c r="J130" s="1" t="n">
         <v>0.9972</v>
       </c>
+      <c r="O130" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="P130" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q130" s="0" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="R130" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S130" s="0" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="T130" s="0" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="U130" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="V130" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W130" s="0" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="X130" s="0" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="Y130" s="0" t="n">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="1" t="s">
@@ -8864,6 +9443,74 @@
       <c r="J131" s="1" t="n">
         <v>0.9997</v>
       </c>
+      <c r="O131" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="P131" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q131" s="0" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="R131" s="0" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="S131" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T131" s="0" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="U131" s="0" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="V131" s="0" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="W131" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="X131" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y131" s="0" t="n">
+        <v>0.52625</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O132" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="P132" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q132" s="0" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="R132" s="0" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="S132" s="0" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="T132" s="0" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="U132" s="0" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="V132" s="0" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="W132" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="X132" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="Y132" s="0" t="n">
+        <v>0.62375</v>
+      </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="1" t="s">
@@ -8893,47 +9540,148 @@
       <c r="J133" s="1" t="n">
         <v>0.9993</v>
       </c>
+      <c r="O133" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P133" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q133" s="0" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="R133" s="0" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="S133" s="0" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="T133" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="U133" s="0" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="V133" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="W133" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="X133" s="0" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="Y133" s="0" t="n">
+        <v>0.4125</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O134" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P134" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q134" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="R134" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="S134" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="T134" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U134" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V134" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="W134" s="0" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="X134" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y134" s="0" t="n">
+        <v>0.46625</v>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="O135" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="P135" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q135" s="0" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="R135" s="0" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="S135" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T135" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U135" s="0" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="V135" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="W135" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="X135" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Y135" s="0" t="n">
+        <v>0.45875</v>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="1" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="1" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9130,7 +9878,7 @@
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B146" s="1" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="C146" s="1" t="n">
         <v>0.672</v>
@@ -9162,17 +9910,17 @@
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="1" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B150" s="1" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9201,985 +9949,1156 @@
         <v>10</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="O152" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="P152" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q152" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R152" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="P152" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q152" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="R152" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="S152" s="1" t="s">
+      <c r="S152" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="T152" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="U152" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="V152" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="W152" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="X152" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y152" s="2" t="s">
-        <v>92</v>
+      <c r="T152" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="U152" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="V152" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="W152" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="X152" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y152" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC152" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD152" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C153" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="C153" s="4" t="n">
         <v>0.9926</v>
       </c>
-      <c r="D153" s="1" t="n">
+      <c r="D153" s="4" t="n">
         <v>0.5548</v>
       </c>
-      <c r="E153" s="1" t="n">
+      <c r="E153" s="4" t="n">
         <v>0.5362</v>
       </c>
-      <c r="F153" s="1" t="n">
+      <c r="F153" s="4" t="n">
         <v>0.093</v>
       </c>
-      <c r="G153" s="1" t="n">
+      <c r="G153" s="4" t="n">
         <v>0.1602</v>
       </c>
-      <c r="H153" s="1" t="n">
+      <c r="H153" s="4" t="n">
         <v>0.2359</v>
       </c>
-      <c r="I153" s="1" t="n">
+      <c r="I153" s="4" t="n">
         <v>0.4969</v>
       </c>
-      <c r="J153" s="1" t="n">
+      <c r="J153" s="4" t="n">
         <v>0.9632</v>
       </c>
-      <c r="K153" s="1" t="n">
+      <c r="K153" s="4" t="n">
         <v>0.3753</v>
       </c>
-      <c r="M153" s="3"/>
+      <c r="M153" s="5"/>
       <c r="O153" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="P153" s="4" t="n">
-        <v>0.957</v>
-      </c>
-      <c r="Q153" s="5" t="n">
-        <v>0.709</v>
-      </c>
-      <c r="R153" s="5" t="n">
-        <v>0.713</v>
-      </c>
-      <c r="S153" s="5" t="n">
-        <v>0.054</v>
-      </c>
-      <c r="T153" s="5" t="n">
-        <v>0.167</v>
-      </c>
-      <c r="U153" s="5" t="n">
-        <v>0.215</v>
-      </c>
-      <c r="V153" s="5" t="n">
-        <v>0.462</v>
+        <v>122</v>
+      </c>
+      <c r="P153" s="0" t="n">
+        <v>0.9688</v>
+      </c>
+      <c r="Q153" s="0" t="n">
+        <v>0.7126</v>
+      </c>
+      <c r="R153" s="0" t="n">
+        <v>0.7105</v>
+      </c>
+      <c r="S153" s="0" t="n">
+        <v>0.0679</v>
+      </c>
+      <c r="T153" s="0" t="n">
+        <v>0.168</v>
+      </c>
+      <c r="U153" s="0" t="n">
+        <v>0.2297</v>
+      </c>
+      <c r="V153" s="0" t="n">
+        <v>0.4744</v>
       </c>
       <c r="W153" s="0" t="n">
-        <v>0.854</v>
+        <f aca="false">AC153</f>
+        <v>0.962</v>
       </c>
       <c r="X153" s="0" t="n">
-        <v>0.5655</v>
+        <f aca="false">AD153</f>
+        <v>0.566375</v>
+      </c>
+      <c r="AB153" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC153" s="0" t="n">
+        <v>0.962</v>
+      </c>
+      <c r="AD153" s="0" t="n">
+        <v>0.566375</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C154" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="C154" s="4" t="n">
         <v>0.2956</v>
       </c>
-      <c r="D154" s="1" t="n">
+      <c r="D154" s="4" t="n">
         <v>0.3006</v>
       </c>
-      <c r="E154" s="1" t="n">
+      <c r="E154" s="4" t="n">
         <v>0.4338</v>
       </c>
-      <c r="F154" s="1" t="n">
+      <c r="F154" s="4" t="n">
         <v>0.9523</v>
       </c>
-      <c r="G154" s="1" t="n">
+      <c r="G154" s="4" t="n">
         <v>0.932</v>
       </c>
-      <c r="H154" s="1" t="n">
+      <c r="H154" s="4" t="n">
         <v>0.5006</v>
       </c>
-      <c r="I154" s="1" t="n">
+      <c r="I154" s="4" t="n">
         <v>0.119</v>
       </c>
-      <c r="J154" s="1" t="n">
+      <c r="J154" s="4" t="n">
         <v>0.8987</v>
       </c>
-      <c r="K154" s="1" t="n">
+      <c r="K154" s="4" t="n">
         <v>0.556</v>
       </c>
-      <c r="M154" s="3"/>
+      <c r="M154" s="5"/>
       <c r="O154" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="P154" s="4" t="n">
-        <v>0.286</v>
-      </c>
-      <c r="Q154" s="5" t="n">
-        <v>0.229</v>
-      </c>
-      <c r="R154" s="5" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="S154" s="5" t="n">
-        <v>0.614</v>
-      </c>
-      <c r="T154" s="5" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="U154" s="5" t="n">
-        <v>0.531</v>
-      </c>
-      <c r="V154" s="5" t="n">
-        <v>0.118</v>
+        <v>124</v>
+      </c>
+      <c r="P154" s="0" t="n">
+        <v>0.3014</v>
+      </c>
+      <c r="Q154" s="0" t="n">
+        <v>0.2545</v>
+      </c>
+      <c r="R154" s="0" t="n">
+        <v>0.3487</v>
+      </c>
+      <c r="S154" s="0" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="T154" s="0" t="n">
+        <v>0.9335</v>
+      </c>
+      <c r="U154" s="0" t="n">
+        <v>0.5447</v>
+      </c>
+      <c r="V154" s="0" t="n">
+        <v>0.1212</v>
       </c>
       <c r="W154" s="0" t="n">
-        <v>0.491</v>
+        <f aca="false">AC154</f>
+        <v>0.5012</v>
       </c>
       <c r="X154" s="0" t="n">
-        <v>0.59887</v>
+        <f aca="false">AD154</f>
+        <v>0.59725</v>
+      </c>
+      <c r="AB154" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC154" s="0" t="n">
+        <v>0.5012</v>
+      </c>
+      <c r="AD154" s="0" t="n">
+        <v>0.59725</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C155" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="C155" s="4" t="n">
         <v>0.6106</v>
       </c>
-      <c r="D155" s="1" t="n">
+      <c r="D155" s="4" t="n">
         <v>0.8696</v>
       </c>
-      <c r="E155" s="1" t="n">
+      <c r="E155" s="4" t="n">
         <v>0.3137</v>
       </c>
-      <c r="F155" s="1" t="n">
+      <c r="F155" s="6" t="n">
         <v>0.601</v>
       </c>
-      <c r="G155" s="1" t="n">
+      <c r="G155" s="4" t="n">
         <v>0.7118</v>
       </c>
-      <c r="H155" s="1" t="n">
+      <c r="H155" s="4" t="n">
         <v>0.8188</v>
       </c>
-      <c r="I155" s="1" t="n">
+      <c r="I155" s="4" t="n">
         <v>0.6473</v>
       </c>
-      <c r="J155" s="1" t="n">
+      <c r="J155" s="4" t="n">
         <v>0.9817</v>
       </c>
-      <c r="K155" s="1" t="n">
+      <c r="K155" s="4" t="n">
         <v>0.9352</v>
       </c>
-      <c r="M155" s="3"/>
+      <c r="M155" s="5"/>
       <c r="O155" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="P155" s="4" t="n">
-        <v>0.587</v>
-      </c>
-      <c r="Q155" s="5" t="n">
-        <v>0.752</v>
-      </c>
-      <c r="R155" s="5" t="n">
-        <v>0.554</v>
-      </c>
-      <c r="S155" s="5" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="T155" s="5" t="n">
-        <v>0.728</v>
-      </c>
-      <c r="U155" s="5" t="n">
-        <v>0.757</v>
-      </c>
-      <c r="V155" s="5" t="n">
-        <v>0.388</v>
-      </c>
-      <c r="W155" s="0" t="n">
-        <v>0.986</v>
-      </c>
-      <c r="X155" s="0" t="n">
-        <v>0.50675</v>
+        <v>126</v>
+      </c>
+      <c r="P155" s="0" t="n">
+        <v>0.6148</v>
+      </c>
+      <c r="Q155" s="0" t="n">
+        <v>0.7474</v>
+      </c>
+      <c r="R155" s="0" t="n">
+        <v>0.5705</v>
+      </c>
+      <c r="S155" s="7" t="n">
+        <v>0.1626</v>
+      </c>
+      <c r="T155" s="0" t="n">
+        <v>0.6964</v>
+      </c>
+      <c r="U155" s="0" t="n">
+        <v>0.7415</v>
+      </c>
+      <c r="V155" s="0" t="n">
+        <v>0.3957</v>
+      </c>
+      <c r="W155" s="2" t="n">
+        <f aca="false">AC155</f>
+        <v>0.9791</v>
+      </c>
+      <c r="X155" s="2" t="n">
+        <f aca="false">AD155</f>
+        <v>0.507075</v>
+      </c>
+      <c r="AB155" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC155" s="0" t="n">
+        <v>0.9791</v>
+      </c>
+      <c r="AD155" s="0" t="n">
+        <v>0.507075</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C156" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="C156" s="4" t="n">
         <v>0.2515</v>
       </c>
-      <c r="D156" s="1" t="n">
+      <c r="D156" s="4" t="n">
         <v>0.69</v>
       </c>
-      <c r="E156" s="1" t="n">
+      <c r="E156" s="4" t="n">
         <v>0.6785</v>
       </c>
-      <c r="F156" s="1" t="n">
+      <c r="F156" s="4" t="n">
         <v>0.9054</v>
       </c>
-      <c r="G156" s="1" t="n">
+      <c r="G156" s="4" t="n">
         <v>0.8348</v>
       </c>
-      <c r="H156" s="1" t="n">
+      <c r="H156" s="4" t="n">
         <v>0.5005</v>
       </c>
-      <c r="I156" s="1" t="n">
+      <c r="I156" s="4" t="n">
         <v>0.4172</v>
       </c>
-      <c r="J156" s="1" t="n">
+      <c r="J156" s="4" t="n">
         <v>0.6317</v>
       </c>
-      <c r="K156" s="1" t="n">
+      <c r="K156" s="4" t="n">
         <v>0.828</v>
       </c>
-      <c r="M156" s="3"/>
+      <c r="M156" s="5"/>
       <c r="O156" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="P156" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Q156" s="5" t="n">
-        <v>0.686</v>
-      </c>
-      <c r="R156" s="5" t="n">
-        <v>0.657</v>
-      </c>
-      <c r="S156" s="5" t="n">
-        <v>0.934</v>
-      </c>
-      <c r="T156" s="5" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="U156" s="5" t="n">
-        <v>0.451</v>
-      </c>
-      <c r="V156" s="5" t="n">
-        <v>0.245</v>
+        <v>128</v>
+      </c>
+      <c r="P156" s="0" t="n">
+        <v>0.1949</v>
+      </c>
+      <c r="Q156" s="0" t="n">
+        <v>0.6566</v>
+      </c>
+      <c r="R156" s="0" t="n">
+        <v>0.6542</v>
+      </c>
+      <c r="S156" s="0" t="n">
+        <v>0.9417</v>
+      </c>
+      <c r="T156" s="0" t="n">
+        <v>0.8347</v>
+      </c>
+      <c r="U156" s="0" t="n">
+        <v>0.4527</v>
+      </c>
+      <c r="V156" s="0" t="n">
+        <v>0.2463</v>
       </c>
       <c r="W156" s="0" t="n">
-        <v>0.602</v>
+        <f aca="false">AC156</f>
+        <v>0.6295</v>
       </c>
       <c r="X156" s="0" t="n">
-        <v>0.501</v>
+        <f aca="false">AD156</f>
+        <v>0.5002625</v>
+      </c>
+      <c r="AB156" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC156" s="0" t="n">
+        <v>0.6295</v>
+      </c>
+      <c r="AD156" s="0" t="n">
+        <v>0.5002625</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C157" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="C157" s="4" t="n">
         <v>0.1959</v>
       </c>
-      <c r="D157" s="1" t="n">
+      <c r="D157" s="4" t="n">
         <v>0.8965</v>
       </c>
-      <c r="E157" s="1" t="n">
+      <c r="E157" s="4" t="n">
         <v>0.8504</v>
       </c>
-      <c r="F157" s="1" t="n">
+      <c r="F157" s="4" t="n">
         <v>0.004</v>
       </c>
-      <c r="G157" s="1" t="n">
+      <c r="G157" s="4" t="n">
         <v>0.3964</v>
       </c>
-      <c r="H157" s="1" t="n">
+      <c r="H157" s="4" t="n">
         <v>0.0947</v>
       </c>
-      <c r="I157" s="1" t="n">
+      <c r="I157" s="4" t="n">
         <v>0.3068</v>
       </c>
-      <c r="J157" s="1" t="n">
+      <c r="J157" s="4" t="n">
         <v>0.9188</v>
       </c>
-      <c r="K157" s="1" t="n">
+      <c r="K157" s="4" t="n">
         <v>0.1667</v>
       </c>
-      <c r="M157" s="3"/>
+      <c r="M157" s="5"/>
       <c r="O157" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="P157" s="4" t="n">
-        <v>0.182</v>
-      </c>
-      <c r="Q157" s="5" t="n">
-        <v>0.798</v>
-      </c>
-      <c r="R157" s="5" t="n">
-        <v>0.969</v>
-      </c>
-      <c r="S157" s="5" t="n">
-        <v>0.089</v>
-      </c>
-      <c r="T157" s="5" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="U157" s="5" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="V157" s="5" t="n">
-        <v>0.203</v>
+        <v>130</v>
+      </c>
+      <c r="P157" s="0" t="n">
+        <v>0.1995</v>
+      </c>
+      <c r="Q157" s="0" t="n">
+        <v>0.8154</v>
+      </c>
+      <c r="R157" s="0" t="n">
+        <v>0.9658</v>
+      </c>
+      <c r="S157" s="0" t="n">
+        <v>0.0812</v>
+      </c>
+      <c r="T157" s="0" t="n">
+        <v>0.2747</v>
+      </c>
+      <c r="U157" s="0" t="n">
+        <v>0.0681</v>
+      </c>
+      <c r="V157" s="0" t="n">
+        <v>0.2126</v>
       </c>
       <c r="W157" s="0" t="n">
-        <v>0.79</v>
+        <f aca="false">AC157</f>
+        <v>0.9251</v>
       </c>
       <c r="X157" s="0" t="n">
-        <v>0.50175</v>
+        <f aca="false">AD157</f>
+        <v>0.500775</v>
+      </c>
+      <c r="AB157" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC157" s="0" t="n">
+        <v>0.9251</v>
+      </c>
+      <c r="AD157" s="0" t="n">
+        <v>0.500775</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C158" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="C158" s="4" t="n">
         <v>0.0397</v>
       </c>
-      <c r="D158" s="1" t="n">
+      <c r="D158" s="4" t="n">
         <v>0.832</v>
       </c>
-      <c r="E158" s="1" t="n">
+      <c r="E158" s="4" t="n">
         <v>0.1626</v>
       </c>
-      <c r="F158" s="1" t="n">
+      <c r="F158" s="4" t="n">
         <v>0.9319</v>
       </c>
-      <c r="G158" s="1" t="n">
+      <c r="G158" s="4" t="n">
         <v>0.2117</v>
       </c>
-      <c r="H158" s="1" t="n">
+      <c r="H158" s="4" t="n">
         <v>0.0927</v>
       </c>
-      <c r="I158" s="1" t="n">
+      <c r="I158" s="4" t="n">
         <v>0.3707</v>
       </c>
-      <c r="J158" s="1" t="n">
+      <c r="J158" s="4" t="n">
         <v>0.1096</v>
       </c>
-      <c r="K158" s="1" t="n">
+      <c r="K158" s="4" t="n">
         <v>0.1202</v>
       </c>
-      <c r="M158" s="3"/>
+      <c r="M158" s="5"/>
       <c r="O158" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="P158" s="4" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="Q158" s="5" t="n">
-        <v>0.786</v>
-      </c>
-      <c r="R158" s="5" t="n">
-        <v>0.074</v>
-      </c>
-      <c r="S158" s="5" t="n">
-        <v>0.657</v>
-      </c>
-      <c r="T158" s="5" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="U158" s="5" t="n">
-        <v>0.203</v>
-      </c>
-      <c r="V158" s="5" t="n">
-        <v>0.156</v>
+        <v>132</v>
+      </c>
+      <c r="P158" s="0" t="n">
+        <v>0.0173</v>
+      </c>
+      <c r="Q158" s="0" t="n">
+        <v>0.7694</v>
+      </c>
+      <c r="R158" s="0" t="n">
+        <v>0.0722</v>
+      </c>
+      <c r="S158" s="0" t="n">
+        <v>0.6398</v>
+      </c>
+      <c r="T158" s="0" t="n">
+        <v>0.0243</v>
+      </c>
+      <c r="U158" s="0" t="n">
+        <v>0.1957</v>
+      </c>
+      <c r="V158" s="0" t="n">
+        <v>0.1875</v>
       </c>
       <c r="W158" s="0" t="n">
-        <v>0.249</v>
+        <f aca="false">AC158</f>
+        <v>0.2429</v>
       </c>
       <c r="X158" s="0" t="n">
-        <v>0.514</v>
+        <f aca="false">AD158</f>
+        <v>0.5147</v>
+      </c>
+      <c r="AB158" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC158" s="0" t="n">
+        <v>0.2429</v>
+      </c>
+      <c r="AD158" s="0" t="n">
+        <v>0.5147</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C159" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="C159" s="4" t="n">
         <v>0.4409</v>
       </c>
-      <c r="D159" s="1" t="n">
+      <c r="D159" s="4" t="n">
         <v>0.5598</v>
       </c>
-      <c r="E159" s="1" t="n">
+      <c r="E159" s="4" t="n">
         <v>0.8777</v>
       </c>
-      <c r="F159" s="1" t="n">
+      <c r="F159" s="4" t="n">
         <v>0.164</v>
       </c>
-      <c r="G159" s="1" t="n">
+      <c r="G159" s="4" t="n">
         <v>0.7229</v>
       </c>
-      <c r="H159" s="1" t="n">
+      <c r="H159" s="4" t="n">
         <v>0.6194</v>
       </c>
-      <c r="I159" s="1" t="n">
+      <c r="I159" s="4" t="n">
         <v>0.5981</v>
       </c>
-      <c r="J159" s="1" t="n">
+      <c r="J159" s="4" t="n">
         <v>0.7657</v>
       </c>
-      <c r="K159" s="1" t="n">
+      <c r="K159" s="4" t="n">
         <v>0.7692</v>
       </c>
-      <c r="M159" s="3"/>
+      <c r="M159" s="5"/>
       <c r="O159" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="P159" s="4" t="n">
-        <v>0.778</v>
-      </c>
-      <c r="Q159" s="5" t="n">
-        <v>0.247</v>
-      </c>
-      <c r="R159" s="5" t="n">
-        <v>0.884</v>
-      </c>
-      <c r="S159" s="5" t="n">
-        <v>0.032</v>
-      </c>
-      <c r="T159" s="5" t="n">
-        <v>0.331</v>
-      </c>
-      <c r="U159" s="5" t="n">
-        <v>0.836</v>
-      </c>
-      <c r="V159" s="5" t="n">
-        <v>0.589</v>
+        <v>134</v>
+      </c>
+      <c r="P159" s="0" t="n">
+        <v>0.7734</v>
+      </c>
+      <c r="Q159" s="0" t="n">
+        <v>0.2514</v>
+      </c>
+      <c r="R159" s="0" t="n">
+        <v>0.8856</v>
+      </c>
+      <c r="S159" s="0" t="n">
+        <v>0.0283</v>
+      </c>
+      <c r="T159" s="0" t="n">
+        <v>0.3634</v>
+      </c>
+      <c r="U159" s="0" t="n">
+        <v>0.8382</v>
+      </c>
+      <c r="V159" s="0" t="n">
+        <v>0.5772</v>
       </c>
       <c r="W159" s="0" t="n">
-        <v>0.762</v>
+        <f aca="false">AC159</f>
+        <v>0.7761</v>
       </c>
       <c r="X159" s="0" t="n">
-        <v>0.57737</v>
+        <f aca="false">AD159</f>
+        <v>0.5807875</v>
+      </c>
+      <c r="AB159" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC159" s="0" t="n">
+        <v>0.7761</v>
+      </c>
+      <c r="AD159" s="0" t="n">
+        <v>0.5807875</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C160" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="C160" s="4" t="n">
         <v>0.5848</v>
       </c>
-      <c r="D160" s="1" t="n">
+      <c r="D160" s="4" t="n">
         <v>0.4805</v>
       </c>
-      <c r="E160" s="1" t="n">
+      <c r="E160" s="4" t="n">
         <v>0.8633</v>
       </c>
-      <c r="F160" s="1" t="n">
+      <c r="F160" s="4" t="n">
         <v>0.4536</v>
       </c>
-      <c r="G160" s="1" t="n">
+      <c r="G160" s="4" t="n">
         <v>0.7961</v>
       </c>
-      <c r="H160" s="1" t="n">
+      <c r="H160" s="4" t="n">
         <v>0.3286</v>
       </c>
-      <c r="I160" s="1" t="n">
+      <c r="I160" s="4" t="n">
         <v>0.6081</v>
       </c>
-      <c r="J160" s="1" t="n">
+      <c r="J160" s="4" t="n">
         <v>0.9158</v>
       </c>
-      <c r="K160" s="1" t="n">
+      <c r="K160" s="4" t="n">
         <v>0.7973</v>
       </c>
-      <c r="M160" s="3"/>
+      <c r="M160" s="5"/>
       <c r="O160" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="P160" s="4" t="n">
-        <v>0.437</v>
-      </c>
-      <c r="Q160" s="5" t="n">
-        <v>0.341</v>
-      </c>
-      <c r="R160" s="5" t="n">
-        <v>0.786</v>
-      </c>
-      <c r="S160" s="5" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="T160" s="5" t="n">
-        <v>0.883</v>
-      </c>
-      <c r="U160" s="5" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="V160" s="5" t="n">
-        <v>0.71</v>
+        <v>136</v>
+      </c>
+      <c r="P160" s="0" t="n">
+        <v>0.4394</v>
+      </c>
+      <c r="Q160" s="0" t="n">
+        <v>0.3518</v>
+      </c>
+      <c r="R160" s="0" t="n">
+        <v>0.7788</v>
+      </c>
+      <c r="S160" s="0" t="n">
+        <v>0.3076</v>
+      </c>
+      <c r="T160" s="0" t="n">
+        <v>0.872</v>
+      </c>
+      <c r="U160" s="0" t="n">
+        <v>0.4575</v>
+      </c>
+      <c r="V160" s="0" t="n">
+        <v>0.6946</v>
       </c>
       <c r="W160" s="0" t="n">
-        <v>0.802</v>
+        <f aca="false">AC160</f>
+        <v>0.9161</v>
       </c>
       <c r="X160" s="0" t="n">
-        <v>0.61312</v>
+        <f aca="false">AD160</f>
+        <v>0.6108625</v>
+      </c>
+      <c r="AB160" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC160" s="0" t="n">
+        <v>0.9161</v>
+      </c>
+      <c r="AD160" s="0" t="n">
+        <v>0.6108625</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C161" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="C161" s="4" t="n">
         <v>0.8428</v>
       </c>
-      <c r="D161" s="1" t="n">
+      <c r="D161" s="4" t="n">
         <v>0.9132</v>
       </c>
-      <c r="E161" s="1" t="n">
+      <c r="E161" s="4" t="n">
         <v>0.0398</v>
       </c>
-      <c r="F161" s="1" t="n">
+      <c r="F161" s="4" t="n">
         <v>0.0143</v>
       </c>
-      <c r="G161" s="1" t="n">
+      <c r="G161" s="4" t="n">
         <v>0.8415</v>
       </c>
-      <c r="H161" s="1" t="n">
+      <c r="H161" s="4" t="n">
         <v>0.7474</v>
       </c>
-      <c r="I161" s="1" t="n">
+      <c r="I161" s="4" t="n">
         <v>0.5256</v>
       </c>
-      <c r="J161" s="1" t="n">
+      <c r="J161" s="4" t="n">
         <v>0.6679</v>
       </c>
-      <c r="K161" s="1" t="n">
+      <c r="K161" s="4" t="n">
         <v>0.444</v>
       </c>
-      <c r="M161" s="3"/>
+      <c r="M161" s="5"/>
       <c r="O161" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="P161" s="4" t="n">
-        <v>0.725</v>
-      </c>
-      <c r="Q161" s="5" t="n">
-        <v>0.705</v>
-      </c>
-      <c r="R161" s="5" t="n">
-        <v>0.045</v>
-      </c>
-      <c r="S161" s="5" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="T161" s="5" t="n">
-        <v>0.289</v>
-      </c>
-      <c r="U161" s="5" t="n">
-        <v>0.445</v>
-      </c>
-      <c r="V161" s="5" t="n">
-        <v>0.411</v>
+        <v>138</v>
+      </c>
+      <c r="P161" s="0" t="n">
+        <v>0.7304</v>
+      </c>
+      <c r="Q161" s="0" t="n">
+        <v>0.7279</v>
+      </c>
+      <c r="R161" s="0" t="n">
+        <v>0.0402</v>
+      </c>
+      <c r="S161" s="0" t="n">
+        <v>0.0019</v>
+      </c>
+      <c r="T161" s="0" t="n">
+        <v>0.2858</v>
+      </c>
+      <c r="U161" s="0" t="n">
+        <v>0.4309</v>
+      </c>
+      <c r="V161" s="0" t="n">
+        <v>0.3796</v>
       </c>
       <c r="W161" s="0" t="n">
-        <v>0.635</v>
+        <f aca="false">AC161</f>
+        <v>0.662</v>
       </c>
       <c r="X161" s="0" t="n">
-        <v>0.5055</v>
+        <f aca="false">AD161</f>
+        <v>0.51315</v>
+      </c>
+      <c r="AB161" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC161" s="0" t="n">
+        <v>0.662</v>
+      </c>
+      <c r="AD161" s="0" t="n">
+        <v>0.51315</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C162" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="C162" s="4" t="n">
         <v>0.71</v>
       </c>
-      <c r="D162" s="1" t="n">
+      <c r="D162" s="4" t="n">
         <v>0.1365</v>
       </c>
-      <c r="E162" s="1" t="n">
+      <c r="E162" s="4" t="n">
         <v>0.8218</v>
       </c>
-      <c r="F162" s="1" t="n">
+      <c r="F162" s="4" t="n">
         <v>0.861</v>
       </c>
-      <c r="G162" s="1" t="n">
+      <c r="G162" s="4" t="n">
         <v>0.6937</v>
       </c>
-      <c r="H162" s="1" t="n">
+      <c r="H162" s="4" t="n">
         <v>0.1128</v>
       </c>
-      <c r="I162" s="1" t="n">
+      <c r="I162" s="8" t="n">
         <v>0.7753</v>
       </c>
-      <c r="J162" s="1" t="n">
+      <c r="J162" s="4" t="n">
         <v>0.3441</v>
       </c>
-      <c r="K162" s="1" t="n">
+      <c r="K162" s="4" t="n">
         <v>0.6161</v>
       </c>
-      <c r="M162" s="3"/>
+      <c r="M162" s="5"/>
       <c r="O162" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="P162" s="4" t="n">
-        <v>0.726</v>
-      </c>
-      <c r="Q162" s="5" t="n">
-        <v>0.098</v>
-      </c>
-      <c r="R162" s="5" t="n">
-        <v>0.752</v>
-      </c>
-      <c r="S162" s="5" t="n">
-        <v>0.622</v>
-      </c>
-      <c r="T162" s="5" t="n">
-        <v>0.56</v>
-      </c>
-      <c r="U162" s="5" t="n">
-        <v>0.104</v>
-      </c>
-      <c r="V162" s="5" t="n">
-        <v>0.175</v>
-      </c>
-      <c r="W162" s="0" t="n">
-        <v>0.532</v>
-      </c>
-      <c r="X162" s="0" t="n">
-        <v>0.615</v>
+        <v>140</v>
+      </c>
+      <c r="P162" s="0" t="n">
+        <v>0.7046</v>
+      </c>
+      <c r="Q162" s="0" t="n">
+        <v>0.0917</v>
+      </c>
+      <c r="R162" s="0" t="n">
+        <v>0.7679</v>
+      </c>
+      <c r="S162" s="0" t="n">
+        <v>0.6062</v>
+      </c>
+      <c r="T162" s="0" t="n">
+        <v>0.5706</v>
+      </c>
+      <c r="U162" s="0" t="n">
+        <v>0.1203</v>
+      </c>
+      <c r="V162" s="9" t="n">
+        <v>0.1902</v>
+      </c>
+      <c r="W162" s="2" t="n">
+        <f aca="false">AC162</f>
+        <v>0.5045</v>
+      </c>
+      <c r="X162" s="2" t="n">
+        <f aca="false">AD162</f>
+        <v>0.6149</v>
+      </c>
+      <c r="AB162" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC162" s="0" t="n">
+        <v>0.5045</v>
+      </c>
+      <c r="AD162" s="0" t="n">
+        <v>0.6149</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C163" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="C163" s="4" t="n">
         <v>0.357</v>
       </c>
-      <c r="D163" s="1" t="n">
+      <c r="D163" s="4" t="n">
         <v>0.4331</v>
       </c>
-      <c r="E163" s="1" t="n">
+      <c r="E163" s="4" t="n">
         <v>0.1518</v>
       </c>
-      <c r="F163" s="1" t="n">
+      <c r="F163" s="4" t="n">
         <v>0.4784</v>
       </c>
-      <c r="G163" s="1" t="n">
+      <c r="G163" s="4" t="n">
         <v>0.7286</v>
       </c>
-      <c r="H163" s="1" t="n">
+      <c r="H163" s="4" t="n">
         <v>0.585</v>
       </c>
-      <c r="I163" s="1" t="n">
+      <c r="I163" s="4" t="n">
         <v>0.8556</v>
       </c>
-      <c r="J163" s="1" t="n">
+      <c r="J163" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="K163" s="1" t="n">
+      <c r="K163" s="4" t="n">
         <v>0.7226</v>
       </c>
-      <c r="M163" s="3"/>
+      <c r="M163" s="5"/>
       <c r="O163" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="P163" s="4" t="n">
-        <v>0.206</v>
-      </c>
-      <c r="Q163" s="5" t="n">
-        <v>0.557</v>
-      </c>
-      <c r="R163" s="5" t="n">
-        <v>0.097</v>
-      </c>
-      <c r="S163" s="5" t="n">
-        <v>0.547</v>
-      </c>
-      <c r="T163" s="5" t="n">
-        <v>0.735</v>
-      </c>
-      <c r="U163" s="5" t="n">
-        <v>0.616</v>
-      </c>
-      <c r="V163" s="5" t="n">
-        <v>0.731</v>
+        <v>142</v>
+      </c>
+      <c r="P163" s="0" t="n">
+        <v>0.2065</v>
+      </c>
+      <c r="Q163" s="0" t="n">
+        <v>0.5665</v>
+      </c>
+      <c r="R163" s="0" t="n">
+        <v>0.1073</v>
+      </c>
+      <c r="S163" s="0" t="n">
+        <v>0.5393</v>
+      </c>
+      <c r="T163" s="0" t="n">
+        <v>0.7242</v>
+      </c>
+      <c r="U163" s="0" t="n">
+        <v>0.6128</v>
+      </c>
+      <c r="V163" s="0" t="n">
+        <v>0.7357</v>
       </c>
       <c r="W163" s="0" t="n">
-        <v>0.864</v>
+        <f aca="false">AC163</f>
+        <v>0.8694</v>
       </c>
       <c r="X163" s="0" t="n">
-        <v>0.60637</v>
+        <f aca="false">AD163</f>
+        <v>0.6067875</v>
+      </c>
+      <c r="AB163" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC163" s="0" t="n">
+        <v>0.8694</v>
+      </c>
+      <c r="AD163" s="0" t="n">
+        <v>0.6067875</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C164" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="C164" s="4" t="n">
         <v>0.9276</v>
       </c>
-      <c r="D164" s="1" t="n">
+      <c r="D164" s="4" t="n">
         <v>0.4969</v>
       </c>
-      <c r="E164" s="1" t="n">
+      <c r="E164" s="4" t="n">
         <v>0.969</v>
       </c>
-      <c r="F164" s="1" t="n">
+      <c r="F164" s="4" t="n">
         <v>0.675</v>
       </c>
-      <c r="G164" s="1" t="n">
+      <c r="G164" s="10" t="n">
         <v>0.8848</v>
       </c>
-      <c r="H164" s="1" t="n">
+      <c r="H164" s="4" t="n">
         <v>0.6967</v>
       </c>
-      <c r="I164" s="1" t="n">
+      <c r="I164" s="4" t="n">
         <v>0.2893</v>
       </c>
-      <c r="J164" s="1" t="n">
+      <c r="J164" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="K164" s="1" t="n">
+      <c r="K164" s="4" t="n">
         <v>0.9392</v>
       </c>
-      <c r="M164" s="3"/>
+      <c r="M164" s="5"/>
       <c r="O164" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P164" s="4" t="n">
-        <v>0.898</v>
-      </c>
-      <c r="Q164" s="5" t="n">
-        <v>0.463</v>
-      </c>
-      <c r="R164" s="5" t="n">
-        <v>0.502</v>
-      </c>
-      <c r="S164" s="5" t="n">
-        <v>0.961</v>
-      </c>
-      <c r="T164" s="5" t="n">
-        <v>0.442</v>
-      </c>
-      <c r="U164" s="5" t="n">
-        <v>0.397</v>
-      </c>
-      <c r="V164" s="5" t="n">
-        <v>0.185</v>
-      </c>
-      <c r="W164" s="0" t="n">
-        <v>0.638</v>
-      </c>
-      <c r="X164" s="0" t="n">
-        <v>0.60137</v>
+        <v>144</v>
+      </c>
+      <c r="P164" s="0" t="n">
+        <v>0.9356</v>
+      </c>
+      <c r="Q164" s="0" t="n">
+        <v>0.4428</v>
+      </c>
+      <c r="R164" s="0" t="n">
+        <v>0.4805</v>
+      </c>
+      <c r="S164" s="0" t="n">
+        <v>0.9681</v>
+      </c>
+      <c r="T164" s="11" t="n">
+        <v>0.4345</v>
+      </c>
+      <c r="U164" s="0" t="n">
+        <v>0.3984</v>
+      </c>
+      <c r="V164" s="0" t="n">
+        <v>0.1819</v>
+      </c>
+      <c r="W164" s="2" t="n">
+        <f aca="false">AC164</f>
+        <v>0.6231</v>
+      </c>
+      <c r="X164" s="2" t="n">
+        <f aca="false">AD164</f>
+        <v>0.601275</v>
+      </c>
+      <c r="AB164" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC164" s="0" t="n">
+        <v>0.6231</v>
+      </c>
+      <c r="AD164" s="0" t="n">
+        <v>0.601275</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C165" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="C165" s="4" t="n">
         <v>0.4602</v>
       </c>
-      <c r="D165" s="1" t="n">
+      <c r="D165" s="4" t="n">
         <v>0.2109</v>
       </c>
-      <c r="E165" s="1" t="n">
+      <c r="E165" s="4" t="n">
         <v>0.6985</v>
       </c>
-      <c r="F165" s="1" t="n">
+      <c r="F165" s="4" t="n">
         <v>0.5673</v>
       </c>
-      <c r="G165" s="1" t="n">
+      <c r="G165" s="4" t="n">
         <v>0.8227</v>
       </c>
-      <c r="H165" s="1" t="n">
+      <c r="H165" s="4" t="n">
         <v>0.1136</v>
       </c>
-      <c r="I165" s="1" t="n">
+      <c r="I165" s="4" t="n">
         <v>0.2285</v>
       </c>
-      <c r="J165" s="1" t="n">
+      <c r="J165" s="4" t="n">
         <v>0.8923</v>
       </c>
-      <c r="K165" s="1" t="n">
+      <c r="K165" s="4" t="n">
         <v>0.3343</v>
       </c>
-      <c r="M165" s="3"/>
+      <c r="M165" s="5"/>
       <c r="O165" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="P165" s="4" t="n">
-        <v>0.774</v>
-      </c>
-      <c r="Q165" s="5" t="n">
-        <v>0.177</v>
-      </c>
-      <c r="R165" s="5" t="n">
-        <v>0.679</v>
-      </c>
-      <c r="S165" s="5" t="n">
-        <v>0.508</v>
-      </c>
-      <c r="T165" s="5" t="n">
-        <v>0.825</v>
-      </c>
-      <c r="U165" s="5" t="n">
-        <v>0.098</v>
-      </c>
-      <c r="V165" s="5" t="n">
-        <v>0.324</v>
+        <v>146</v>
+      </c>
+      <c r="P165" s="0" t="n">
+        <v>0.7805</v>
+      </c>
+      <c r="Q165" s="0" t="n">
+        <v>0.1757</v>
+      </c>
+      <c r="R165" s="0" t="n">
+        <v>0.6748</v>
+      </c>
+      <c r="S165" s="0" t="n">
+        <v>0.542</v>
+      </c>
+      <c r="T165" s="0" t="n">
+        <v>0.824</v>
+      </c>
+      <c r="U165" s="0" t="n">
+        <v>0.1043</v>
+      </c>
+      <c r="V165" s="0" t="n">
+        <v>0.3118</v>
       </c>
       <c r="W165" s="0" t="n">
-        <v>0.888</v>
+        <f aca="false">AC165</f>
+        <v>0.8887</v>
       </c>
       <c r="X165" s="0" t="n">
-        <v>0.46312</v>
+        <f aca="false">AD165</f>
+        <v>0.4680875</v>
+      </c>
+      <c r="AB165" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC165" s="0" t="n">
+        <v>0.8887</v>
+      </c>
+      <c r="AD165" s="0" t="n">
+        <v>0.4680875</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C166" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="C166" s="4" t="n">
         <v>0.8555</v>
       </c>
-      <c r="D166" s="1" t="n">
+      <c r="D166" s="4" t="n">
         <v>0.4529</v>
       </c>
-      <c r="E166" s="1" t="n">
+      <c r="E166" s="4" t="n">
         <v>0.987</v>
       </c>
-      <c r="F166" s="1" t="n">
+      <c r="F166" s="4" t="n">
         <v>0.7661</v>
       </c>
-      <c r="G166" s="1" t="n">
+      <c r="G166" s="4" t="n">
         <v>0.0634</v>
       </c>
-      <c r="H166" s="1" t="n">
+      <c r="H166" s="4" t="n">
         <v>0.244</v>
       </c>
-      <c r="I166" s="1" t="n">
+      <c r="I166" s="4" t="n">
         <v>0.7014</v>
       </c>
-      <c r="J166" s="1" t="n">
+      <c r="J166" s="4" t="n">
         <v>0.2615</v>
       </c>
-      <c r="K166" s="1" t="n">
+      <c r="K166" s="4" t="n">
         <v>0.7117</v>
       </c>
-      <c r="M166" s="3"/>
+      <c r="M166" s="5"/>
       <c r="O166" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="P166" s="4" t="n">
-        <v>0.843</v>
-      </c>
-      <c r="Q166" s="5" t="n">
-        <v>0.429</v>
-      </c>
-      <c r="R166" s="5" t="n">
-        <v>0.836</v>
-      </c>
-      <c r="S166" s="5" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="T166" s="5" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="U166" s="5" t="n">
-        <v>0.545</v>
-      </c>
-      <c r="V166" s="5" t="n">
-        <v>0.345</v>
+        <v>148</v>
+      </c>
+      <c r="P166" s="0" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="Q166" s="0" t="n">
+        <v>0.4373</v>
+      </c>
+      <c r="R166" s="0" t="n">
+        <v>0.8306</v>
+      </c>
+      <c r="S166" s="0" t="n">
+        <v>0.4953</v>
+      </c>
+      <c r="T166" s="0" t="n">
+        <v>0.0084</v>
+      </c>
+      <c r="U166" s="0" t="n">
+        <v>0.5182</v>
+      </c>
+      <c r="V166" s="0" t="n">
+        <v>0.3439</v>
       </c>
       <c r="W166" s="0" t="n">
-        <v>0.21</v>
+        <f aca="false">AC166</f>
+        <v>0.2675</v>
       </c>
       <c r="X166" s="0" t="n">
-        <v>0.48875</v>
+        <f aca="false">AD166</f>
+        <v>0.4869625</v>
+      </c>
+      <c r="AB166" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC166" s="0" t="n">
+        <v>0.2675</v>
+      </c>
+      <c r="AD166" s="0" t="n">
+        <v>0.4869625</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C167" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="C167" s="4" t="n">
         <v>0.7319</v>
       </c>
-      <c r="D167" s="1" t="n">
+      <c r="D167" s="4" t="n">
         <v>0.58</v>
       </c>
-      <c r="E167" s="1" t="n">
+      <c r="E167" s="4" t="n">
         <v>0.0792</v>
       </c>
-      <c r="F167" s="1" t="n">
+      <c r="F167" s="4" t="n">
         <v>0.8436</v>
       </c>
-      <c r="G167" s="1" t="n">
+      <c r="G167" s="4" t="n">
         <v>0.0952</v>
       </c>
-      <c r="H167" s="1" t="n">
+      <c r="H167" s="4" t="n">
         <v>0.3245</v>
       </c>
-      <c r="I167" s="1" t="n">
+      <c r="I167" s="4" t="n">
         <v>0.0505</v>
       </c>
-      <c r="J167" s="1" t="n">
+      <c r="J167" s="4" t="n">
         <v>0.764</v>
       </c>
-      <c r="K167" s="1" t="n">
+      <c r="K167" s="4" t="n">
         <v>0.0766</v>
       </c>
-      <c r="M167" s="3"/>
+      <c r="M167" s="5"/>
       <c r="O167" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="P167" s="4" t="n">
-        <v>0.554</v>
-      </c>
-      <c r="Q167" s="5" t="n">
-        <v>0.337</v>
-      </c>
-      <c r="R167" s="5" t="n">
-        <v>0.076</v>
-      </c>
-      <c r="S167" s="5" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="T167" s="5" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="U167" s="5" t="n">
-        <v>0.112</v>
-      </c>
-      <c r="V167" s="5" t="n">
-        <v>0.088</v>
+        <v>150</v>
+      </c>
+      <c r="P167" s="0" t="n">
+        <v>0.5792</v>
+      </c>
+      <c r="Q167" s="0" t="n">
+        <v>0.3241</v>
+      </c>
+      <c r="R167" s="0" t="n">
+        <v>0.0618</v>
+      </c>
+      <c r="S167" s="0" t="n">
+        <v>0.923</v>
+      </c>
+      <c r="T167" s="0" t="n">
+        <v>0.0935</v>
+      </c>
+      <c r="U167" s="0" t="n">
+        <v>0.0978</v>
+      </c>
+      <c r="V167" s="0" t="n">
+        <v>0.0714</v>
       </c>
       <c r="W167" s="0" t="n">
-        <v>0.565</v>
+        <f aca="false">AC167</f>
+        <v>0.7808</v>
       </c>
       <c r="X167" s="0" t="n">
-        <v>0.48775</v>
+        <f aca="false">AD167</f>
+        <v>0.4861125</v>
+      </c>
+      <c r="AB167" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC167" s="0" t="n">
+        <v>0.7808</v>
+      </c>
+      <c r="AD167" s="0" t="n">
+        <v>0.4861125</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10189,23 +11108,23 @@
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B171" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="P171" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC171" s="7" t="s">
-        <v>125</v>
+        <v>151</v>
+      </c>
+      <c r="P171" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC171" s="12" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B172" s="1" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B173" s="1" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="P173" s="1" t="s">
         <v>3</v>
@@ -10232,474 +11151,474 @@
         <v>10</v>
       </c>
       <c r="X173" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC173" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AD173" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="AE173" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC173" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD173" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE173" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AF173" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG173" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="AH173" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="AI173" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="AJ173" s="2" t="s">
-        <v>134</v>
+      <c r="AF173" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG173" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH173" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI173" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ173" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B174" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="O174" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="P174" s="5" t="n">
+        <v>156</v>
+      </c>
+      <c r="O174" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="P174" s="4" t="n">
         <f aca="false">ABS(C153-P153)</f>
-        <v>0.0356000000000001</v>
-      </c>
-      <c r="Q174" s="5" t="n">
+        <v>0.0238</v>
+      </c>
+      <c r="Q174" s="4" t="n">
         <f aca="false">ABS(D153-Q153)</f>
-        <v>0.1542</v>
-      </c>
-      <c r="R174" s="5" t="n">
+        <v>0.1578</v>
+      </c>
+      <c r="R174" s="4" t="n">
         <f aca="false">ABS(E153-R153)</f>
-        <v>0.1768</v>
-      </c>
-      <c r="S174" s="5" t="n">
+        <v>0.1743</v>
+      </c>
+      <c r="S174" s="4" t="n">
         <f aca="false">ABS(F153-S153)</f>
-        <v>0.039</v>
-      </c>
-      <c r="T174" s="5" t="n">
+        <v>0.0251</v>
+      </c>
+      <c r="T174" s="4" t="n">
         <f aca="false">ABS(G153-T153)</f>
-        <v>0.0068</v>
-      </c>
-      <c r="U174" s="5" t="n">
+        <v>0.0078</v>
+      </c>
+      <c r="U174" s="4" t="n">
         <f aca="false">ABS(H153-U153)</f>
-        <v>0.0209</v>
-      </c>
-      <c r="V174" s="5" t="n">
+        <v>0.00620000000000001</v>
+      </c>
+      <c r="V174" s="4" t="n">
         <f aca="false">ABS(I153-V153)</f>
-        <v>0.0349</v>
-      </c>
-      <c r="W174" s="5" t="n">
+        <v>0.0225</v>
+      </c>
+      <c r="W174" s="4" t="n">
         <f aca="false">ABS(J153-W153)</f>
-        <v>0.1092</v>
-      </c>
-      <c r="X174" s="5" t="n">
+        <v>0.00119999999999998</v>
+      </c>
+      <c r="X174" s="4" t="n">
         <f aca="false">ABS(K153-X153)</f>
-        <v>0.1902</v>
-      </c>
-      <c r="AB174" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC174" s="0" t="n">
+        <v>0.191075</v>
+      </c>
+      <c r="AB174" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC174" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AD174" s="0" t="n">
+      <c r="AD174" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="AE174" s="0" t="n">
+      <c r="AE174" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="AF174" s="0" t="n">
+      <c r="AF174" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="AG174" s="0" t="n">
+      <c r="AG174" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="AH174" s="0" t="n">
+      <c r="AH174" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="AI174" s="0" t="n">
+      <c r="AI174" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="AJ174" s="0" t="n">
+      <c r="AJ174" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B175" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="O175" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="P175" s="5" t="n">
+        <v>158</v>
+      </c>
+      <c r="O175" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P175" s="4" t="n">
         <f aca="false">ABS(C154-P154)</f>
-        <v>0.0096</v>
-      </c>
-      <c r="Q175" s="5" t="n">
+        <v>0.00580000000000003</v>
+      </c>
+      <c r="Q175" s="4" t="n">
         <f aca="false">ABS(D154-Q154)</f>
-        <v>0.0716</v>
-      </c>
-      <c r="R175" s="5" t="n">
+        <v>0.0461</v>
+      </c>
+      <c r="R175" s="4" t="n">
         <f aca="false">ABS(E154-R154)</f>
-        <v>0.0738</v>
-      </c>
-      <c r="S175" s="5" t="n">
+        <v>0.0851</v>
+      </c>
+      <c r="S175" s="4" t="n">
         <f aca="false">ABS(F154-S154)</f>
-        <v>0.3383</v>
-      </c>
-      <c r="T175" s="5" t="n">
+        <v>0.3423</v>
+      </c>
+      <c r="T175" s="4" t="n">
         <f aca="false">ABS(G154-T154)</f>
-        <v>0.002</v>
-      </c>
-      <c r="U175" s="5" t="n">
+        <v>0.00149999999999995</v>
+      </c>
+      <c r="U175" s="4" t="n">
         <f aca="false">ABS(H154-U154)</f>
-        <v>0.0304</v>
-      </c>
-      <c r="V175" s="5" t="n">
+        <v>0.0440999999999999</v>
+      </c>
+      <c r="V175" s="4" t="n">
         <f aca="false">ABS(I154-V154)</f>
-        <v>0.001</v>
-      </c>
-      <c r="W175" s="5" t="n">
+        <v>0.00220000000000001</v>
+      </c>
+      <c r="W175" s="4" t="n">
         <f aca="false">ABS(J154-W154)</f>
-        <v>0.4077</v>
-      </c>
-      <c r="X175" s="5" t="n">
+        <v>0.3975</v>
+      </c>
+      <c r="X175" s="4" t="n">
         <f aca="false">ABS(K154-X154)</f>
-        <v>0.04287</v>
-      </c>
-      <c r="AB175" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="AC175" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD175" s="0" t="n">
+        <v>0.0412499999999999</v>
+      </c>
+      <c r="AB175" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC175" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD175" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AE175" s="0" t="n">
+      <c r="AE175" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AF175" s="0" t="n">
+      <c r="AF175" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="AG175" s="0" t="n">
+      <c r="AG175" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AH175" s="0" t="n">
+      <c r="AH175" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="AI175" s="0" t="n">
+      <c r="AI175" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="AJ175" s="0" t="n">
+      <c r="AJ175" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O176" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="P176" s="5" t="n">
+      <c r="O176" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="P176" s="4" t="n">
         <f aca="false">ABS(C155-P155)</f>
-        <v>0.0236000000000001</v>
-      </c>
-      <c r="Q176" s="5" t="n">
+        <v>0.00419999999999998</v>
+      </c>
+      <c r="Q176" s="4" t="n">
         <f aca="false">ABS(D155-Q155)</f>
-        <v>0.1176</v>
-      </c>
-      <c r="R176" s="5" t="n">
+        <v>0.1222</v>
+      </c>
+      <c r="R176" s="4" t="n">
         <f aca="false">ABS(E155-R155)</f>
-        <v>0.2403</v>
-      </c>
-      <c r="S176" s="5" t="n">
+        <v>0.2568</v>
+      </c>
+      <c r="S176" s="4" t="n">
         <f aca="false">ABS(F155-S155)</f>
-        <v>0.421</v>
-      </c>
-      <c r="T176" s="5" t="n">
+        <v>0.4384</v>
+      </c>
+      <c r="T176" s="4" t="n">
         <f aca="false">ABS(G155-T155)</f>
-        <v>0.0162</v>
-      </c>
-      <c r="U176" s="5" t="n">
+        <v>0.0154</v>
+      </c>
+      <c r="U176" s="4" t="n">
         <f aca="false">ABS(H155-U155)</f>
-        <v>0.0618</v>
-      </c>
-      <c r="V176" s="5" t="n">
+        <v>0.0772999999999999</v>
+      </c>
+      <c r="V176" s="4" t="n">
         <f aca="false">ABS(I155-V155)</f>
-        <v>0.2593</v>
-      </c>
-      <c r="W176" s="5" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="W176" s="4" t="n">
         <f aca="false">ABS(J155-W155)</f>
-        <v>0.00429999999999997</v>
-      </c>
-      <c r="X176" s="5" t="n">
+        <v>0.00260000000000005</v>
+      </c>
+      <c r="X176" s="4" t="n">
         <f aca="false">ABS(K155-X155)</f>
-        <v>0.42845</v>
-      </c>
-      <c r="AB176" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC176" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD176" s="0" t="n">
+        <v>0.428125</v>
+      </c>
+      <c r="AB176" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC176" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD176" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="AE176" s="0" t="n">
+      <c r="AE176" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="AF176" s="0" t="n">
+      <c r="AF176" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="AG176" s="0" t="n">
+      <c r="AG176" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AH176" s="0" t="n">
+      <c r="AH176" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="AI176" s="0" t="n">
+      <c r="AI176" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="AJ176" s="0" t="n">
+      <c r="AJ176" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O177" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="P177" s="5" t="n">
+      <c r="O177" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="P177" s="4" t="n">
         <f aca="false">ABS(C156-P156)</f>
-        <v>0.0515</v>
-      </c>
-      <c r="Q177" s="5" t="n">
+        <v>0.0566</v>
+      </c>
+      <c r="Q177" s="4" t="n">
         <f aca="false">ABS(D156-Q156)</f>
-        <v>0.00399999999999989</v>
-      </c>
-      <c r="R177" s="5" t="n">
+        <v>0.0334</v>
+      </c>
+      <c r="R177" s="4" t="n">
         <f aca="false">ABS(E156-R156)</f>
-        <v>0.0215</v>
-      </c>
-      <c r="S177" s="5" t="n">
+        <v>0.0243</v>
+      </c>
+      <c r="S177" s="4" t="n">
         <f aca="false">ABS(F156-S156)</f>
-        <v>0.0286000000000001</v>
-      </c>
-      <c r="T177" s="5" t="n">
+        <v>0.0363</v>
+      </c>
+      <c r="T177" s="4" t="n">
         <f aca="false">ABS(G156-T156)</f>
-        <v>0.00480000000000003</v>
-      </c>
-      <c r="U177" s="5" t="n">
+        <v>9.9999999999989E-005</v>
+      </c>
+      <c r="U177" s="4" t="n">
         <f aca="false">ABS(H156-U156)</f>
-        <v>0.0494999999999999</v>
-      </c>
-      <c r="V177" s="5" t="n">
+        <v>0.0478</v>
+      </c>
+      <c r="V177" s="4" t="n">
         <f aca="false">ABS(I156-V156)</f>
-        <v>0.1722</v>
-      </c>
-      <c r="W177" s="5" t="n">
+        <v>0.1709</v>
+      </c>
+      <c r="W177" s="4" t="n">
         <f aca="false">ABS(J156-W156)</f>
-        <v>0.0297000000000001</v>
-      </c>
-      <c r="X177" s="5" t="n">
+        <v>0.00220000000000009</v>
+      </c>
+      <c r="X177" s="4" t="n">
         <f aca="false">ABS(K156-X156)</f>
-        <v>0.327</v>
-      </c>
-      <c r="AB177" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="AC177" s="0" t="n">
+        <v>0.3277375</v>
+      </c>
+      <c r="AB177" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC177" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AD177" s="0" t="n">
+      <c r="AD177" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="AE177" s="0" t="n">
+      <c r="AE177" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="AF177" s="0" t="n">
+      <c r="AF177" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="AG177" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH177" s="0" t="n">
+      <c r="AG177" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH177" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="AI177" s="0" t="n">
+      <c r="AI177" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="AJ177" s="0" t="n">
+      <c r="AJ177" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B178" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="O178" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="P178" s="5" t="n">
+        <v>162</v>
+      </c>
+      <c r="O178" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="P178" s="4" t="n">
         <f aca="false">ABS(C157-P157)</f>
-        <v>0.0139</v>
-      </c>
-      <c r="Q178" s="5" t="n">
+        <v>0.00360000000000002</v>
+      </c>
+      <c r="Q178" s="4" t="n">
         <f aca="false">ABS(D157-Q157)</f>
-        <v>0.0984999999999999</v>
-      </c>
-      <c r="R178" s="5" t="n">
+        <v>0.0811</v>
+      </c>
+      <c r="R178" s="4" t="n">
         <f aca="false">ABS(E157-R157)</f>
-        <v>0.1186</v>
-      </c>
-      <c r="S178" s="5" t="n">
+        <v>0.1154</v>
+      </c>
+      <c r="S178" s="4" t="n">
         <f aca="false">ABS(F157-S157)</f>
-        <v>0.085</v>
-      </c>
-      <c r="T178" s="5" t="n">
+        <v>0.0772</v>
+      </c>
+      <c r="T178" s="4" t="n">
         <f aca="false">ABS(G157-T157)</f>
-        <v>0.1064</v>
-      </c>
-      <c r="U178" s="5" t="n">
+        <v>0.1217</v>
+      </c>
+      <c r="U178" s="4" t="n">
         <f aca="false">ABS(H157-U157)</f>
-        <v>0.0347</v>
-      </c>
-      <c r="V178" s="5" t="n">
+        <v>0.0266</v>
+      </c>
+      <c r="V178" s="4" t="n">
         <f aca="false">ABS(I157-V157)</f>
-        <v>0.1038</v>
-      </c>
-      <c r="W178" s="5" t="n">
+        <v>0.0942</v>
+      </c>
+      <c r="W178" s="4" t="n">
         <f aca="false">ABS(J157-W157)</f>
-        <v>0.1288</v>
-      </c>
-      <c r="X178" s="5" t="n">
+        <v>0.00630000000000008</v>
+      </c>
+      <c r="X178" s="4" t="n">
         <f aca="false">ABS(K157-X157)</f>
-        <v>0.33505</v>
-      </c>
-      <c r="AB178" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC178" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD178" s="0" t="n">
+        <v>0.334075</v>
+      </c>
+      <c r="AB178" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC178" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD178" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="AE178" s="0" t="n">
+      <c r="AE178" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="AF178" s="0" t="n">
+      <c r="AF178" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="AG178" s="0" t="n">
+      <c r="AG178" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="AH178" s="0" t="n">
+      <c r="AH178" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="AI178" s="0" t="n">
+      <c r="AI178" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="AJ178" s="0" t="n">
+      <c r="AJ178" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B179" s="1" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="J179" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="O179" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="P179" s="5" t="n">
+        <v>172</v>
+      </c>
+      <c r="O179" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="P179" s="4" t="n">
         <f aca="false">ABS(C158-P158)</f>
-        <v>0.0247</v>
-      </c>
-      <c r="Q179" s="5" t="n">
+        <v>0.0224</v>
+      </c>
+      <c r="Q179" s="4" t="n">
         <f aca="false">ABS(D158-Q158)</f>
-        <v>0.0459999999999999</v>
-      </c>
-      <c r="R179" s="5" t="n">
+        <v>0.0626</v>
+      </c>
+      <c r="R179" s="4" t="n">
         <f aca="false">ABS(E158-R158)</f>
-        <v>0.0886</v>
-      </c>
-      <c r="S179" s="5" t="n">
+        <v>0.0904</v>
+      </c>
+      <c r="S179" s="4" t="n">
         <f aca="false">ABS(F158-S158)</f>
-        <v>0.2749</v>
-      </c>
-      <c r="T179" s="5" t="n">
+        <v>0.2921</v>
+      </c>
+      <c r="T179" s="4" t="n">
         <f aca="false">ABS(G158-T158)</f>
-        <v>0.1917</v>
-      </c>
-      <c r="U179" s="5" t="n">
+        <v>0.1874</v>
+      </c>
+      <c r="U179" s="4" t="n">
         <f aca="false">ABS(H158-U158)</f>
-        <v>0.1103</v>
-      </c>
-      <c r="V179" s="5" t="n">
+        <v>0.103</v>
+      </c>
+      <c r="V179" s="4" t="n">
         <f aca="false">ABS(I158-V158)</f>
-        <v>0.2147</v>
-      </c>
-      <c r="W179" s="5" t="n">
+        <v>0.1832</v>
+      </c>
+      <c r="W179" s="4" t="n">
         <f aca="false">ABS(J158-W158)</f>
-        <v>0.1394</v>
-      </c>
-      <c r="X179" s="5" t="n">
+        <v>0.1333</v>
+      </c>
+      <c r="X179" s="4" t="n">
         <f aca="false">ABS(K158-X158)</f>
-        <v>0.3938</v>
-      </c>
-      <c r="AB179" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="AC179" s="0" t="n">
+        <v>0.3945</v>
+      </c>
+      <c r="AB179" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC179" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AD179" s="0" t="n">
+      <c r="AD179" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="AE179" s="0" t="n">
+      <c r="AE179" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="AF179" s="0" t="n">
+      <c r="AF179" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="AG179" s="0" t="n">
+      <c r="AG179" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="AH179" s="0" t="n">
+      <c r="AH179" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="AI179" s="0" t="n">
+      <c r="AI179" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="AJ179" s="0" t="n">
+      <c r="AJ179" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -10719,70 +11638,70 @@
       <c r="F180" s="1" t="n">
         <v>0.05</v>
       </c>
-      <c r="O180" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="P180" s="5" t="n">
+      <c r="O180" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="P180" s="4" t="n">
         <f aca="false">ABS(C159-P159)</f>
-        <v>0.3371</v>
-      </c>
-      <c r="Q180" s="5" t="n">
+        <v>0.3325</v>
+      </c>
+      <c r="Q180" s="4" t="n">
         <f aca="false">ABS(D159-Q159)</f>
-        <v>0.3128</v>
-      </c>
-      <c r="R180" s="5" t="n">
+        <v>0.3084</v>
+      </c>
+      <c r="R180" s="4" t="n">
         <f aca="false">ABS(E159-R159)</f>
-        <v>0.00629999999999997</v>
-      </c>
-      <c r="S180" s="5" t="n">
+        <v>0.00790000000000002</v>
+      </c>
+      <c r="S180" s="4" t="n">
         <f aca="false">ABS(F159-S159)</f>
-        <v>0.132</v>
-      </c>
-      <c r="T180" s="5" t="n">
+        <v>0.1357</v>
+      </c>
+      <c r="T180" s="4" t="n">
         <f aca="false">ABS(G159-T159)</f>
-        <v>0.3919</v>
-      </c>
-      <c r="U180" s="5" t="n">
+        <v>0.3595</v>
+      </c>
+      <c r="U180" s="4" t="n">
         <f aca="false">ABS(H159-U159)</f>
-        <v>0.2166</v>
-      </c>
-      <c r="V180" s="5" t="n">
+        <v>0.2188</v>
+      </c>
+      <c r="V180" s="4" t="n">
         <f aca="false">ABS(I159-V159)</f>
-        <v>0.0091</v>
-      </c>
-      <c r="W180" s="5" t="n">
+        <v>0.0208999999999999</v>
+      </c>
+      <c r="W180" s="4" t="n">
         <f aca="false">ABS(J159-W159)</f>
-        <v>0.00370000000000004</v>
-      </c>
-      <c r="X180" s="5" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="X180" s="4" t="n">
         <f aca="false">ABS(K159-X159)</f>
-        <v>0.19183</v>
-      </c>
-      <c r="AB180" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="AC180" s="0" t="n">
+        <v>0.1884125</v>
+      </c>
+      <c r="AB180" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC180" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AD180" s="0" t="n">
+      <c r="AD180" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="AE180" s="0" t="n">
+      <c r="AE180" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="AF180" s="0" t="n">
+      <c r="AF180" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="AG180" s="0" t="n">
+      <c r="AG180" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="AH180" s="0" t="n">
+      <c r="AH180" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="AI180" s="0" t="n">
+      <c r="AI180" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="AJ180" s="0" t="n">
+      <c r="AJ180" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10802,70 +11721,70 @@
       <c r="F181" s="1" t="n">
         <v>0.017</v>
       </c>
-      <c r="O181" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="P181" s="5" t="n">
+      <c r="O181" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="P181" s="4" t="n">
         <f aca="false">ABS(C160-P160)</f>
-        <v>0.1478</v>
-      </c>
-      <c r="Q181" s="5" t="n">
+        <v>0.1454</v>
+      </c>
+      <c r="Q181" s="4" t="n">
         <f aca="false">ABS(D160-Q160)</f>
-        <v>0.1395</v>
-      </c>
-      <c r="R181" s="5" t="n">
+        <v>0.1287</v>
+      </c>
+      <c r="R181" s="4" t="n">
         <f aca="false">ABS(E160-R160)</f>
-        <v>0.0772999999999999</v>
-      </c>
-      <c r="S181" s="5" t="n">
+        <v>0.0844999999999999</v>
+      </c>
+      <c r="S181" s="4" t="n">
         <f aca="false">ABS(F160-S160)</f>
-        <v>0.1736</v>
-      </c>
-      <c r="T181" s="5" t="n">
+        <v>0.146</v>
+      </c>
+      <c r="T181" s="4" t="n">
         <f aca="false">ABS(G160-T160)</f>
-        <v>0.0869</v>
-      </c>
-      <c r="U181" s="5" t="n">
+        <v>0.0759</v>
+      </c>
+      <c r="U181" s="4" t="n">
         <f aca="false">ABS(H160-U160)</f>
-        <v>0.1414</v>
-      </c>
-      <c r="V181" s="5" t="n">
+        <v>0.1289</v>
+      </c>
+      <c r="V181" s="4" t="n">
         <f aca="false">ABS(I160-V160)</f>
-        <v>0.1019</v>
-      </c>
-      <c r="W181" s="5" t="n">
+        <v>0.0865</v>
+      </c>
+      <c r="W181" s="4" t="n">
         <f aca="false">ABS(J160-W160)</f>
-        <v>0.1138</v>
-      </c>
-      <c r="X181" s="5" t="n">
+        <v>0.000300000000000078</v>
+      </c>
+      <c r="X181" s="4" t="n">
         <f aca="false">ABS(K160-X160)</f>
-        <v>0.18418</v>
-      </c>
-      <c r="AB181" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="AC181" s="0" t="n">
+        <v>0.1864375</v>
+      </c>
+      <c r="AB181" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC181" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="AD181" s="0" t="n">
+      <c r="AD181" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="AE181" s="0" t="n">
+      <c r="AE181" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="AF181" s="0" t="n">
+      <c r="AF181" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="AG181" s="0" t="n">
+      <c r="AG181" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="AH181" s="0" t="n">
+      <c r="AH181" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="AI181" s="0" t="n">
+      <c r="AI181" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="AJ181" s="0" t="n">
+      <c r="AJ181" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10885,70 +11804,70 @@
       <c r="F182" s="1" t="n">
         <v>-0.004</v>
       </c>
-      <c r="O182" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="P182" s="5" t="n">
+      <c r="O182" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="P182" s="4" t="n">
         <f aca="false">ABS(C161-P161)</f>
-        <v>0.1178</v>
-      </c>
-      <c r="Q182" s="5" t="n">
+        <v>0.1124</v>
+      </c>
+      <c r="Q182" s="4" t="n">
         <f aca="false">ABS(D161-Q161)</f>
-        <v>0.2082</v>
-      </c>
-      <c r="R182" s="5" t="n">
+        <v>0.1853</v>
+      </c>
+      <c r="R182" s="4" t="n">
         <f aca="false">ABS(E161-R161)</f>
-        <v>0.0052</v>
-      </c>
-      <c r="S182" s="5" t="n">
+        <v>0.000399999999999998</v>
+      </c>
+      <c r="S182" s="4" t="n">
         <f aca="false">ABS(F161-S161)</f>
-        <v>0.0123</v>
-      </c>
-      <c r="T182" s="5" t="n">
+        <v>0.0124</v>
+      </c>
+      <c r="T182" s="4" t="n">
         <f aca="false">ABS(G161-T161)</f>
-        <v>0.5525</v>
-      </c>
-      <c r="U182" s="5" t="n">
+        <v>0.5557</v>
+      </c>
+      <c r="U182" s="4" t="n">
         <f aca="false">ABS(H161-U161)</f>
-        <v>0.3024</v>
-      </c>
-      <c r="V182" s="5" t="n">
+        <v>0.3165</v>
+      </c>
+      <c r="V182" s="4" t="n">
         <f aca="false">ABS(I161-V161)</f>
-        <v>0.1146</v>
-      </c>
-      <c r="W182" s="5" t="n">
+        <v>0.146</v>
+      </c>
+      <c r="W182" s="4" t="n">
         <f aca="false">ABS(J161-W161)</f>
-        <v>0.0329</v>
-      </c>
-      <c r="X182" s="5" t="n">
+        <v>0.00590000000000002</v>
+      </c>
+      <c r="X182" s="4" t="n">
         <f aca="false">ABS(K161-X161)</f>
-        <v>0.0614999999999999</v>
-      </c>
-      <c r="AB182" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC182" s="0" t="n">
+        <v>0.06915</v>
+      </c>
+      <c r="AB182" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC182" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AD182" s="0" t="n">
+      <c r="AD182" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="AE182" s="0" t="n">
+      <c r="AE182" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="AF182" s="0" t="n">
+      <c r="AF182" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="AG182" s="0" t="n">
+      <c r="AG182" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="AH182" s="0" t="n">
+      <c r="AH182" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="AI182" s="0" t="n">
+      <c r="AI182" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="AJ182" s="0" t="n">
+      <c r="AJ182" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10968,70 +11887,70 @@
       <c r="F183" s="1" t="n">
         <v>0.009</v>
       </c>
-      <c r="O183" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="P183" s="5" t="n">
+      <c r="O183" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="P183" s="4" t="n">
         <f aca="false">ABS(C162-P162)</f>
-        <v>0.016</v>
-      </c>
-      <c r="Q183" s="5" t="n">
+        <v>0.00539999999999996</v>
+      </c>
+      <c r="Q183" s="4" t="n">
         <f aca="false">ABS(D162-Q162)</f>
-        <v>0.0385</v>
-      </c>
-      <c r="R183" s="5" t="n">
+        <v>0.0448</v>
+      </c>
+      <c r="R183" s="4" t="n">
         <f aca="false">ABS(E162-R162)</f>
-        <v>0.0698</v>
-      </c>
-      <c r="S183" s="5" t="n">
+        <v>0.0539</v>
+      </c>
+      <c r="S183" s="4" t="n">
         <f aca="false">ABS(F162-S162)</f>
-        <v>0.239</v>
-      </c>
-      <c r="T183" s="5" t="n">
+        <v>0.2548</v>
+      </c>
+      <c r="T183" s="4" t="n">
         <f aca="false">ABS(G162-T162)</f>
-        <v>0.1337</v>
-      </c>
-      <c r="U183" s="5" t="n">
+        <v>0.1231</v>
+      </c>
+      <c r="U183" s="4" t="n">
         <f aca="false">ABS(H162-U162)</f>
-        <v>0.0088</v>
-      </c>
-      <c r="V183" s="5" t="n">
+        <v>0.00750000000000001</v>
+      </c>
+      <c r="V183" s="4" t="n">
         <f aca="false">ABS(I162-V162)</f>
-        <v>0.6003</v>
-      </c>
-      <c r="W183" s="5" t="n">
+        <v>0.5851</v>
+      </c>
+      <c r="W183" s="4" t="n">
         <f aca="false">ABS(J162-W162)</f>
-        <v>0.1879</v>
-      </c>
-      <c r="X183" s="5" t="n">
+        <v>0.1604</v>
+      </c>
+      <c r="X183" s="4" t="n">
         <f aca="false">ABS(K162-X162)</f>
-        <v>0.00109999999999999</v>
-      </c>
-      <c r="AB183" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC183" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD183" s="0" t="n">
+        <v>0.00119999999999998</v>
+      </c>
+      <c r="AB183" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC183" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD183" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="AE183" s="0" t="n">
+      <c r="AE183" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="AF183" s="0" t="n">
+      <c r="AF183" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="AG183" s="0" t="n">
+      <c r="AG183" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="AH183" s="0" t="n">
+      <c r="AH183" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="AI183" s="0" t="n">
+      <c r="AI183" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="AJ183" s="0" t="n">
+      <c r="AJ183" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -11051,70 +11970,70 @@
       <c r="F184" s="1" t="n">
         <v>0.017</v>
       </c>
-      <c r="O184" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="P184" s="5" t="n">
+      <c r="O184" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="P184" s="4" t="n">
         <f aca="false">ABS(C163-P163)</f>
-        <v>0.151</v>
-      </c>
-      <c r="Q184" s="5" t="n">
+        <v>0.1505</v>
+      </c>
+      <c r="Q184" s="4" t="n">
         <f aca="false">ABS(D163-Q163)</f>
-        <v>0.1239</v>
-      </c>
-      <c r="R184" s="5" t="n">
+        <v>0.1334</v>
+      </c>
+      <c r="R184" s="4" t="n">
         <f aca="false">ABS(E163-R163)</f>
-        <v>0.0548</v>
-      </c>
-      <c r="S184" s="5" t="n">
+        <v>0.0445</v>
+      </c>
+      <c r="S184" s="4" t="n">
         <f aca="false">ABS(F163-S163)</f>
-        <v>0.0686000000000001</v>
-      </c>
-      <c r="T184" s="5" t="n">
+        <v>0.0609</v>
+      </c>
+      <c r="T184" s="4" t="n">
         <f aca="false">ABS(G163-T163)</f>
-        <v>0.00639999999999996</v>
-      </c>
-      <c r="U184" s="5" t="n">
+        <v>0.00440000000000007</v>
+      </c>
+      <c r="U184" s="4" t="n">
         <f aca="false">ABS(H163-U163)</f>
-        <v>0.031</v>
-      </c>
-      <c r="V184" s="5" t="n">
+        <v>0.0278</v>
+      </c>
+      <c r="V184" s="4" t="n">
         <f aca="false">ABS(I163-V163)</f>
-        <v>0.1246</v>
-      </c>
-      <c r="W184" s="5" t="n">
+        <v>0.1199</v>
+      </c>
+      <c r="W184" s="4" t="n">
         <f aca="false">ABS(J163-W163)</f>
-        <v>0.136</v>
-      </c>
-      <c r="X184" s="5" t="n">
+        <v>0.1306</v>
+      </c>
+      <c r="X184" s="4" t="n">
         <f aca="false">ABS(K163-X163)</f>
-        <v>0.11623</v>
-      </c>
-      <c r="AB184" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="AC184" s="0" t="n">
+        <v>0.1158125</v>
+      </c>
+      <c r="AB184" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC184" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AD184" s="0" t="n">
+      <c r="AD184" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="AE184" s="0" t="n">
+      <c r="AE184" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AF184" s="0" t="n">
+      <c r="AF184" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="AG184" s="0" t="n">
+      <c r="AG184" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AH184" s="0" t="n">
+      <c r="AH184" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AI184" s="0" t="n">
+      <c r="AI184" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="AJ184" s="0" t="n">
+      <c r="AJ184" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -11134,76 +12053,76 @@
       <c r="F185" s="1" t="n">
         <v>-0.003</v>
       </c>
-      <c r="O185" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="P185" s="5" t="n">
+      <c r="O185" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="P185" s="4" t="n">
         <f aca="false">ABS(C164-P164)</f>
-        <v>0.0296</v>
-      </c>
-      <c r="Q185" s="5" t="n">
+        <v>0.00800000000000001</v>
+      </c>
+      <c r="Q185" s="4" t="n">
         <f aca="false">ABS(D164-Q164)</f>
-        <v>0.0339</v>
-      </c>
-      <c r="R185" s="5" t="n">
+        <v>0.0541</v>
+      </c>
+      <c r="R185" s="4" t="n">
         <f aca="false">ABS(E164-R164)</f>
-        <v>0.467</v>
-      </c>
-      <c r="S185" s="5" t="n">
+        <v>0.4885</v>
+      </c>
+      <c r="S185" s="4" t="n">
         <f aca="false">ABS(F164-S164)</f>
-        <v>0.286</v>
-      </c>
-      <c r="T185" s="5" t="n">
+        <v>0.2931</v>
+      </c>
+      <c r="T185" s="4" t="n">
         <f aca="false">ABS(G164-T164)</f>
-        <v>0.4428</v>
-      </c>
-      <c r="U185" s="5" t="n">
+        <v>0.4503</v>
+      </c>
+      <c r="U185" s="4" t="n">
         <f aca="false">ABS(H164-U164)</f>
-        <v>0.2997</v>
-      </c>
-      <c r="V185" s="5" t="n">
+        <v>0.2983</v>
+      </c>
+      <c r="V185" s="4" t="n">
         <f aca="false">ABS(I164-V164)</f>
-        <v>0.1043</v>
-      </c>
-      <c r="W185" s="5" t="n">
+        <v>0.1074</v>
+      </c>
+      <c r="W185" s="4" t="n">
         <f aca="false">ABS(J164-W164)</f>
-        <v>0.362</v>
-      </c>
-      <c r="X185" s="5" t="n">
+        <v>0.3769</v>
+      </c>
+      <c r="X185" s="4" t="n">
         <f aca="false">ABS(K164-X164)</f>
-        <v>0.33783</v>
-      </c>
-      <c r="AB185" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC185" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD185" s="0" t="n">
+        <v>0.337925</v>
+      </c>
+      <c r="AB185" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC185" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD185" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="AE185" s="0" t="n">
+      <c r="AE185" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="AF185" s="0" t="n">
+      <c r="AF185" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="AG185" s="0" t="n">
+      <c r="AG185" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="AH185" s="0" t="n">
+      <c r="AH185" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="AI185" s="0" t="n">
+      <c r="AI185" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="AJ185" s="0" t="n">
+      <c r="AJ185" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B186" s="1" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="C186" s="1" t="n">
         <v>0.049</v>
@@ -11229,239 +12148,239 @@
       <c r="J186" s="1" t="n">
         <v>0.656</v>
       </c>
-      <c r="O186" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="P186" s="5" t="n">
+      <c r="O186" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="P186" s="4" t="n">
         <f aca="false">ABS(C165-P165)</f>
-        <v>0.3138</v>
-      </c>
-      <c r="Q186" s="5" t="n">
+        <v>0.3203</v>
+      </c>
+      <c r="Q186" s="4" t="n">
         <f aca="false">ABS(D165-Q165)</f>
-        <v>0.0339</v>
-      </c>
-      <c r="R186" s="5" t="n">
+        <v>0.0352</v>
+      </c>
+      <c r="R186" s="4" t="n">
         <f aca="false">ABS(E165-R165)</f>
-        <v>0.0195</v>
-      </c>
-      <c r="S186" s="5" t="n">
+        <v>0.0237000000000001</v>
+      </c>
+      <c r="S186" s="4" t="n">
         <f aca="false">ABS(F165-S165)</f>
-        <v>0.0593</v>
-      </c>
-      <c r="T186" s="5" t="n">
+        <v>0.0253</v>
+      </c>
+      <c r="T186" s="4" t="n">
         <f aca="false">ABS(G165-T165)</f>
-        <v>0.00229999999999997</v>
-      </c>
-      <c r="U186" s="5" t="n">
+        <v>0.00129999999999997</v>
+      </c>
+      <c r="U186" s="4" t="n">
         <f aca="false">ABS(H165-U165)</f>
+        <v>0.0093</v>
+      </c>
+      <c r="V186" s="4" t="n">
+        <f aca="false">ABS(I165-V165)</f>
+        <v>0.0833</v>
+      </c>
+      <c r="W186" s="4" t="n">
+        <f aca="false">ABS(J165-W165)</f>
+        <v>0.00359999999999994</v>
+      </c>
+      <c r="X186" s="4" t="n">
+        <f aca="false">ABS(K165-X165)</f>
+        <v>0.1337875</v>
+      </c>
+      <c r="AB186" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC186" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD186" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE186" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF186" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG186" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH186" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI186" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ186" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O187" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="P187" s="4" t="n">
+        <f aca="false">ABS(C166-P166)</f>
+        <v>0.000500000000000056</v>
+      </c>
+      <c r="Q187" s="4" t="n">
+        <f aca="false">ABS(D166-Q166)</f>
         <v>0.0156</v>
       </c>
-      <c r="V186" s="5" t="n">
-        <f aca="false">ABS(I165-V165)</f>
-        <v>0.0955</v>
-      </c>
-      <c r="W186" s="5" t="n">
-        <f aca="false">ABS(J165-W165)</f>
-        <v>0.00429999999999997</v>
-      </c>
-      <c r="X186" s="5" t="n">
-        <f aca="false">ABS(K165-X165)</f>
-        <v>0.12882</v>
-      </c>
-      <c r="AB186" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="AC186" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD186" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE186" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF186" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG186" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH186" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI186" s="0" t="n">
+      <c r="R187" s="4" t="n">
+        <f aca="false">ABS(E166-R166)</f>
+        <v>0.1564</v>
+      </c>
+      <c r="S187" s="4" t="n">
+        <f aca="false">ABS(F166-S166)</f>
+        <v>0.2708</v>
+      </c>
+      <c r="T187" s="4" t="n">
+        <f aca="false">ABS(G166-T166)</f>
+        <v>0.055</v>
+      </c>
+      <c r="U187" s="4" t="n">
+        <f aca="false">ABS(H166-U166)</f>
+        <v>0.2742</v>
+      </c>
+      <c r="V187" s="4" t="n">
+        <f aca="false">ABS(I166-V166)</f>
+        <v>0.3575</v>
+      </c>
+      <c r="W187" s="4" t="n">
+        <f aca="false">ABS(J166-W166)</f>
+        <v>0.00600000000000001</v>
+      </c>
+      <c r="X187" s="4" t="n">
+        <f aca="false">ABS(K166-X166)</f>
+        <v>0.2247375</v>
+      </c>
+      <c r="AB187" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC187" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD187" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE187" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="AJ186" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O187" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="P187" s="5" t="n">
-        <f aca="false">ABS(C166-P166)</f>
-        <v>0.0125000000000001</v>
-      </c>
-      <c r="Q187" s="5" t="n">
-        <f aca="false">ABS(D166-Q166)</f>
-        <v>0.0239</v>
-      </c>
-      <c r="R187" s="5" t="n">
-        <f aca="false">ABS(E166-R166)</f>
-        <v>0.151</v>
-      </c>
-      <c r="S187" s="5" t="n">
-        <f aca="false">ABS(F166-S166)</f>
-        <v>0.2561</v>
-      </c>
-      <c r="T187" s="5" t="n">
-        <f aca="false">ABS(G166-T166)</f>
-        <v>0.0584</v>
-      </c>
-      <c r="U187" s="5" t="n">
-        <f aca="false">ABS(H166-U166)</f>
-        <v>0.301</v>
-      </c>
-      <c r="V187" s="5" t="n">
-        <f aca="false">ABS(I166-V166)</f>
-        <v>0.3564</v>
-      </c>
-      <c r="W187" s="5" t="n">
-        <f aca="false">ABS(J166-W166)</f>
-        <v>0.0515</v>
-      </c>
-      <c r="X187" s="5" t="n">
-        <f aca="false">ABS(K166-X166)</f>
-        <v>0.22295</v>
-      </c>
-      <c r="AB187" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="AC187" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD187" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE187" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF187" s="0" t="n">
+      <c r="AF187" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="AG187" s="0" t="n">
+      <c r="AG187" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="AH187" s="0" t="n">
+      <c r="AH187" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="AI187" s="0" t="n">
+      <c r="AI187" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="AJ187" s="0" t="n">
+      <c r="AJ187" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B188" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="O188" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="P188" s="5" t="n">
+        <v>183</v>
+      </c>
+      <c r="O188" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="P188" s="4" t="n">
         <f aca="false">ABS(C167-P167)</f>
-        <v>0.1779</v>
-      </c>
-      <c r="Q188" s="5" t="n">
+        <v>0.1527</v>
+      </c>
+      <c r="Q188" s="4" t="n">
         <f aca="false">ABS(D167-Q167)</f>
-        <v>0.243</v>
-      </c>
-      <c r="R188" s="5" t="n">
+        <v>0.2559</v>
+      </c>
+      <c r="R188" s="4" t="n">
         <f aca="false">ABS(E167-R167)</f>
-        <v>0.00320000000000001</v>
-      </c>
-      <c r="S188" s="5" t="n">
+        <v>0.0174</v>
+      </c>
+      <c r="S188" s="4" t="n">
         <f aca="false">ABS(F167-S167)</f>
-        <v>0.0764</v>
-      </c>
-      <c r="T188" s="5" t="n">
+        <v>0.0794</v>
+      </c>
+      <c r="T188" s="4" t="n">
         <f aca="false">ABS(G167-T167)</f>
-        <v>0.0048</v>
-      </c>
-      <c r="U188" s="5" t="n">
+        <v>0.00170000000000001</v>
+      </c>
+      <c r="U188" s="4" t="n">
         <f aca="false">ABS(H167-U167)</f>
-        <v>0.2125</v>
-      </c>
-      <c r="V188" s="5" t="n">
+        <v>0.2267</v>
+      </c>
+      <c r="V188" s="4" t="n">
         <f aca="false">ABS(I167-V167)</f>
-        <v>0.0375</v>
-      </c>
-      <c r="W188" s="5" t="n">
+        <v>0.0209</v>
+      </c>
+      <c r="W188" s="4" t="n">
         <f aca="false">ABS(J167-W167)</f>
-        <v>0.199</v>
-      </c>
-      <c r="X188" s="5" t="n">
+        <v>0.0168</v>
+      </c>
+      <c r="X188" s="4" t="n">
         <f aca="false">ABS(K167-X167)</f>
-        <v>0.41115</v>
-      </c>
-      <c r="AB188" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="AC188" s="0" t="n">
+        <v>0.4095125</v>
+      </c>
+      <c r="AB188" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC188" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AD188" s="0" t="n">
+      <c r="AD188" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="AE188" s="0" t="n">
+      <c r="AE188" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="AF188" s="0" t="n">
+      <c r="AF188" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="AG188" s="0" t="n">
+      <c r="AG188" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="AH188" s="0" t="n">
+      <c r="AH188" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="AI188" s="0" t="n">
+      <c r="AI188" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="AJ188" s="0" t="n">
+      <c r="AJ188" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B189" s="1" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="J189" s="1" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11602,7 +12521,7 @@
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B198" s="1" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="C198" s="1" t="n">
         <v>0.047</v>
@@ -11631,36 +12550,36 @@
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B200" s="1" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B201" s="1" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="I201" s="1" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="J201" s="1" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11869,7 +12788,7 @@
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B214" s="1" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="C214" s="1" t="n">
         <v>0.104</v>
@@ -11898,36 +12817,36 @@
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B216" s="1" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B217" s="1" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="I217" s="1" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="J217" s="1" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12068,7 +12987,7 @@
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B226" s="1" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="C226" s="1" t="n">
         <v>0.099</v>
@@ -12097,36 +13016,36 @@
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B228" s="1" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B229" s="1" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="H229" s="1" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="I229" s="1" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="J229" s="1" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12216,7 +13135,7 @@
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B235" s="1" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="C235" s="1" t="n">
         <v>0.038</v>
@@ -12245,36 +13164,36 @@
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B237" s="1" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B238" s="1" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="I238" s="1" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="J238" s="1" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12432,7 +13351,7 @@
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B248" s="1" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="C248" s="1" t="n">
         <v>0.023</v>
@@ -12466,33 +13385,33 @@
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C252" s="1" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C253" s="1" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="I253" s="1" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="J253" s="1" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12533,31 +13452,31 @@
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B259" s="1" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B261" s="1" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C262" s="1" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B263" s="1" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="C263" s="1" t="n">
         <v>0.047</v>
@@ -12572,7 +13491,7 @@
         <v>0.02</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12592,31 +13511,31 @@
         <v>0.01</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B266" s="1" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C267" s="1" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B268" s="1" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="C268" s="1" t="n">
         <v>0.043</v>
@@ -12631,7 +13550,7 @@
         <v>0.049</v>
       </c>
       <c r="G268" s="1" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12651,31 +13570,31 @@
         <v>0.015</v>
       </c>
       <c r="G269" s="1" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B271" s="1" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C272" s="1" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B273" s="1" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="C273" s="1" t="n">
         <v>0.106</v>
@@ -12690,7 +13609,7 @@
         <v>0.024</v>
       </c>
       <c r="G273" s="1" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12710,31 +13629,31 @@
         <v>0.011</v>
       </c>
       <c r="G274" s="1" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B276" s="1" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C277" s="1" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B278" s="1" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="C278" s="1" t="n">
         <v>0.101</v>
@@ -12749,7 +13668,7 @@
         <v>0.019</v>
       </c>
       <c r="G278" s="1" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12769,31 +13688,31 @@
         <v>0.008</v>
       </c>
       <c r="G279" s="1" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B281" s="1" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C282" s="1" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B283" s="1" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="C283" s="1" t="n">
         <v>0.038</v>
@@ -12808,7 +13727,7 @@
         <v>0.031</v>
       </c>
       <c r="G283" s="1" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12828,31 +13747,31 @@
         <v>0.025</v>
       </c>
       <c r="G284" s="1" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B286" s="1" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C287" s="1" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B288" s="1" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="C288" s="1" t="n">
         <v>0.021</v>
@@ -12867,7 +13786,7 @@
         <v>0.03</v>
       </c>
       <c r="G288" s="1" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12887,7 +13806,7 @@
         <v>0.01</v>
       </c>
       <c r="G289" s="1" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12897,26 +13816,26 @@
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B293" s="1" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C295" s="1" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B296" s="1" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="C296" s="1" t="n">
         <v>0.059</v>
@@ -12931,7 +13850,7 @@
         <v>0.03</v>
       </c>
       <c r="G296" s="1" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12951,7 +13870,7 @@
         <v>0.005</v>
       </c>
       <c r="G297" s="1" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12961,26 +13880,26 @@
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B300" s="1" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B302" s="1" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C304" s="1" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13013,21 +13932,21 @@
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B308" s="1" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C310" s="1" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="F310" s="1" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13065,22 +13984,22 @@
     </row>
     <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B317" s="1" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B318" s="1" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B319" s="1" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B320" s="1" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13088,13 +14007,13 @@
         <v>63</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="C322" s="1" t="n">
         <v>0.0665</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13102,13 +14021,13 @@
         <v>64</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="C323" s="1" t="n">
         <v>0.1772</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13116,13 +14035,13 @@
         <v>65</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="C324" s="1" t="n">
         <v>0.0003</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13130,13 +14049,13 @@
         <v>66</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="C325" s="1" t="n">
         <v>0.0001</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13144,13 +14063,13 @@
         <v>67</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="C326" s="1" t="n">
         <v>0.2118</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13158,21 +14077,21 @@
         <v>68</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="C327" s="1" t="n">
         <v>0.3802</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="C328" s="1" t="n">
         <v>0.0001</v>
@@ -13185,32 +14104,32 @@
     </row>
     <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B331" s="1" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B333" s="1" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B335" s="1" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B336" s="1" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B337" s="1" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B340" s="1" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13244,7 +14163,7 @@
         <v>63</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="C343" s="1" t="n">
         <v>0.0001</v>
@@ -13255,7 +14174,7 @@
         <v>64</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="C344" s="1" t="n">
         <v>0.0001</v>
@@ -13266,7 +14185,7 @@
         <v>65</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="C345" s="1" t="n">
         <v>0.0001</v>
@@ -13277,7 +14196,7 @@
         <v>66</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="C346" s="1" t="n">
         <v>0.0001</v>
@@ -13288,7 +14207,7 @@
         <v>67</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="C347" s="1" t="n">
         <v>0.0001</v>
@@ -13299,7 +14218,7 @@
         <v>68</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="C348" s="1" t="n">
         <v>0.0001</v>
@@ -13307,17 +14226,17 @@
     </row>
     <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="C349" s="1" t="n">
         <v>0.0001</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="Q174:X186 P187:X188">
+  <conditionalFormatting sqref="Q174:V186 P187:V188">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -13347,6 +14266,21 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="W174:X188">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.05"/>
+        <cfvo type="num" val="0.01"/>
+        <color rgb="FF81D41A"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FFFF8000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -13365,123 +14299,123 @@
   </sheetPr>
   <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.56640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>200</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>0.7319</v>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="13" t="n">
         <v>0.957</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>0.58</v>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="4" t="n">
         <v>0.709</v>
       </c>
       <c r="G3" s="1" t="n">
@@ -13529,21 +14463,21 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>0.2515</v>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="13" t="n">
         <v>0.286</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>0.69</v>
       </c>
-      <c r="F4" s="5" t="n">
+      <c r="F4" s="4" t="n">
         <v>0.229</v>
       </c>
       <c r="G4" s="1" t="n">
@@ -13591,21 +14525,21 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>0.1959</v>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="13" t="n">
         <v>0.587</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>0.8965</v>
       </c>
-      <c r="F5" s="5" t="n">
+      <c r="F5" s="4" t="n">
         <v>0.752</v>
       </c>
       <c r="G5" s="1" t="n">
@@ -13653,21 +14587,21 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>0.9926</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="13" t="n">
         <v>0.2</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>0.5548</v>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="4" t="n">
         <v>0.686</v>
       </c>
       <c r="G6" s="1" t="n">
@@ -13715,21 +14649,21 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>0.6106</v>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="13" t="n">
         <v>0.182</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>0.8696</v>
       </c>
-      <c r="F7" s="5" t="n">
+      <c r="F7" s="4" t="n">
         <v>0.798</v>
       </c>
       <c r="G7" s="1" t="n">
@@ -13777,21 +14711,21 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>0.2956</v>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="13" t="n">
         <v>0.015</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>0.3006</v>
       </c>
-      <c r="F8" s="5" t="n">
+      <c r="F8" s="4" t="n">
         <v>0.786</v>
       </c>
       <c r="G8" s="1" t="n">
@@ -13839,21 +14773,21 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>0.5848</v>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="D9" s="13" t="n">
         <v>0.778</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>0.4805</v>
       </c>
-      <c r="F9" s="5" t="n">
+      <c r="F9" s="4" t="n">
         <v>0.247</v>
       </c>
       <c r="G9" s="1" t="n">
@@ -13901,21 +14835,21 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>0.8428</v>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="D10" s="13" t="n">
         <v>0.437</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>0.9132</v>
       </c>
-      <c r="F10" s="5" t="n">
+      <c r="F10" s="4" t="n">
         <v>0.341</v>
       </c>
       <c r="G10" s="1" t="n">
@@ -13963,21 +14897,21 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>0.4409</v>
       </c>
-      <c r="D11" s="4" t="n">
+      <c r="D11" s="13" t="n">
         <v>0.725</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>0.5598</v>
       </c>
-      <c r="F11" s="5" t="n">
+      <c r="F11" s="4" t="n">
         <v>0.705</v>
       </c>
       <c r="G11" s="1" t="n">
@@ -14025,21 +14959,21 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>0.0397</v>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="D12" s="13" t="n">
         <v>0.726</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>0.832</v>
       </c>
-      <c r="F12" s="5" t="n">
+      <c r="F12" s="4" t="n">
         <v>0.098</v>
       </c>
       <c r="G12" s="1" t="n">
@@ -14087,21 +15021,21 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>0.4602</v>
       </c>
-      <c r="D13" s="4" t="n">
+      <c r="D13" s="13" t="n">
         <v>0.206</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>0.2109</v>
       </c>
-      <c r="F13" s="5" t="n">
+      <c r="F13" s="4" t="n">
         <v>0.557</v>
       </c>
       <c r="G13" s="1" t="n">
@@ -14149,21 +15083,21 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>0.8555</v>
       </c>
-      <c r="D14" s="4" t="n">
+      <c r="D14" s="13" t="n">
         <v>0.898</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>0.4529</v>
       </c>
-      <c r="F14" s="5" t="n">
+      <c r="F14" s="4" t="n">
         <v>0.463</v>
       </c>
       <c r="G14" s="1" t="n">
@@ -14211,21 +15145,21 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>0.357</v>
       </c>
-      <c r="D15" s="4" t="n">
+      <c r="D15" s="13" t="n">
         <v>0.774</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>0.4331</v>
       </c>
-      <c r="F15" s="5" t="n">
+      <c r="F15" s="4" t="n">
         <v>0.177</v>
       </c>
       <c r="G15" s="1" t="n">
@@ -14273,21 +15207,21 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>0.9276</v>
       </c>
-      <c r="D16" s="4" t="n">
+      <c r="D16" s="13" t="n">
         <v>0.843</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>0.4969</v>
       </c>
-      <c r="F16" s="5" t="n">
+      <c r="F16" s="4" t="n">
         <v>0.429</v>
       </c>
       <c r="G16" s="1" t="n">
@@ -14335,21 +15269,21 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>0.71</v>
       </c>
-      <c r="D17" s="4" t="n">
+      <c r="D17" s="13" t="n">
         <v>0.554</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>0.1365</v>
       </c>
-      <c r="F17" s="5" t="n">
+      <c r="F17" s="4" t="n">
         <v>0.337</v>
       </c>
       <c r="G17" s="1" t="n">

--- a/BoophilusAdultsDataCattleFarmRes(2).xlsx
+++ b/BoophilusAdultsDataCattleFarmRes(2).xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="237">
   <si>
     <t xml:space="preserve">***************************************************************************************************************************************************************</t>
   </si>
@@ -369,9 +369,6 @@
   </si>
   <si>
     <t xml:space="preserve">   Locus_Pair</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Boulouparis</t>
   </si>
   <si>
     <t xml:space="preserve">  LaFoa</t>
@@ -823,14 +820,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFC5000B"/>
+        <fgColor rgb="FFA1467E"/>
+        <bgColor rgb="FF993366"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA1467E"/>
-        <bgColor rgb="FF993366"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFC5000B"/>
       </patternFill>
     </fill>
   </fills>
@@ -868,7 +865,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -897,10 +894,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -913,7 +906,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1062,7 +1055,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Boulouparis</c:v>
+                  <c:v>Boulouparis</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1174,49 +1167,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.9688</c:v>
+                  <c:v>0.9963</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3014</c:v>
+                  <c:v>0.2888</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.6148</c:v>
+                  <c:v>0.6081</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1949</c:v>
+                  <c:v>0.3548</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1995</c:v>
+                  <c:v>0.1981</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0173</c:v>
+                  <c:v>0.0353</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.7734</c:v>
+                  <c:v>0.4317</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.4394</c:v>
+                  <c:v>0.4652</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.7304</c:v>
+                  <c:v>0.8347</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.7046</c:v>
+                  <c:v>0.7098</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.2065</c:v>
+                  <c:v>0.3412</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.9356</c:v>
+                  <c:v>0.9313</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.7805</c:v>
+                  <c:v>0.4496</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.855</c:v>
+                  <c:v>0.8557</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.5792</c:v>
+                  <c:v>0.7278</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1344,49 +1337,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.7126</c:v>
+                  <c:v>0.1839</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2545</c:v>
+                  <c:v>0.2198</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.7474</c:v>
+                  <c:v>0.9042</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.6566</c:v>
+                  <c:v>0.7275</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8154</c:v>
+                  <c:v>0.7984</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.7694</c:v>
+                  <c:v>0.6725</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.2514</c:v>
+                  <c:v>0.2683</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.3518</c:v>
+                  <c:v>0.3087</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.7279</c:v>
+                  <c:v>0.4787</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0917</c:v>
+                  <c:v>0.138</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.5665</c:v>
+                  <c:v>0.4555</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.4428</c:v>
+                  <c:v>0.3822</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.1757</c:v>
+                  <c:v>0.2354</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.4373</c:v>
+                  <c:v>0.4849</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.3241</c:v>
+                  <c:v>0.2786</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1514,49 +1507,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.7105</c:v>
+                  <c:v>0.4332</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3487</c:v>
+                  <c:v>0.4282</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5705</c:v>
+                  <c:v>0.2265</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.6542</c:v>
+                  <c:v>0.5972</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.9658</c:v>
+                  <c:v>0.8889</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0722</c:v>
+                  <c:v>0.0713</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.8856</c:v>
+                  <c:v>0.8517</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7788</c:v>
+                  <c:v>0.8918</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0402</c:v>
+                  <c:v>0.0216</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.7679</c:v>
+                  <c:v>0.8916</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1073</c:v>
+                  <c:v>0.1552</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.4805</c:v>
+                  <c:v>0.6269</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.6748</c:v>
+                  <c:v>0.6726</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.8306</c:v>
+                  <c:v>0.9426</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0618</c:v>
+                  <c:v>0.0919</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1684,49 +1677,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.0679</c:v>
+                  <c:v>0.0438</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.61</c:v>
+                  <c:v>0.7798</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1626</c:v>
+                  <c:v>0.3087</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9417</c:v>
+                  <c:v>0.7657</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0812</c:v>
+                  <c:v>0.0032</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.6398</c:v>
+                  <c:v>0.9617</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0283</c:v>
+                  <c:v>0.0136</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.3076</c:v>
+                  <c:v>0.1385</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0019</c:v>
+                  <c:v>0.0065</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.6062</c:v>
+                  <c:v>0.8456</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.5393</c:v>
+                  <c:v>0.8006</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.9681</c:v>
+                  <c:v>0.8894</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.542</c:v>
+                  <c:v>0.545</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.4953</c:v>
+                  <c:v>0.6834</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.923</c:v>
+                  <c:v>0.8504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1854,49 +1847,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.168</c:v>
+                  <c:v>0.2444</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9335</c:v>
+                  <c:v>0.9349</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.6964</c:v>
+                  <c:v>0.7696</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.8347</c:v>
+                  <c:v>0.8346</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2747</c:v>
+                  <c:v>0.4383</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0243</c:v>
+                  <c:v>0.0153</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.3634</c:v>
+                  <c:v>0.2831</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.872</c:v>
+                  <c:v>0.6933</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.2858</c:v>
+                  <c:v>0.0159</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.5706</c:v>
+                  <c:v>0.7023</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.7242</c:v>
+                  <c:v>0.7418</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.4345</c:v>
+                  <c:v>0.7258</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.824</c:v>
+                  <c:v>0.8107</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0084</c:v>
+                  <c:v>0.0091</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0935</c:v>
+                  <c:v>0.1785</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2024,49 +2017,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.2297</c:v>
+                  <c:v>0.1661</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5447</c:v>
+                  <c:v>0.4746</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.7415</c:v>
+                  <c:v>0.651</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.4527</c:v>
+                  <c:v>0.4074</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0681</c:v>
+                  <c:v>0.1804</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1957</c:v>
+                  <c:v>0.102</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.8382</c:v>
+                  <c:v>0.6666</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.4575</c:v>
+                  <c:v>0.4243</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.4309</c:v>
+                  <c:v>0.1936</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1203</c:v>
+                  <c:v>0.0809</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.6128</c:v>
+                  <c:v>0.5892</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.3984</c:v>
+                  <c:v>0.4809</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.1043</c:v>
+                  <c:v>0.1465</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.5182</c:v>
+                  <c:v>0.2865</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0978</c:v>
+                  <c:v>0.1304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2194,49 +2187,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.4744</c:v>
+                  <c:v>0.4204</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1212</c:v>
+                  <c:v>0.1058</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3957</c:v>
+                  <c:v>0.269</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2463</c:v>
+                  <c:v>0.238</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2126</c:v>
+                  <c:v>0.2904</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1875</c:v>
+                  <c:v>0.645</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.5772</c:v>
+                  <c:v>0.8182</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.6946</c:v>
+                  <c:v>0.5788</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.3796</c:v>
+                  <c:v>0.1561</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1902</c:v>
+                  <c:v>0.2874</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.7357</c:v>
+                  <c:v>0.8293</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.1819</c:v>
+                  <c:v>0.4964</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.3118</c:v>
+                  <c:v>0.3099</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.3439</c:v>
+                  <c:v>0.5864</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0714</c:v>
+                  <c:v>0.0625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2364,49 +2357,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.962</c:v>
+                  <c:v>0.9652</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5012</c:v>
+                  <c:v>0.9683</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9791</c:v>
+                  <c:v>0.9792</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.6295</c:v>
+                  <c:v>0.6254</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.9251</c:v>
+                  <c:v>0.9196</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2429</c:v>
+                  <c:v>0.263</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.7761</c:v>
+                  <c:v>0.7696</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.9161</c:v>
+                  <c:v>0.9183</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.662</c:v>
+                  <c:v>0.6697</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.5045</c:v>
+                  <c:v>0.3497</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.8694</c:v>
+                  <c:v>0.9933</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.6231</c:v>
+                  <c:v>0.9274</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.8887</c:v>
+                  <c:v>0.892</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.2675</c:v>
+                  <c:v>0.2696</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.7808</c:v>
+                  <c:v>0.7637</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2533,61 +2526,16 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>0.566375</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.59725</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.507075</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.5002625</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.500775</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5147</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.5807875</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.6108625</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.51315</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.6149</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.6067875</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.601275</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.4680875</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.4869625</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.4861125</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="601228"/>
-        <c:axId val="51727854"/>
+        <c:axId val="21675360"/>
+        <c:axId val="75379173"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="601228"/>
+        <c:axId val="21675360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2646,12 +2594,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51727854"/>
+        <c:crossAx val="75379173"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="51727854"/>
+        <c:axId val="75379173"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2719,7 +2667,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="601228"/>
+        <c:crossAx val="21675360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2734,6 +2682,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.902241007084866"/>
+          <c:y val="0.319135135135135"/>
+          <c:w val="0.0913734910450938"/>
+          <c:h val="0.247621621621622"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2966,11 +2924,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="3987017"/>
-        <c:axId val="36339704"/>
+        <c:axId val="38516563"/>
+        <c:axId val="21870987"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="3987017"/>
+        <c:axId val="38516563"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3012,12 +2970,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36339704"/>
+        <c:crossAx val="21870987"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="36339704"/>
+        <c:axId val="21870987"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3059,7 +3017,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3987017"/>
+        <c:crossAx val="38516563"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3283,11 +3241,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="48460864"/>
-        <c:axId val="26969428"/>
+        <c:axId val="60144092"/>
+        <c:axId val="34904655"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="48460864"/>
+        <c:axId val="60144092"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3329,12 +3287,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26969428"/>
+        <c:crossAx val="34904655"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="26969428"/>
+        <c:axId val="34904655"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3376,7 +3334,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48460864"/>
+        <c:crossAx val="60144092"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3600,11 +3558,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="56547229"/>
-        <c:axId val="1271784"/>
+        <c:axId val="49490694"/>
+        <c:axId val="61721216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="56547229"/>
+        <c:axId val="49490694"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3646,12 +3604,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1271784"/>
+        <c:crossAx val="61721216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1271784"/>
+        <c:axId val="61721216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3693,7 +3651,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56547229"/>
+        <c:crossAx val="49490694"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3917,11 +3875,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="75858094"/>
-        <c:axId val="85571594"/>
+        <c:axId val="33889278"/>
+        <c:axId val="224430"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="75858094"/>
+        <c:axId val="33889278"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3963,12 +3921,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85571594"/>
+        <c:crossAx val="224430"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="85571594"/>
+        <c:axId val="224430"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4010,7 +3968,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75858094"/>
+        <c:crossAx val="33889278"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4234,11 +4192,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="17710303"/>
-        <c:axId val="8522387"/>
+        <c:axId val="65711864"/>
+        <c:axId val="54209610"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="17710303"/>
+        <c:axId val="65711864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4280,12 +4238,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8522387"/>
+        <c:crossAx val="54209610"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="8522387"/>
+        <c:axId val="54209610"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4327,7 +4285,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17710303"/>
+        <c:crossAx val="65711864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4551,11 +4509,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="63231797"/>
-        <c:axId val="99417123"/>
+        <c:axId val="51522076"/>
+        <c:axId val="93503597"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="63231797"/>
+        <c:axId val="51522076"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4597,12 +4555,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99417123"/>
+        <c:crossAx val="93503597"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="99417123"/>
+        <c:axId val="93503597"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4644,7 +4602,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63231797"/>
+        <c:crossAx val="51522076"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4868,11 +4826,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="43892679"/>
-        <c:axId val="87100675"/>
+        <c:axId val="8055820"/>
+        <c:axId val="45394805"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="43892679"/>
+        <c:axId val="8055820"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4914,12 +4872,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87100675"/>
+        <c:crossAx val="45394805"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87100675"/>
+        <c:axId val="45394805"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4961,7 +4919,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43892679"/>
+        <c:crossAx val="8055820"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5185,11 +5143,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="27364366"/>
-        <c:axId val="62194309"/>
+        <c:axId val="79459673"/>
+        <c:axId val="91549927"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="27364366"/>
+        <c:axId val="79459673"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5231,12 +5189,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62194309"/>
+        <c:crossAx val="91549927"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="62194309"/>
+        <c:axId val="91549927"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5278,7 +5236,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27364366"/>
+        <c:crossAx val="79459673"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5518,11 +5476,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="72424853"/>
-        <c:axId val="40725616"/>
+        <c:axId val="83931343"/>
+        <c:axId val="4242837"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="72424853"/>
+        <c:axId val="83931343"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5564,12 +5522,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40725616"/>
+        <c:crossAx val="4242837"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="40725616"/>
+        <c:axId val="4242837"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5611,7 +5569,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72424853"/>
+        <c:crossAx val="83931343"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6128,8 +6086,8 @@
   </sheetPr>
   <dimension ref="A1:AJ349"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J134" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M214" activeCellId="0" sqref="M214"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G148" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Y188" activeCellId="0" sqref="Y188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.56640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9951,11 +9909,11 @@
       <c r="K152" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="O152" s="1" t="s">
+      <c r="O152" s="0" t="s">
         <v>115</v>
       </c>
       <c r="P152" s="0" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="Q152" s="0" t="s">
         <v>76</v>
@@ -9967,10 +9925,10 @@
         <v>6</v>
       </c>
       <c r="T152" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="U152" s="0" t="s">
         <v>117</v>
-      </c>
-      <c r="U152" s="0" t="s">
-        <v>118</v>
       </c>
       <c r="V152" s="0" t="s">
         <v>80</v>
@@ -9982,10 +9940,10 @@
         <v>82</v>
       </c>
       <c r="Y152" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC152" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="AC152" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="AD152" s="2" t="s">
         <v>82</v>
@@ -9993,7 +9951,7 @@
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C153" s="4" t="n">
         <v>0.9926</v>
@@ -10023,51 +9981,47 @@
         <v>0.3753</v>
       </c>
       <c r="M153" s="5"/>
-      <c r="O153" s="1" t="s">
-        <v>122</v>
+      <c r="O153" s="0" t="s">
+        <v>121</v>
       </c>
       <c r="P153" s="0" t="n">
-        <v>0.9688</v>
+        <v>0.9963</v>
       </c>
       <c r="Q153" s="0" t="n">
-        <v>0.7126</v>
+        <v>0.1839</v>
       </c>
       <c r="R153" s="0" t="n">
-        <v>0.7105</v>
+        <v>0.4332</v>
       </c>
       <c r="S153" s="0" t="n">
-        <v>0.0679</v>
+        <v>0.0438</v>
       </c>
       <c r="T153" s="0" t="n">
-        <v>0.168</v>
+        <v>0.2444</v>
       </c>
       <c r="U153" s="0" t="n">
-        <v>0.2297</v>
+        <v>0.1661</v>
       </c>
       <c r="V153" s="0" t="n">
-        <v>0.4744</v>
+        <v>0.4204</v>
       </c>
       <c r="W153" s="0" t="n">
         <f aca="false">AC153</f>
-        <v>0.962</v>
-      </c>
-      <c r="X153" s="0" t="n">
-        <f aca="false">AD153</f>
-        <v>0.566375</v>
+        <v>0.9652</v>
       </c>
       <c r="AB153" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AC153" s="0" t="n">
-        <v>0.962</v>
+        <v>0.9652</v>
       </c>
       <c r="AD153" s="0" t="n">
-        <v>0.566375</v>
+        <v>0.5480625</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C154" s="4" t="n">
         <v>0.2956</v>
@@ -10097,51 +10051,47 @@
         <v>0.556</v>
       </c>
       <c r="M154" s="5"/>
-      <c r="O154" s="1" t="s">
-        <v>124</v>
+      <c r="O154" s="0" t="s">
+        <v>123</v>
       </c>
       <c r="P154" s="0" t="n">
-        <v>0.3014</v>
+        <v>0.2888</v>
       </c>
       <c r="Q154" s="0" t="n">
-        <v>0.2545</v>
+        <v>0.2198</v>
       </c>
       <c r="R154" s="0" t="n">
-        <v>0.3487</v>
+        <v>0.4282</v>
       </c>
       <c r="S154" s="0" t="n">
-        <v>0.61</v>
+        <v>0.7798</v>
       </c>
       <c r="T154" s="0" t="n">
-        <v>0.9335</v>
+        <v>0.9349</v>
       </c>
       <c r="U154" s="0" t="n">
-        <v>0.5447</v>
+        <v>0.4746</v>
       </c>
       <c r="V154" s="0" t="n">
-        <v>0.1212</v>
+        <v>0.1058</v>
       </c>
       <c r="W154" s="0" t="n">
         <f aca="false">AC154</f>
-        <v>0.5012</v>
-      </c>
-      <c r="X154" s="0" t="n">
-        <f aca="false">AD154</f>
-        <v>0.59725</v>
+        <v>0.9683</v>
       </c>
       <c r="AB154" s="0" t="n">
         <v>2</v>
       </c>
       <c r="AC154" s="0" t="n">
-        <v>0.5012</v>
+        <v>0.9683</v>
       </c>
       <c r="AD154" s="0" t="n">
-        <v>0.59725</v>
+        <v>0.5817125</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C155" s="4" t="n">
         <v>0.6106</v>
@@ -10171,51 +10121,47 @@
         <v>0.9352</v>
       </c>
       <c r="M155" s="5"/>
-      <c r="O155" s="1" t="s">
-        <v>126</v>
+      <c r="O155" s="0" t="s">
+        <v>125</v>
       </c>
       <c r="P155" s="0" t="n">
-        <v>0.6148</v>
+        <v>0.6081</v>
       </c>
       <c r="Q155" s="0" t="n">
-        <v>0.7474</v>
+        <v>0.9042</v>
       </c>
       <c r="R155" s="0" t="n">
-        <v>0.5705</v>
-      </c>
-      <c r="S155" s="7" t="n">
-        <v>0.1626</v>
+        <v>0.2265</v>
+      </c>
+      <c r="S155" s="0" t="n">
+        <v>0.3087</v>
       </c>
       <c r="T155" s="0" t="n">
-        <v>0.6964</v>
+        <v>0.7696</v>
       </c>
       <c r="U155" s="0" t="n">
-        <v>0.7415</v>
+        <v>0.651</v>
       </c>
       <c r="V155" s="0" t="n">
-        <v>0.3957</v>
-      </c>
-      <c r="W155" s="2" t="n">
+        <v>0.269</v>
+      </c>
+      <c r="W155" s="0" t="n">
         <f aca="false">AC155</f>
-        <v>0.9791</v>
-      </c>
-      <c r="X155" s="2" t="n">
-        <f aca="false">AD155</f>
-        <v>0.507075</v>
+        <v>0.9792</v>
       </c>
       <c r="AB155" s="0" t="n">
         <v>3</v>
       </c>
       <c r="AC155" s="0" t="n">
-        <v>0.9791</v>
+        <v>0.9792</v>
       </c>
       <c r="AD155" s="0" t="n">
-        <v>0.507075</v>
+        <v>0.5126375</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C156" s="4" t="n">
         <v>0.2515</v>
@@ -10245,51 +10191,47 @@
         <v>0.828</v>
       </c>
       <c r="M156" s="5"/>
-      <c r="O156" s="1" t="s">
-        <v>128</v>
+      <c r="O156" s="0" t="s">
+        <v>127</v>
       </c>
       <c r="P156" s="0" t="n">
-        <v>0.1949</v>
+        <v>0.3548</v>
       </c>
       <c r="Q156" s="0" t="n">
-        <v>0.6566</v>
+        <v>0.7275</v>
       </c>
       <c r="R156" s="0" t="n">
-        <v>0.6542</v>
+        <v>0.5972</v>
       </c>
       <c r="S156" s="0" t="n">
-        <v>0.9417</v>
+        <v>0.7657</v>
       </c>
       <c r="T156" s="0" t="n">
-        <v>0.8347</v>
+        <v>0.8346</v>
       </c>
       <c r="U156" s="0" t="n">
-        <v>0.4527</v>
+        <v>0.4074</v>
       </c>
       <c r="V156" s="0" t="n">
-        <v>0.2463</v>
+        <v>0.238</v>
       </c>
       <c r="W156" s="0" t="n">
         <f aca="false">AC156</f>
-        <v>0.6295</v>
-      </c>
-      <c r="X156" s="0" t="n">
-        <f aca="false">AD156</f>
-        <v>0.5002625</v>
+        <v>0.6254</v>
       </c>
       <c r="AB156" s="0" t="n">
         <v>4</v>
       </c>
       <c r="AC156" s="0" t="n">
-        <v>0.6295</v>
+        <v>0.6254</v>
       </c>
       <c r="AD156" s="0" t="n">
-        <v>0.5002625</v>
+        <v>0.5299125</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C157" s="4" t="n">
         <v>0.1959</v>
@@ -10319,51 +10261,47 @@
         <v>0.1667</v>
       </c>
       <c r="M157" s="5"/>
-      <c r="O157" s="1" t="s">
-        <v>130</v>
+      <c r="O157" s="0" t="s">
+        <v>129</v>
       </c>
       <c r="P157" s="0" t="n">
-        <v>0.1995</v>
+        <v>0.1981</v>
       </c>
       <c r="Q157" s="0" t="n">
-        <v>0.8154</v>
+        <v>0.7984</v>
       </c>
       <c r="R157" s="0" t="n">
-        <v>0.9658</v>
+        <v>0.8889</v>
       </c>
       <c r="S157" s="0" t="n">
-        <v>0.0812</v>
+        <v>0.0032</v>
       </c>
       <c r="T157" s="0" t="n">
-        <v>0.2747</v>
+        <v>0.4383</v>
       </c>
       <c r="U157" s="0" t="n">
-        <v>0.0681</v>
+        <v>0.1804</v>
       </c>
       <c r="V157" s="0" t="n">
-        <v>0.2126</v>
+        <v>0.2904</v>
       </c>
       <c r="W157" s="0" t="n">
         <f aca="false">AC157</f>
-        <v>0.9251</v>
-      </c>
-      <c r="X157" s="0" t="n">
-        <f aca="false">AD157</f>
-        <v>0.500775</v>
+        <v>0.9196</v>
       </c>
       <c r="AB157" s="0" t="n">
         <v>5</v>
       </c>
       <c r="AC157" s="0" t="n">
-        <v>0.9251</v>
+        <v>0.9196</v>
       </c>
       <c r="AD157" s="0" t="n">
-        <v>0.500775</v>
+        <v>0.514125</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C158" s="4" t="n">
         <v>0.0397</v>
@@ -10393,51 +10331,47 @@
         <v>0.1202</v>
       </c>
       <c r="M158" s="5"/>
-      <c r="O158" s="1" t="s">
-        <v>132</v>
+      <c r="O158" s="0" t="s">
+        <v>131</v>
       </c>
       <c r="P158" s="0" t="n">
-        <v>0.0173</v>
+        <v>0.0353</v>
       </c>
       <c r="Q158" s="0" t="n">
-        <v>0.7694</v>
+        <v>0.6725</v>
       </c>
       <c r="R158" s="0" t="n">
-        <v>0.0722</v>
+        <v>0.0713</v>
       </c>
       <c r="S158" s="0" t="n">
-        <v>0.6398</v>
+        <v>0.9617</v>
       </c>
       <c r="T158" s="0" t="n">
-        <v>0.0243</v>
+        <v>0.0153</v>
       </c>
       <c r="U158" s="0" t="n">
-        <v>0.1957</v>
+        <v>0.102</v>
       </c>
       <c r="V158" s="0" t="n">
-        <v>0.1875</v>
+        <v>0.645</v>
       </c>
       <c r="W158" s="0" t="n">
         <f aca="false">AC158</f>
-        <v>0.2429</v>
-      </c>
-      <c r="X158" s="0" t="n">
-        <f aca="false">AD158</f>
-        <v>0.5147</v>
+        <v>0.263</v>
       </c>
       <c r="AB158" s="0" t="n">
         <v>6</v>
       </c>
       <c r="AC158" s="0" t="n">
-        <v>0.2429</v>
+        <v>0.263</v>
       </c>
       <c r="AD158" s="0" t="n">
-        <v>0.5147</v>
+        <v>0.5811875</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C159" s="4" t="n">
         <v>0.4409</v>
@@ -10467,51 +10401,47 @@
         <v>0.7692</v>
       </c>
       <c r="M159" s="5"/>
-      <c r="O159" s="1" t="s">
-        <v>134</v>
+      <c r="O159" s="0" t="s">
+        <v>133</v>
       </c>
       <c r="P159" s="0" t="n">
-        <v>0.7734</v>
+        <v>0.4317</v>
       </c>
       <c r="Q159" s="0" t="n">
-        <v>0.2514</v>
+        <v>0.2683</v>
       </c>
       <c r="R159" s="0" t="n">
-        <v>0.8856</v>
+        <v>0.8517</v>
       </c>
       <c r="S159" s="0" t="n">
-        <v>0.0283</v>
+        <v>0.0136</v>
       </c>
       <c r="T159" s="0" t="n">
-        <v>0.3634</v>
+        <v>0.2831</v>
       </c>
       <c r="U159" s="0" t="n">
-        <v>0.8382</v>
+        <v>0.6666</v>
       </c>
       <c r="V159" s="0" t="n">
-        <v>0.5772</v>
+        <v>0.8182</v>
       </c>
       <c r="W159" s="0" t="n">
         <f aca="false">AC159</f>
-        <v>0.7761</v>
-      </c>
-      <c r="X159" s="0" t="n">
-        <f aca="false">AD159</f>
-        <v>0.5807875</v>
+        <v>0.7696</v>
       </c>
       <c r="AB159" s="0" t="n">
         <v>7</v>
       </c>
       <c r="AC159" s="0" t="n">
-        <v>0.7761</v>
+        <v>0.7696</v>
       </c>
       <c r="AD159" s="0" t="n">
-        <v>0.5807875</v>
+        <v>0.595725</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C160" s="4" t="n">
         <v>0.5848</v>
@@ -10541,51 +10471,47 @@
         <v>0.7973</v>
       </c>
       <c r="M160" s="5"/>
-      <c r="O160" s="1" t="s">
-        <v>136</v>
+      <c r="O160" s="0" t="s">
+        <v>135</v>
       </c>
       <c r="P160" s="0" t="n">
-        <v>0.4394</v>
+        <v>0.4652</v>
       </c>
       <c r="Q160" s="0" t="n">
-        <v>0.3518</v>
+        <v>0.3087</v>
       </c>
       <c r="R160" s="0" t="n">
-        <v>0.7788</v>
+        <v>0.8918</v>
       </c>
       <c r="S160" s="0" t="n">
-        <v>0.3076</v>
+        <v>0.1385</v>
       </c>
       <c r="T160" s="0" t="n">
-        <v>0.872</v>
+        <v>0.6933</v>
       </c>
       <c r="U160" s="0" t="n">
-        <v>0.4575</v>
+        <v>0.4243</v>
       </c>
       <c r="V160" s="0" t="n">
-        <v>0.6946</v>
+        <v>0.5788</v>
       </c>
       <c r="W160" s="0" t="n">
         <f aca="false">AC160</f>
-        <v>0.9161</v>
-      </c>
-      <c r="X160" s="0" t="n">
-        <f aca="false">AD160</f>
-        <v>0.6108625</v>
+        <v>0.9183</v>
       </c>
       <c r="AB160" s="0" t="n">
         <v>8</v>
       </c>
       <c r="AC160" s="0" t="n">
-        <v>0.9161</v>
+        <v>0.9183</v>
       </c>
       <c r="AD160" s="0" t="n">
-        <v>0.6108625</v>
+        <v>0.6034</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C161" s="4" t="n">
         <v>0.8428</v>
@@ -10599,7 +10525,7 @@
       <c r="F161" s="4" t="n">
         <v>0.0143</v>
       </c>
-      <c r="G161" s="4" t="n">
+      <c r="G161" s="7" t="n">
         <v>0.8415</v>
       </c>
       <c r="H161" s="4" t="n">
@@ -10615,51 +10541,47 @@
         <v>0.444</v>
       </c>
       <c r="M161" s="5"/>
-      <c r="O161" s="1" t="s">
-        <v>138</v>
+      <c r="O161" s="0" t="s">
+        <v>137</v>
       </c>
       <c r="P161" s="0" t="n">
-        <v>0.7304</v>
+        <v>0.8347</v>
       </c>
       <c r="Q161" s="0" t="n">
-        <v>0.7279</v>
+        <v>0.4787</v>
       </c>
       <c r="R161" s="0" t="n">
-        <v>0.0402</v>
+        <v>0.0216</v>
       </c>
       <c r="S161" s="0" t="n">
-        <v>0.0019</v>
-      </c>
-      <c r="T161" s="0" t="n">
-        <v>0.2858</v>
+        <v>0.0065</v>
+      </c>
+      <c r="T161" s="8" t="n">
+        <v>0.0159</v>
       </c>
       <c r="U161" s="0" t="n">
-        <v>0.4309</v>
+        <v>0.1936</v>
       </c>
       <c r="V161" s="0" t="n">
-        <v>0.3796</v>
-      </c>
-      <c r="W161" s="0" t="n">
+        <v>0.1561</v>
+      </c>
+      <c r="W161" s="2" t="n">
         <f aca="false">AC161</f>
-        <v>0.662</v>
-      </c>
-      <c r="X161" s="0" t="n">
-        <f aca="false">AD161</f>
-        <v>0.51315</v>
+        <v>0.6697</v>
       </c>
       <c r="AB161" s="0" t="n">
         <v>9</v>
       </c>
       <c r="AC161" s="0" t="n">
-        <v>0.662</v>
+        <v>0.6697</v>
       </c>
       <c r="AD161" s="0" t="n">
-        <v>0.51315</v>
+        <v>0.495775</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C162" s="4" t="n">
         <v>0.71</v>
@@ -10679,7 +10601,7 @@
       <c r="H162" s="4" t="n">
         <v>0.1128</v>
       </c>
-      <c r="I162" s="8" t="n">
+      <c r="I162" s="9" t="n">
         <v>0.7753</v>
       </c>
       <c r="J162" s="4" t="n">
@@ -10689,51 +10611,47 @@
         <v>0.6161</v>
       </c>
       <c r="M162" s="5"/>
-      <c r="O162" s="1" t="s">
-        <v>140</v>
+      <c r="O162" s="0" t="s">
+        <v>139</v>
       </c>
       <c r="P162" s="0" t="n">
-        <v>0.7046</v>
+        <v>0.7098</v>
       </c>
       <c r="Q162" s="0" t="n">
-        <v>0.0917</v>
+        <v>0.138</v>
       </c>
       <c r="R162" s="0" t="n">
-        <v>0.7679</v>
+        <v>0.8916</v>
       </c>
       <c r="S162" s="0" t="n">
-        <v>0.6062</v>
+        <v>0.8456</v>
       </c>
       <c r="T162" s="0" t="n">
-        <v>0.5706</v>
+        <v>0.7023</v>
       </c>
       <c r="U162" s="0" t="n">
-        <v>0.1203</v>
-      </c>
-      <c r="V162" s="9" t="n">
-        <v>0.1902</v>
-      </c>
-      <c r="W162" s="2" t="n">
+        <v>0.0809</v>
+      </c>
+      <c r="V162" s="0" t="n">
+        <v>0.2874</v>
+      </c>
+      <c r="W162" s="0" t="n">
         <f aca="false">AC162</f>
-        <v>0.5045</v>
-      </c>
-      <c r="X162" s="2" t="n">
-        <f aca="false">AD162</f>
-        <v>0.6149</v>
+        <v>0.3497</v>
       </c>
       <c r="AB162" s="0" t="n">
         <v>10</v>
       </c>
       <c r="AC162" s="0" t="n">
-        <v>0.5045</v>
+        <v>0.3497</v>
       </c>
       <c r="AD162" s="0" t="n">
-        <v>0.6149</v>
+        <v>0.61475</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C163" s="4" t="n">
         <v>0.357</v>
@@ -10763,51 +10681,47 @@
         <v>0.7226</v>
       </c>
       <c r="M163" s="5"/>
-      <c r="O163" s="1" t="s">
-        <v>142</v>
+      <c r="O163" s="0" t="s">
+        <v>141</v>
       </c>
       <c r="P163" s="0" t="n">
-        <v>0.2065</v>
+        <v>0.3412</v>
       </c>
       <c r="Q163" s="0" t="n">
-        <v>0.5665</v>
+        <v>0.4555</v>
       </c>
       <c r="R163" s="0" t="n">
-        <v>0.1073</v>
+        <v>0.1552</v>
       </c>
       <c r="S163" s="0" t="n">
-        <v>0.5393</v>
+        <v>0.8006</v>
       </c>
       <c r="T163" s="0" t="n">
-        <v>0.7242</v>
+        <v>0.7418</v>
       </c>
       <c r="U163" s="0" t="n">
-        <v>0.6128</v>
+        <v>0.5892</v>
       </c>
       <c r="V163" s="0" t="n">
-        <v>0.7357</v>
+        <v>0.8293</v>
       </c>
       <c r="W163" s="0" t="n">
         <f aca="false">AC163</f>
-        <v>0.8694</v>
-      </c>
-      <c r="X163" s="0" t="n">
-        <f aca="false">AD163</f>
-        <v>0.6067875</v>
+        <v>0.9933</v>
       </c>
       <c r="AB163" s="0" t="n">
         <v>11</v>
       </c>
       <c r="AC163" s="0" t="n">
-        <v>0.8694</v>
+        <v>0.9933</v>
       </c>
       <c r="AD163" s="0" t="n">
-        <v>0.6067875</v>
+        <v>0.6059125</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C164" s="4" t="n">
         <v>0.9276</v>
@@ -10837,51 +10751,47 @@
         <v>0.9392</v>
       </c>
       <c r="M164" s="5"/>
-      <c r="O164" s="1" t="s">
-        <v>144</v>
+      <c r="O164" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="P164" s="0" t="n">
-        <v>0.9356</v>
+        <v>0.9313</v>
       </c>
       <c r="Q164" s="0" t="n">
-        <v>0.4428</v>
+        <v>0.3822</v>
       </c>
       <c r="R164" s="0" t="n">
-        <v>0.4805</v>
+        <v>0.6269</v>
       </c>
       <c r="S164" s="0" t="n">
-        <v>0.9681</v>
-      </c>
-      <c r="T164" s="11" t="n">
-        <v>0.4345</v>
+        <v>0.8894</v>
+      </c>
+      <c r="T164" s="0" t="n">
+        <v>0.7258</v>
       </c>
       <c r="U164" s="0" t="n">
-        <v>0.3984</v>
+        <v>0.4809</v>
       </c>
       <c r="V164" s="0" t="n">
-        <v>0.1819</v>
-      </c>
-      <c r="W164" s="2" t="n">
+        <v>0.4964</v>
+      </c>
+      <c r="W164" s="0" t="n">
         <f aca="false">AC164</f>
-        <v>0.6231</v>
-      </c>
-      <c r="X164" s="2" t="n">
-        <f aca="false">AD164</f>
-        <v>0.601275</v>
+        <v>0.9274</v>
       </c>
       <c r="AB164" s="0" t="n">
         <v>12</v>
       </c>
       <c r="AC164" s="0" t="n">
-        <v>0.6231</v>
+        <v>0.9274</v>
       </c>
       <c r="AD164" s="0" t="n">
-        <v>0.601275</v>
+        <v>0.625175</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C165" s="4" t="n">
         <v>0.4602</v>
@@ -10911,51 +10821,47 @@
         <v>0.3343</v>
       </c>
       <c r="M165" s="5"/>
-      <c r="O165" s="1" t="s">
-        <v>146</v>
+      <c r="O165" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="P165" s="0" t="n">
-        <v>0.7805</v>
+        <v>0.4496</v>
       </c>
       <c r="Q165" s="0" t="n">
-        <v>0.1757</v>
+        <v>0.2354</v>
       </c>
       <c r="R165" s="0" t="n">
-        <v>0.6748</v>
+        <v>0.6726</v>
       </c>
       <c r="S165" s="0" t="n">
-        <v>0.542</v>
+        <v>0.545</v>
       </c>
       <c r="T165" s="0" t="n">
-        <v>0.824</v>
+        <v>0.8107</v>
       </c>
       <c r="U165" s="0" t="n">
-        <v>0.1043</v>
+        <v>0.1465</v>
       </c>
       <c r="V165" s="0" t="n">
-        <v>0.3118</v>
+        <v>0.3099</v>
       </c>
       <c r="W165" s="0" t="n">
         <f aca="false">AC165</f>
-        <v>0.8887</v>
-      </c>
-      <c r="X165" s="0" t="n">
-        <f aca="false">AD165</f>
-        <v>0.4680875</v>
+        <v>0.892</v>
       </c>
       <c r="AB165" s="0" t="n">
         <v>13</v>
       </c>
       <c r="AC165" s="0" t="n">
-        <v>0.8887</v>
+        <v>0.892</v>
       </c>
       <c r="AD165" s="0" t="n">
-        <v>0.4680875</v>
+        <v>0.4519625</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C166" s="4" t="n">
         <v>0.8555</v>
@@ -10985,51 +10891,47 @@
         <v>0.7117</v>
       </c>
       <c r="M166" s="5"/>
-      <c r="O166" s="1" t="s">
-        <v>148</v>
+      <c r="O166" s="0" t="s">
+        <v>147</v>
       </c>
       <c r="P166" s="0" t="n">
-        <v>0.855</v>
+        <v>0.8557</v>
       </c>
       <c r="Q166" s="0" t="n">
-        <v>0.4373</v>
+        <v>0.4849</v>
       </c>
       <c r="R166" s="0" t="n">
-        <v>0.8306</v>
+        <v>0.9426</v>
       </c>
       <c r="S166" s="0" t="n">
-        <v>0.4953</v>
+        <v>0.6834</v>
       </c>
       <c r="T166" s="0" t="n">
-        <v>0.0084</v>
+        <v>0.0091</v>
       </c>
       <c r="U166" s="0" t="n">
-        <v>0.5182</v>
+        <v>0.2865</v>
       </c>
       <c r="V166" s="0" t="n">
-        <v>0.3439</v>
+        <v>0.5864</v>
       </c>
       <c r="W166" s="0" t="n">
         <f aca="false">AC166</f>
-        <v>0.2675</v>
-      </c>
-      <c r="X166" s="0" t="n">
-        <f aca="false">AD166</f>
-        <v>0.4869625</v>
+        <v>0.2696</v>
       </c>
       <c r="AB166" s="0" t="n">
         <v>14</v>
       </c>
       <c r="AC166" s="0" t="n">
-        <v>0.2675</v>
+        <v>0.2696</v>
       </c>
       <c r="AD166" s="0" t="n">
-        <v>0.4869625</v>
+        <v>0.5005125</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C167" s="4" t="n">
         <v>0.7319</v>
@@ -11059,46 +10961,42 @@
         <v>0.0766</v>
       </c>
       <c r="M167" s="5"/>
-      <c r="O167" s="1" t="s">
-        <v>150</v>
+      <c r="O167" s="0" t="s">
+        <v>149</v>
       </c>
       <c r="P167" s="0" t="n">
-        <v>0.5792</v>
+        <v>0.7278</v>
       </c>
       <c r="Q167" s="0" t="n">
-        <v>0.3241</v>
+        <v>0.2786</v>
       </c>
       <c r="R167" s="0" t="n">
-        <v>0.0618</v>
+        <v>0.0919</v>
       </c>
       <c r="S167" s="0" t="n">
-        <v>0.923</v>
+        <v>0.8504</v>
       </c>
       <c r="T167" s="0" t="n">
-        <v>0.0935</v>
+        <v>0.1785</v>
       </c>
       <c r="U167" s="0" t="n">
-        <v>0.0978</v>
+        <v>0.1304</v>
       </c>
       <c r="V167" s="0" t="n">
-        <v>0.0714</v>
+        <v>0.0625</v>
       </c>
       <c r="W167" s="0" t="n">
         <f aca="false">AC167</f>
-        <v>0.7808</v>
-      </c>
-      <c r="X167" s="0" t="n">
-        <f aca="false">AD167</f>
-        <v>0.4861125</v>
+        <v>0.7637</v>
       </c>
       <c r="AB167" s="0" t="n">
         <v>15</v>
       </c>
       <c r="AC167" s="0" t="n">
-        <v>0.7808</v>
+        <v>0.7637</v>
       </c>
       <c r="AD167" s="0" t="n">
-        <v>0.4861125</v>
+        <v>0.4752375</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11108,23 +11006,23 @@
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B171" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="P171" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="P171" s="12" t="s">
+      <c r="AC171" s="11" t="s">
         <v>152</v>
-      </c>
-      <c r="AC171" s="12" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B172" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B173" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P173" s="1" t="s">
         <v>3</v>
@@ -11169,60 +11067,60 @@
         <v>78</v>
       </c>
       <c r="AH173" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AI173" s="3" t="s">
         <v>80</v>
       </c>
       <c r="AJ173" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B174" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="O174" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="O174" s="3" t="s">
-        <v>157</v>
       </c>
       <c r="P174" s="4" t="n">
         <f aca="false">ABS(C153-P153)</f>
-        <v>0.0238</v>
+        <v>0.00369999999999993</v>
       </c>
       <c r="Q174" s="4" t="n">
         <f aca="false">ABS(D153-Q153)</f>
-        <v>0.1578</v>
+        <v>0.3709</v>
       </c>
       <c r="R174" s="4" t="n">
         <f aca="false">ABS(E153-R153)</f>
-        <v>0.1743</v>
+        <v>0.103</v>
       </c>
       <c r="S174" s="4" t="n">
         <f aca="false">ABS(F153-S153)</f>
-        <v>0.0251</v>
+        <v>0.0492</v>
       </c>
       <c r="T174" s="4" t="n">
         <f aca="false">ABS(G153-T153)</f>
-        <v>0.0078</v>
+        <v>0.0842</v>
       </c>
       <c r="U174" s="4" t="n">
         <f aca="false">ABS(H153-U153)</f>
-        <v>0.00620000000000001</v>
+        <v>0.0698</v>
       </c>
       <c r="V174" s="4" t="n">
         <f aca="false">ABS(I153-V153)</f>
-        <v>0.0225</v>
+        <v>0.0765</v>
       </c>
       <c r="W174" s="4" t="n">
         <f aca="false">ABS(J153-W153)</f>
-        <v>0.00119999999999998</v>
+        <v>0.002</v>
       </c>
       <c r="X174" s="4" t="n">
         <f aca="false">ABS(K153-X153)</f>
-        <v>0.191075</v>
+        <v>0.3753</v>
       </c>
       <c r="AB174" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AC174" s="1" t="n">
         <v>1</v>
@@ -11251,49 +11149,49 @@
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B175" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O175" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="O175" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="P175" s="4" t="n">
         <f aca="false">ABS(C154-P154)</f>
-        <v>0.00580000000000003</v>
+        <v>0.00679999999999997</v>
       </c>
       <c r="Q175" s="4" t="n">
         <f aca="false">ABS(D154-Q154)</f>
-        <v>0.0461</v>
+        <v>0.0808</v>
       </c>
       <c r="R175" s="4" t="n">
         <f aca="false">ABS(E154-R154)</f>
-        <v>0.0851</v>
+        <v>0.00559999999999999</v>
       </c>
       <c r="S175" s="4" t="n">
         <f aca="false">ABS(F154-S154)</f>
-        <v>0.3423</v>
+        <v>0.1725</v>
       </c>
       <c r="T175" s="4" t="n">
         <f aca="false">ABS(G154-T154)</f>
-        <v>0.00149999999999995</v>
+        <v>0.0028999999999999</v>
       </c>
       <c r="U175" s="4" t="n">
         <f aca="false">ABS(H154-U154)</f>
-        <v>0.0440999999999999</v>
+        <v>0.026</v>
       </c>
       <c r="V175" s="4" t="n">
         <f aca="false">ABS(I154-V154)</f>
-        <v>0.00220000000000001</v>
+        <v>0.0132</v>
       </c>
       <c r="W175" s="4" t="n">
         <f aca="false">ABS(J154-W154)</f>
-        <v>0.3975</v>
+        <v>0.0696</v>
       </c>
       <c r="X175" s="4" t="n">
         <f aca="false">ABS(K154-X154)</f>
-        <v>0.0412499999999999</v>
+        <v>0.556</v>
       </c>
       <c r="AB175" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AC175" s="1" t="n">
         <v>0</v>
@@ -11322,46 +11220,46 @@
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O176" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P176" s="4" t="n">
         <f aca="false">ABS(C155-P155)</f>
-        <v>0.00419999999999998</v>
+        <v>0.00250000000000006</v>
       </c>
       <c r="Q176" s="4" t="n">
         <f aca="false">ABS(D155-Q155)</f>
-        <v>0.1222</v>
+        <v>0.0346</v>
       </c>
       <c r="R176" s="4" t="n">
         <f aca="false">ABS(E155-R155)</f>
-        <v>0.2568</v>
+        <v>0.0872</v>
       </c>
       <c r="S176" s="4" t="n">
         <f aca="false">ABS(F155-S155)</f>
-        <v>0.4384</v>
+        <v>0.2923</v>
       </c>
       <c r="T176" s="4" t="n">
         <f aca="false">ABS(G155-T155)</f>
-        <v>0.0154</v>
+        <v>0.0578</v>
       </c>
       <c r="U176" s="4" t="n">
         <f aca="false">ABS(H155-U155)</f>
-        <v>0.0772999999999999</v>
+        <v>0.1678</v>
       </c>
       <c r="V176" s="4" t="n">
         <f aca="false">ABS(I155-V155)</f>
-        <v>0.2516</v>
+        <v>0.3783</v>
       </c>
       <c r="W176" s="4" t="n">
         <f aca="false">ABS(J155-W155)</f>
-        <v>0.00260000000000005</v>
+        <v>0.00250000000000006</v>
       </c>
       <c r="X176" s="4" t="n">
         <f aca="false">ABS(K155-X155)</f>
-        <v>0.428125</v>
+        <v>0.9352</v>
       </c>
       <c r="AB176" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AC176" s="1" t="n">
         <v>0</v>
@@ -11390,46 +11288,46 @@
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O177" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P177" s="4" t="n">
         <f aca="false">ABS(C156-P156)</f>
-        <v>0.0566</v>
+        <v>0.1033</v>
       </c>
       <c r="Q177" s="4" t="n">
         <f aca="false">ABS(D156-Q156)</f>
-        <v>0.0334</v>
+        <v>0.0375000000000001</v>
       </c>
       <c r="R177" s="4" t="n">
         <f aca="false">ABS(E156-R156)</f>
-        <v>0.0243</v>
+        <v>0.0813</v>
       </c>
       <c r="S177" s="4" t="n">
         <f aca="false">ABS(F156-S156)</f>
-        <v>0.0363</v>
+        <v>0.1397</v>
       </c>
       <c r="T177" s="4" t="n">
         <f aca="false">ABS(G156-T156)</f>
-        <v>9.9999999999989E-005</v>
+        <v>0.000199999999999978</v>
       </c>
       <c r="U177" s="4" t="n">
         <f aca="false">ABS(H156-U156)</f>
-        <v>0.0478</v>
+        <v>0.0931</v>
       </c>
       <c r="V177" s="4" t="n">
         <f aca="false">ABS(I156-V156)</f>
-        <v>0.1709</v>
+        <v>0.1792</v>
       </c>
       <c r="W177" s="4" t="n">
         <f aca="false">ABS(J156-W156)</f>
-        <v>0.00220000000000009</v>
+        <v>0.00630000000000008</v>
       </c>
       <c r="X177" s="4" t="n">
         <f aca="false">ABS(K156-X156)</f>
-        <v>0.3277375</v>
+        <v>0.828</v>
       </c>
       <c r="AB177" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AC177" s="1" t="n">
         <v>1</v>
@@ -11458,49 +11356,49 @@
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B178" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="O178" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="O178" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="P178" s="4" t="n">
         <f aca="false">ABS(C157-P157)</f>
-        <v>0.00360000000000002</v>
+        <v>0.00220000000000001</v>
       </c>
       <c r="Q178" s="4" t="n">
         <f aca="false">ABS(D157-Q157)</f>
-        <v>0.0811</v>
+        <v>0.0981</v>
       </c>
       <c r="R178" s="4" t="n">
         <f aca="false">ABS(E157-R157)</f>
-        <v>0.1154</v>
+        <v>0.0385</v>
       </c>
       <c r="S178" s="4" t="n">
         <f aca="false">ABS(F157-S157)</f>
-        <v>0.0772</v>
+        <v>0.0008</v>
       </c>
       <c r="T178" s="4" t="n">
         <f aca="false">ABS(G157-T157)</f>
-        <v>0.1217</v>
+        <v>0.0419000000000001</v>
       </c>
       <c r="U178" s="4" t="n">
         <f aca="false">ABS(H157-U157)</f>
-        <v>0.0266</v>
+        <v>0.0857</v>
       </c>
       <c r="V178" s="4" t="n">
         <f aca="false">ABS(I157-V157)</f>
-        <v>0.0942</v>
+        <v>0.0164</v>
       </c>
       <c r="W178" s="4" t="n">
         <f aca="false">ABS(J157-W157)</f>
-        <v>0.00630000000000008</v>
+        <v>0.000800000000000023</v>
       </c>
       <c r="X178" s="4" t="n">
         <f aca="false">ABS(K157-X157)</f>
-        <v>0.334075</v>
+        <v>0.1667</v>
       </c>
       <c r="AB178" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AC178" s="1" t="n">
         <v>0</v>
@@ -11529,73 +11427,73 @@
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B179" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C179" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C179" s="1" t="s">
+      <c r="D179" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D179" s="1" t="s">
+      <c r="E179" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E179" s="1" t="s">
+      <c r="F179" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F179" s="1" t="s">
+      <c r="G179" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G179" s="1" t="s">
+      <c r="H179" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="H179" s="1" t="s">
+      <c r="I179" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="I179" s="1" t="s">
+      <c r="J179" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="J179" s="1" t="s">
+      <c r="O179" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="O179" s="3" t="s">
-        <v>173</v>
       </c>
       <c r="P179" s="4" t="n">
         <f aca="false">ABS(C158-P158)</f>
-        <v>0.0224</v>
+        <v>0.0044</v>
       </c>
       <c r="Q179" s="4" t="n">
         <f aca="false">ABS(D158-Q158)</f>
-        <v>0.0626</v>
+        <v>0.1595</v>
       </c>
       <c r="R179" s="4" t="n">
         <f aca="false">ABS(E158-R158)</f>
-        <v>0.0904</v>
+        <v>0.0913</v>
       </c>
       <c r="S179" s="4" t="n">
         <f aca="false">ABS(F158-S158)</f>
-        <v>0.2921</v>
+        <v>0.0298000000000001</v>
       </c>
       <c r="T179" s="4" t="n">
         <f aca="false">ABS(G158-T158)</f>
-        <v>0.1874</v>
+        <v>0.1964</v>
       </c>
       <c r="U179" s="4" t="n">
         <f aca="false">ABS(H158-U158)</f>
-        <v>0.103</v>
+        <v>0.00929999999999999</v>
       </c>
       <c r="V179" s="4" t="n">
         <f aca="false">ABS(I158-V158)</f>
-        <v>0.1832</v>
+        <v>0.2743</v>
       </c>
       <c r="W179" s="4" t="n">
         <f aca="false">ABS(J158-W158)</f>
-        <v>0.1333</v>
+        <v>0.1534</v>
       </c>
       <c r="X179" s="4" t="n">
         <f aca="false">ABS(K158-X158)</f>
-        <v>0.3945</v>
+        <v>0.1202</v>
       </c>
       <c r="AB179" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AC179" s="1" t="n">
         <v>1</v>
@@ -11639,46 +11537,46 @@
         <v>0.05</v>
       </c>
       <c r="O180" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P180" s="4" t="n">
         <f aca="false">ABS(C159-P159)</f>
-        <v>0.3325</v>
+        <v>0.00920000000000004</v>
       </c>
       <c r="Q180" s="4" t="n">
         <f aca="false">ABS(D159-Q159)</f>
-        <v>0.3084</v>
+        <v>0.2915</v>
       </c>
       <c r="R180" s="4" t="n">
         <f aca="false">ABS(E159-R159)</f>
-        <v>0.00790000000000002</v>
+        <v>0.026</v>
       </c>
       <c r="S180" s="4" t="n">
         <f aca="false">ABS(F159-S159)</f>
-        <v>0.1357</v>
+        <v>0.1504</v>
       </c>
       <c r="T180" s="4" t="n">
         <f aca="false">ABS(G159-T159)</f>
-        <v>0.3595</v>
+        <v>0.4398</v>
       </c>
       <c r="U180" s="4" t="n">
         <f aca="false">ABS(H159-U159)</f>
-        <v>0.2188</v>
+        <v>0.0472</v>
       </c>
       <c r="V180" s="4" t="n">
         <f aca="false">ABS(I159-V159)</f>
-        <v>0.0208999999999999</v>
+        <v>0.2201</v>
       </c>
       <c r="W180" s="4" t="n">
         <f aca="false">ABS(J159-W159)</f>
-        <v>0.0104</v>
+        <v>0.0038999999999999</v>
       </c>
       <c r="X180" s="4" t="n">
         <f aca="false">ABS(K159-X159)</f>
-        <v>0.1884125</v>
+        <v>0.7692</v>
       </c>
       <c r="AB180" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AC180" s="1" t="n">
         <v>1</v>
@@ -11722,46 +11620,46 @@
         <v>0.017</v>
       </c>
       <c r="O181" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P181" s="4" t="n">
         <f aca="false">ABS(C160-P160)</f>
-        <v>0.1454</v>
+        <v>0.1196</v>
       </c>
       <c r="Q181" s="4" t="n">
         <f aca="false">ABS(D160-Q160)</f>
-        <v>0.1287</v>
+        <v>0.1718</v>
       </c>
       <c r="R181" s="4" t="n">
         <f aca="false">ABS(E160-R160)</f>
-        <v>0.0844999999999999</v>
+        <v>0.0285000000000001</v>
       </c>
       <c r="S181" s="4" t="n">
         <f aca="false">ABS(F160-S160)</f>
-        <v>0.146</v>
+        <v>0.3151</v>
       </c>
       <c r="T181" s="4" t="n">
         <f aca="false">ABS(G160-T160)</f>
-        <v>0.0759</v>
+        <v>0.1028</v>
       </c>
       <c r="U181" s="4" t="n">
         <f aca="false">ABS(H160-U160)</f>
-        <v>0.1289</v>
+        <v>0.0957</v>
       </c>
       <c r="V181" s="4" t="n">
         <f aca="false">ABS(I160-V160)</f>
-        <v>0.0865</v>
+        <v>0.0293</v>
       </c>
       <c r="W181" s="4" t="n">
         <f aca="false">ABS(J160-W160)</f>
-        <v>0.000300000000000078</v>
+        <v>0.00250000000000006</v>
       </c>
       <c r="X181" s="4" t="n">
         <f aca="false">ABS(K160-X160)</f>
-        <v>0.1864375</v>
+        <v>0.7973</v>
       </c>
       <c r="AB181" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AC181" s="1" t="n">
         <v>2</v>
@@ -11805,46 +11703,46 @@
         <v>-0.004</v>
       </c>
       <c r="O182" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P182" s="4" t="n">
         <f aca="false">ABS(C161-P161)</f>
-        <v>0.1124</v>
+        <v>0.0081</v>
       </c>
       <c r="Q182" s="4" t="n">
         <f aca="false">ABS(D161-Q161)</f>
-        <v>0.1853</v>
+        <v>0.4345</v>
       </c>
       <c r="R182" s="4" t="n">
         <f aca="false">ABS(E161-R161)</f>
-        <v>0.000399999999999998</v>
+        <v>0.0182</v>
       </c>
       <c r="S182" s="4" t="n">
         <f aca="false">ABS(F161-S161)</f>
-        <v>0.0124</v>
+        <v>0.0078</v>
       </c>
       <c r="T182" s="4" t="n">
         <f aca="false">ABS(G161-T161)</f>
-        <v>0.5557</v>
+        <v>0.8256</v>
       </c>
       <c r="U182" s="4" t="n">
         <f aca="false">ABS(H161-U161)</f>
-        <v>0.3165</v>
+        <v>0.5538</v>
       </c>
       <c r="V182" s="4" t="n">
         <f aca="false">ABS(I161-V161)</f>
-        <v>0.146</v>
+        <v>0.3695</v>
       </c>
       <c r="W182" s="4" t="n">
         <f aca="false">ABS(J161-W161)</f>
-        <v>0.00590000000000002</v>
+        <v>0.00179999999999991</v>
       </c>
       <c r="X182" s="4" t="n">
         <f aca="false">ABS(K161-X161)</f>
-        <v>0.06915</v>
+        <v>0.444</v>
       </c>
       <c r="AB182" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AC182" s="1" t="n">
         <v>1</v>
@@ -11888,46 +11786,46 @@
         <v>0.009</v>
       </c>
       <c r="O183" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P183" s="4" t="n">
         <f aca="false">ABS(C162-P162)</f>
-        <v>0.00539999999999996</v>
+        <v>0.000199999999999978</v>
       </c>
       <c r="Q183" s="4" t="n">
         <f aca="false">ABS(D162-Q162)</f>
-        <v>0.0448</v>
+        <v>0.0015</v>
       </c>
       <c r="R183" s="4" t="n">
         <f aca="false">ABS(E162-R162)</f>
-        <v>0.0539</v>
+        <v>0.0698</v>
       </c>
       <c r="S183" s="4" t="n">
         <f aca="false">ABS(F162-S162)</f>
-        <v>0.2548</v>
+        <v>0.0154</v>
       </c>
       <c r="T183" s="4" t="n">
         <f aca="false">ABS(G162-T162)</f>
-        <v>0.1231</v>
+        <v>0.00860000000000005</v>
       </c>
       <c r="U183" s="4" t="n">
         <f aca="false">ABS(H162-U162)</f>
-        <v>0.00750000000000001</v>
+        <v>0.0319</v>
       </c>
       <c r="V183" s="4" t="n">
         <f aca="false">ABS(I162-V162)</f>
-        <v>0.5851</v>
+        <v>0.4879</v>
       </c>
       <c r="W183" s="4" t="n">
         <f aca="false">ABS(J162-W162)</f>
-        <v>0.1604</v>
+        <v>0.00559999999999999</v>
       </c>
       <c r="X183" s="4" t="n">
         <f aca="false">ABS(K162-X162)</f>
-        <v>0.00119999999999998</v>
+        <v>0.6161</v>
       </c>
       <c r="AB183" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AC183" s="1" t="n">
         <v>0</v>
@@ -11971,46 +11869,46 @@
         <v>0.017</v>
       </c>
       <c r="O184" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P184" s="4" t="n">
         <f aca="false">ABS(C163-P163)</f>
-        <v>0.1505</v>
+        <v>0.0158</v>
       </c>
       <c r="Q184" s="4" t="n">
         <f aca="false">ABS(D163-Q163)</f>
-        <v>0.1334</v>
+        <v>0.0224</v>
       </c>
       <c r="R184" s="4" t="n">
         <f aca="false">ABS(E163-R163)</f>
-        <v>0.0445</v>
+        <v>0.00340000000000001</v>
       </c>
       <c r="S184" s="4" t="n">
         <f aca="false">ABS(F163-S163)</f>
-        <v>0.0609</v>
+        <v>0.3222</v>
       </c>
       <c r="T184" s="4" t="n">
         <f aca="false">ABS(G163-T163)</f>
-        <v>0.00440000000000007</v>
+        <v>0.0132</v>
       </c>
       <c r="U184" s="4" t="n">
         <f aca="false">ABS(H163-U163)</f>
-        <v>0.0278</v>
+        <v>0.00419999999999998</v>
       </c>
       <c r="V184" s="4" t="n">
         <f aca="false">ABS(I163-V163)</f>
-        <v>0.1199</v>
+        <v>0.0263</v>
       </c>
       <c r="W184" s="4" t="n">
         <f aca="false">ABS(J163-W163)</f>
-        <v>0.1306</v>
+        <v>0.00670000000000004</v>
       </c>
       <c r="X184" s="4" t="n">
         <f aca="false">ABS(K163-X163)</f>
-        <v>0.1158125</v>
+        <v>0.7226</v>
       </c>
       <c r="AB184" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AC184" s="1" t="n">
         <v>1</v>
@@ -12054,46 +11952,46 @@
         <v>-0.003</v>
       </c>
       <c r="O185" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P185" s="4" t="n">
         <f aca="false">ABS(C164-P164)</f>
-        <v>0.00800000000000001</v>
+        <v>0.00370000000000004</v>
       </c>
       <c r="Q185" s="4" t="n">
         <f aca="false">ABS(D164-Q164)</f>
-        <v>0.0541</v>
+        <v>0.1147</v>
       </c>
       <c r="R185" s="4" t="n">
         <f aca="false">ABS(E164-R164)</f>
-        <v>0.4885</v>
+        <v>0.3421</v>
       </c>
       <c r="S185" s="4" t="n">
         <f aca="false">ABS(F164-S164)</f>
-        <v>0.2931</v>
+        <v>0.2144</v>
       </c>
       <c r="T185" s="4" t="n">
         <f aca="false">ABS(G164-T164)</f>
-        <v>0.4503</v>
+        <v>0.159</v>
       </c>
       <c r="U185" s="4" t="n">
         <f aca="false">ABS(H164-U164)</f>
-        <v>0.2983</v>
+        <v>0.2158</v>
       </c>
       <c r="V185" s="4" t="n">
         <f aca="false">ABS(I164-V164)</f>
-        <v>0.1074</v>
+        <v>0.2071</v>
       </c>
       <c r="W185" s="4" t="n">
         <f aca="false">ABS(J164-W164)</f>
-        <v>0.3769</v>
+        <v>0.0726</v>
       </c>
       <c r="X185" s="4" t="n">
         <f aca="false">ABS(K164-X164)</f>
-        <v>0.337925</v>
+        <v>0.9392</v>
       </c>
       <c r="AB185" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AC185" s="1" t="n">
         <v>0</v>
@@ -12122,7 +12020,7 @@
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B186" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C186" s="1" t="n">
         <v>0.049</v>
@@ -12149,46 +12047,46 @@
         <v>0.656</v>
       </c>
       <c r="O186" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P186" s="4" t="n">
         <f aca="false">ABS(C165-P165)</f>
-        <v>0.3203</v>
+        <v>0.0106</v>
       </c>
       <c r="Q186" s="4" t="n">
         <f aca="false">ABS(D165-Q165)</f>
-        <v>0.0352</v>
+        <v>0.0245</v>
       </c>
       <c r="R186" s="4" t="n">
         <f aca="false">ABS(E165-R165)</f>
-        <v>0.0237000000000001</v>
+        <v>0.0259</v>
       </c>
       <c r="S186" s="4" t="n">
         <f aca="false">ABS(F165-S165)</f>
-        <v>0.0253</v>
+        <v>0.0223</v>
       </c>
       <c r="T186" s="4" t="n">
         <f aca="false">ABS(G165-T165)</f>
-        <v>0.00129999999999997</v>
+        <v>0.012</v>
       </c>
       <c r="U186" s="4" t="n">
         <f aca="false">ABS(H165-U165)</f>
-        <v>0.0093</v>
+        <v>0.0329</v>
       </c>
       <c r="V186" s="4" t="n">
         <f aca="false">ABS(I165-V165)</f>
-        <v>0.0833</v>
+        <v>0.0814</v>
       </c>
       <c r="W186" s="4" t="n">
         <f aca="false">ABS(J165-W165)</f>
-        <v>0.00359999999999994</v>
+        <v>0.000299999999999967</v>
       </c>
       <c r="X186" s="4" t="n">
         <f aca="false">ABS(K165-X165)</f>
-        <v>0.1337875</v>
+        <v>0.3343</v>
       </c>
       <c r="AB186" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AC186" s="1" t="n">
         <v>1</v>
@@ -12217,46 +12115,46 @@
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O187" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P187" s="4" t="n">
         <f aca="false">ABS(C166-P166)</f>
-        <v>0.000500000000000056</v>
+        <v>0.000199999999999978</v>
       </c>
       <c r="Q187" s="4" t="n">
         <f aca="false">ABS(D166-Q166)</f>
-        <v>0.0156</v>
+        <v>0.032</v>
       </c>
       <c r="R187" s="4" t="n">
         <f aca="false">ABS(E166-R166)</f>
-        <v>0.1564</v>
+        <v>0.0444</v>
       </c>
       <c r="S187" s="4" t="n">
         <f aca="false">ABS(F166-S166)</f>
-        <v>0.2708</v>
+        <v>0.0827</v>
       </c>
       <c r="T187" s="4" t="n">
         <f aca="false">ABS(G166-T166)</f>
-        <v>0.055</v>
+        <v>0.0543</v>
       </c>
       <c r="U187" s="4" t="n">
         <f aca="false">ABS(H166-U166)</f>
-        <v>0.2742</v>
+        <v>0.0425</v>
       </c>
       <c r="V187" s="4" t="n">
         <f aca="false">ABS(I166-V166)</f>
-        <v>0.3575</v>
+        <v>0.115</v>
       </c>
       <c r="W187" s="4" t="n">
         <f aca="false">ABS(J166-W166)</f>
-        <v>0.00600000000000001</v>
+        <v>0.0081</v>
       </c>
       <c r="X187" s="4" t="n">
         <f aca="false">ABS(K166-X166)</f>
-        <v>0.2247375</v>
+        <v>0.7117</v>
       </c>
       <c r="AB187" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AC187" s="1" t="n">
         <v>0</v>
@@ -12285,49 +12183,49 @@
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B188" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="O188" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="O188" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="P188" s="4" t="n">
         <f aca="false">ABS(C167-P167)</f>
-        <v>0.1527</v>
+        <v>0.00409999999999999</v>
       </c>
       <c r="Q188" s="4" t="n">
         <f aca="false">ABS(D167-Q167)</f>
-        <v>0.2559</v>
+        <v>0.3014</v>
       </c>
       <c r="R188" s="4" t="n">
         <f aca="false">ABS(E167-R167)</f>
-        <v>0.0174</v>
+        <v>0.0127</v>
       </c>
       <c r="S188" s="4" t="n">
         <f aca="false">ABS(F167-S167)</f>
-        <v>0.0794</v>
+        <v>0.00680000000000003</v>
       </c>
       <c r="T188" s="4" t="n">
         <f aca="false">ABS(G167-T167)</f>
-        <v>0.00170000000000001</v>
+        <v>0.0833</v>
       </c>
       <c r="U188" s="4" t="n">
         <f aca="false">ABS(H167-U167)</f>
-        <v>0.2267</v>
+        <v>0.1941</v>
       </c>
       <c r="V188" s="4" t="n">
         <f aca="false">ABS(I167-V167)</f>
-        <v>0.0209</v>
+        <v>0.012</v>
       </c>
       <c r="W188" s="4" t="n">
         <f aca="false">ABS(J167-W167)</f>
-        <v>0.0168</v>
+        <v>0.000299999999999967</v>
       </c>
       <c r="X188" s="4" t="n">
         <f aca="false">ABS(K167-X167)</f>
-        <v>0.4095125</v>
+        <v>0.0766</v>
       </c>
       <c r="AB188" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AC188" s="1" t="n">
         <v>1</v>
@@ -12356,31 +12254,31 @@
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B189" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C189" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C189" s="1" t="s">
+      <c r="D189" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D189" s="1" t="s">
+      <c r="E189" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E189" s="1" t="s">
+      <c r="F189" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F189" s="1" t="s">
+      <c r="G189" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G189" s="1" t="s">
+      <c r="H189" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="H189" s="1" t="s">
+      <c r="I189" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="I189" s="1" t="s">
+      <c r="J189" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="J189" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12521,7 +12419,7 @@
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B198" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C198" s="1" t="n">
         <v>0.047</v>
@@ -12550,36 +12448,36 @@
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B200" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B201" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C201" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C201" s="1" t="s">
+      <c r="D201" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D201" s="1" t="s">
+      <c r="E201" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E201" s="1" t="s">
+      <c r="F201" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F201" s="1" t="s">
+      <c r="G201" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G201" s="1" t="s">
+      <c r="H201" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="H201" s="1" t="s">
+      <c r="I201" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="I201" s="1" t="s">
+      <c r="J201" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="J201" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12788,7 +12686,7 @@
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B214" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C214" s="1" t="n">
         <v>0.104</v>
@@ -12817,36 +12715,36 @@
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B216" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B217" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C217" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C217" s="1" t="s">
+      <c r="D217" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D217" s="1" t="s">
+      <c r="E217" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E217" s="1" t="s">
+      <c r="F217" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F217" s="1" t="s">
+      <c r="G217" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G217" s="1" t="s">
+      <c r="H217" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="H217" s="1" t="s">
+      <c r="I217" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="I217" s="1" t="s">
+      <c r="J217" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="J217" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12987,7 +12885,7 @@
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B226" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C226" s="1" t="n">
         <v>0.099</v>
@@ -13016,36 +12914,36 @@
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B228" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B229" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C229" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C229" s="1" t="s">
+      <c r="D229" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D229" s="1" t="s">
+      <c r="E229" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E229" s="1" t="s">
+      <c r="F229" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F229" s="1" t="s">
+      <c r="G229" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G229" s="1" t="s">
+      <c r="H229" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="H229" s="1" t="s">
+      <c r="I229" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="I229" s="1" t="s">
+      <c r="J229" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="J229" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13135,7 +13033,7 @@
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B235" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C235" s="1" t="n">
         <v>0.038</v>
@@ -13164,36 +13062,36 @@
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B237" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B238" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C238" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C238" s="1" t="s">
+      <c r="D238" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D238" s="1" t="s">
+      <c r="E238" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E238" s="1" t="s">
+      <c r="F238" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F238" s="1" t="s">
+      <c r="G238" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G238" s="1" t="s">
+      <c r="H238" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="H238" s="1" t="s">
+      <c r="I238" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="I238" s="1" t="s">
+      <c r="J238" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="J238" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13351,7 +13249,7 @@
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B248" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C248" s="1" t="n">
         <v>0.023</v>
@@ -13385,33 +13283,33 @@
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C252" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C253" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D253" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D253" s="1" t="s">
+      <c r="E253" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E253" s="1" t="s">
+      <c r="F253" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F253" s="1" t="s">
+      <c r="G253" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G253" s="1" t="s">
+      <c r="H253" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="H253" s="1" t="s">
+      <c r="I253" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="I253" s="1" t="s">
+      <c r="J253" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="J253" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13452,31 +13350,31 @@
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B259" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B261" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C262" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D262" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D262" s="1" t="s">
+      <c r="E262" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E262" s="1" t="s">
+      <c r="F262" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="F262" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B263" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C263" s="1" t="n">
         <v>0.047</v>
@@ -13491,7 +13389,7 @@
         <v>0.02</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13511,31 +13409,31 @@
         <v>0.01</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B266" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C267" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D267" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D267" s="1" t="s">
+      <c r="E267" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E267" s="1" t="s">
+      <c r="F267" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="F267" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B268" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C268" s="1" t="n">
         <v>0.043</v>
@@ -13550,7 +13448,7 @@
         <v>0.049</v>
       </c>
       <c r="G268" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13570,31 +13468,31 @@
         <v>0.015</v>
       </c>
       <c r="G269" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B271" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C272" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D272" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D272" s="1" t="s">
+      <c r="E272" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E272" s="1" t="s">
+      <c r="F272" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="F272" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B273" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C273" s="1" t="n">
         <v>0.106</v>
@@ -13609,7 +13507,7 @@
         <v>0.024</v>
       </c>
       <c r="G273" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13629,31 +13527,31 @@
         <v>0.011</v>
       </c>
       <c r="G274" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B276" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C277" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D277" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D277" s="1" t="s">
+      <c r="E277" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E277" s="1" t="s">
+      <c r="F277" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="F277" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B278" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C278" s="1" t="n">
         <v>0.101</v>
@@ -13668,7 +13566,7 @@
         <v>0.019</v>
       </c>
       <c r="G278" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13688,31 +13586,31 @@
         <v>0.008</v>
       </c>
       <c r="G279" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B281" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C282" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D282" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D282" s="1" t="s">
+      <c r="E282" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E282" s="1" t="s">
+      <c r="F282" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="F282" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B283" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C283" s="1" t="n">
         <v>0.038</v>
@@ -13727,7 +13625,7 @@
         <v>0.031</v>
       </c>
       <c r="G283" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13747,31 +13645,31 @@
         <v>0.025</v>
       </c>
       <c r="G284" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B286" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C287" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D287" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D287" s="1" t="s">
+      <c r="E287" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E287" s="1" t="s">
+      <c r="F287" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="F287" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B288" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C288" s="1" t="n">
         <v>0.021</v>
@@ -13786,7 +13684,7 @@
         <v>0.03</v>
       </c>
       <c r="G288" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13806,7 +13704,7 @@
         <v>0.01</v>
       </c>
       <c r="G289" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13816,26 +13714,26 @@
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B293" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C295" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D295" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D295" s="1" t="s">
+      <c r="E295" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E295" s="1" t="s">
+      <c r="F295" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="F295" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B296" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C296" s="1" t="n">
         <v>0.059</v>
@@ -13850,7 +13748,7 @@
         <v>0.03</v>
       </c>
       <c r="G296" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13870,7 +13768,7 @@
         <v>0.005</v>
       </c>
       <c r="G297" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13880,26 +13778,26 @@
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B300" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B302" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C304" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D304" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D304" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="E304" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F304" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="F304" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13932,21 +13830,21 @@
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B308" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C310" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D310" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D310" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="E310" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F310" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="F310" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13984,22 +13882,22 @@
     </row>
     <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B317" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B318" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B319" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B320" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14007,13 +13905,13 @@
         <v>63</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C322" s="1" t="n">
         <v>0.0665</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14021,13 +13919,13 @@
         <v>64</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C323" s="1" t="n">
         <v>0.1772</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14035,13 +13933,13 @@
         <v>65</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C324" s="1" t="n">
         <v>0.0003</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14049,13 +13947,13 @@
         <v>66</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C325" s="1" t="n">
         <v>0.0001</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14063,13 +13961,13 @@
         <v>67</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C326" s="1" t="n">
         <v>0.2118</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14077,21 +13975,21 @@
         <v>68</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C327" s="1" t="n">
         <v>0.3802</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B328" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="B328" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="C328" s="1" t="n">
         <v>0.0001</v>
@@ -14104,32 +14002,32 @@
     </row>
     <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B331" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B333" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B335" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B336" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B337" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B340" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14163,7 +14061,7 @@
         <v>63</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C343" s="1" t="n">
         <v>0.0001</v>
@@ -14174,7 +14072,7 @@
         <v>64</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C344" s="1" t="n">
         <v>0.0001</v>
@@ -14185,7 +14083,7 @@
         <v>65</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C345" s="1" t="n">
         <v>0.0001</v>
@@ -14196,7 +14094,7 @@
         <v>66</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C346" s="1" t="n">
         <v>0.0001</v>
@@ -14207,7 +14105,7 @@
         <v>67</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C347" s="1" t="n">
         <v>0.0001</v>
@@ -14218,7 +14116,7 @@
         <v>68</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C348" s="1" t="n">
         <v>0.0001</v>
@@ -14226,10 +14124,10 @@
     </row>
     <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B349" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="B349" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="C349" s="1" t="n">
         <v>0.0001</v>
@@ -14307,7 +14205,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>75</v>
@@ -14325,13 +14223,13 @@
         <v>78</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>80</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>82</v>
@@ -14339,77 +14237,77 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="C2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="E2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="G2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="I2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="K2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="M2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="O2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="Q2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="S2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>0.7319</v>
       </c>
-      <c r="D3" s="13" t="n">
+      <c r="D3" s="12" t="n">
         <v>0.957</v>
       </c>
       <c r="E3" s="1" t="n">
@@ -14463,15 +14361,15 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>0.2515</v>
       </c>
-      <c r="D4" s="13" t="n">
+      <c r="D4" s="12" t="n">
         <v>0.286</v>
       </c>
       <c r="E4" s="1" t="n">
@@ -14525,15 +14423,15 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>0.1959</v>
       </c>
-      <c r="D5" s="13" t="n">
+      <c r="D5" s="12" t="n">
         <v>0.587</v>
       </c>
       <c r="E5" s="1" t="n">
@@ -14587,15 +14485,15 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>0.9926</v>
       </c>
-      <c r="D6" s="13" t="n">
+      <c r="D6" s="12" t="n">
         <v>0.2</v>
       </c>
       <c r="E6" s="1" t="n">
@@ -14649,15 +14547,15 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>0.6106</v>
       </c>
-      <c r="D7" s="13" t="n">
+      <c r="D7" s="12" t="n">
         <v>0.182</v>
       </c>
       <c r="E7" s="1" t="n">
@@ -14711,15 +14609,15 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>0.2956</v>
       </c>
-      <c r="D8" s="13" t="n">
+      <c r="D8" s="12" t="n">
         <v>0.015</v>
       </c>
       <c r="E8" s="1" t="n">
@@ -14773,15 +14671,15 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>0.5848</v>
       </c>
-      <c r="D9" s="13" t="n">
+      <c r="D9" s="12" t="n">
         <v>0.778</v>
       </c>
       <c r="E9" s="1" t="n">
@@ -14835,15 +14733,15 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>0.8428</v>
       </c>
-      <c r="D10" s="13" t="n">
+      <c r="D10" s="12" t="n">
         <v>0.437</v>
       </c>
       <c r="E10" s="1" t="n">
@@ -14897,15 +14795,15 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>0.4409</v>
       </c>
-      <c r="D11" s="13" t="n">
+      <c r="D11" s="12" t="n">
         <v>0.725</v>
       </c>
       <c r="E11" s="1" t="n">
@@ -14959,15 +14857,15 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>0.0397</v>
       </c>
-      <c r="D12" s="13" t="n">
+      <c r="D12" s="12" t="n">
         <v>0.726</v>
       </c>
       <c r="E12" s="1" t="n">
@@ -15021,15 +14919,15 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>0.4602</v>
       </c>
-      <c r="D13" s="13" t="n">
+      <c r="D13" s="12" t="n">
         <v>0.206</v>
       </c>
       <c r="E13" s="1" t="n">
@@ -15083,15 +14981,15 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>0.8555</v>
       </c>
-      <c r="D14" s="13" t="n">
+      <c r="D14" s="12" t="n">
         <v>0.898</v>
       </c>
       <c r="E14" s="1" t="n">
@@ -15145,15 +15043,15 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>0.357</v>
       </c>
-      <c r="D15" s="13" t="n">
+      <c r="D15" s="12" t="n">
         <v>0.774</v>
       </c>
       <c r="E15" s="1" t="n">
@@ -15207,15 +15105,15 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>0.9276</v>
       </c>
-      <c r="D16" s="13" t="n">
+      <c r="D16" s="12" t="n">
         <v>0.843</v>
       </c>
       <c r="E16" s="1" t="n">
@@ -15269,15 +15167,15 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>0.71</v>
       </c>
-      <c r="D17" s="13" t="n">
+      <c r="D17" s="12" t="n">
         <v>0.554</v>
       </c>
       <c r="E17" s="1" t="n">

--- a/BoophilusAdultsDataCattleFarmRes(2).xlsx
+++ b/BoophilusAdultsDataCattleFarmRes(2).xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BoophilusAdultsDataCattleFarm" sheetId="1" state="visible" r:id="rId3"/>
@@ -2526,16 +2526,61 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.5480625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5817125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5126375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5299125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.514125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5811875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.595725</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.6034</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.495775</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.61475</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.6059125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.625175</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.4519625</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.5005125</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.4752375</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="21675360"/>
-        <c:axId val="75379173"/>
+        <c:axId val="82681215"/>
+        <c:axId val="64374906"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="21675360"/>
+        <c:axId val="82681215"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2594,12 +2639,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75379173"/>
+        <c:crossAx val="64374906"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="75379173"/>
+        <c:axId val="64374906"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2667,7 +2712,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="21675360"/>
+        <c:crossAx val="82681215"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2818,52 +2863,52 @@
             <c:numRef>
               <c:f>ComparLD!$S$3:$S$17</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>0.3753</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.556</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9352</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.828</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1202</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7692</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7973</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.444</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6161</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7226</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.9392</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.3343</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7117</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.0766</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.828</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1667</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3753</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.9352</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.556</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.7973</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.444</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.7692</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.1202</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.3343</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.7117</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.7226</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.9392</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.6161</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2875,60 +2920,60 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.338625</c:v>
+                  <c:v>0.5480625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.54375</c:v>
+                  <c:v>0.5817125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.40425</c:v>
+                  <c:v>0.5126375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.345375</c:v>
+                  <c:v>0.5299125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.44675</c:v>
+                  <c:v>0.514125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.32625</c:v>
+                  <c:v>0.5811875</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.36575</c:v>
+                  <c:v>0.595725</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.35225</c:v>
+                  <c:v>0.6034</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.467875</c:v>
+                  <c:v>0.495775</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.474625</c:v>
+                  <c:v>0.61475</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.451875</c:v>
+                  <c:v>0.6059125</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.532</c:v>
+                  <c:v>0.625175</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.412375</c:v>
+                  <c:v>0.4519625</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.4645</c:v>
+                  <c:v>0.5005125</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.523875</c:v>
+                  <c:v>0.4752375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="38516563"/>
-        <c:axId val="21870987"/>
+        <c:axId val="71714150"/>
+        <c:axId val="95376915"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="38516563"/>
+        <c:axId val="71714150"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2970,12 +3015,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="21870987"/>
+        <c:crossAx val="95376915"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="21870987"/>
+        <c:axId val="95376915"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3017,7 +3062,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38516563"/>
+        <c:crossAx val="71714150"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3135,52 +3180,52 @@
             <c:numRef>
               <c:f>ComparLD!$C$3:$C$17</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>0.9926</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2956</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6106</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2515</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1959</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0397</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4409</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5848</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8428</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.357</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.9276</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.4602</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.8555</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.7319</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2515</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1959</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.9926</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.6106</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.2956</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.5848</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.8428</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.4409</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0397</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.4602</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.8555</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.357</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.9276</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.71</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3192,60 +3237,60 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.957</c:v>
+                  <c:v>0.9963</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.286</c:v>
+                  <c:v>0.2888</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.587</c:v>
+                  <c:v>0.6081</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2</c:v>
+                  <c:v>0.3548</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.182</c:v>
+                  <c:v>0.1981</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.015</c:v>
+                  <c:v>0.0353</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.778</c:v>
+                  <c:v>0.4317</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.437</c:v>
+                  <c:v>0.4652</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.725</c:v>
+                  <c:v>0.8347</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.726</c:v>
+                  <c:v>0.7098</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.206</c:v>
+                  <c:v>0.3412</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.898</c:v>
+                  <c:v>0.9313</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.774</c:v>
+                  <c:v>0.4496</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.843</c:v>
+                  <c:v>0.8557</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.554</c:v>
+                  <c:v>0.7278</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="60144092"/>
-        <c:axId val="34904655"/>
+        <c:axId val="20160049"/>
+        <c:axId val="55648245"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="60144092"/>
+        <c:axId val="20160049"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3287,12 +3332,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34904655"/>
+        <c:crossAx val="55648245"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="34904655"/>
+        <c:axId val="55648245"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3334,7 +3379,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60144092"/>
+        <c:crossAx val="20160049"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3452,52 +3497,52 @@
             <c:numRef>
               <c:f>ComparLD!$E$3:$E$17</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>0.5548</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8696</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8965</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.832</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5598</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4805</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9132</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1365</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.4331</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.4969</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.2109</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.4529</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.58</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.69</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.8965</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.5548</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.8696</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.3006</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.4805</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.9132</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.5598</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.832</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.2109</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.4529</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.4331</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.4969</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.1365</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3509,60 +3554,60 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.709</c:v>
+                  <c:v>0.1839</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.229</c:v>
+                  <c:v>0.2198</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.752</c:v>
+                  <c:v>0.9042</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.686</c:v>
+                  <c:v>0.7275</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.798</c:v>
+                  <c:v>0.7984</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.786</c:v>
+                  <c:v>0.6725</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.247</c:v>
+                  <c:v>0.2683</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.341</c:v>
+                  <c:v>0.3087</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.705</c:v>
+                  <c:v>0.4787</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.098</c:v>
+                  <c:v>0.138</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.557</c:v>
+                  <c:v>0.4555</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.463</c:v>
+                  <c:v>0.3822</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.177</c:v>
+                  <c:v>0.2354</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.429</c:v>
+                  <c:v>0.4849</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.337</c:v>
+                  <c:v>0.2786</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="49490694"/>
-        <c:axId val="61721216"/>
+        <c:axId val="78259978"/>
+        <c:axId val="81989146"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="49490694"/>
+        <c:axId val="78259978"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3604,12 +3649,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61721216"/>
+        <c:crossAx val="81989146"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61721216"/>
+        <c:axId val="81989146"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3651,7 +3696,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49490694"/>
+        <c:crossAx val="78259978"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3769,52 +3814,52 @@
             <c:numRef>
               <c:f>ComparLD!$G$3:$G$17</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>0.5362</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4338</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3137</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6785</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8504</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1626</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8777</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8633</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0398</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.8218</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1518</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.969</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.6985</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.987</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.0792</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.6785</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.8504</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.5362</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3137</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.4338</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.8633</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0398</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.8777</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.1626</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.6985</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.987</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.1518</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.969</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.8218</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3826,60 +3871,60 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.186</c:v>
+                  <c:v>0.4332</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.155</c:v>
+                  <c:v>0.4282</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.405</c:v>
+                  <c:v>0.2265</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.05</c:v>
+                  <c:v>0.5972</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.013</c:v>
+                  <c:v>0.8889</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.296</c:v>
+                  <c:v>0.0713</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.433</c:v>
+                  <c:v>0.8517</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.012</c:v>
+                  <c:v>0.8918</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.417</c:v>
+                  <c:v>0.0216</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.036</c:v>
+                  <c:v>0.8916</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.602</c:v>
+                  <c:v>0.1552</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.695</c:v>
+                  <c:v>0.6269</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.041</c:v>
+                  <c:v>0.6726</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.038</c:v>
+                  <c:v>0.9426</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.487</c:v>
+                  <c:v>0.0919</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="33889278"/>
-        <c:axId val="224430"/>
+        <c:axId val="35174593"/>
+        <c:axId val="67653113"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="33889278"/>
+        <c:axId val="35174593"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3921,12 +3966,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="224430"/>
+        <c:crossAx val="67653113"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="224430"/>
+        <c:axId val="67653113"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3968,7 +4013,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33889278"/>
+        <c:crossAx val="35174593"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4086,52 +4131,52 @@
             <c:numRef>
               <c:f>ComparLD!$I$3:$I$17</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>0.093</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9523</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.601</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9054</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9319</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.164</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4536</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0143</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.861</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.4784</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.675</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5673</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7661</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.8436</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.9054</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.093</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.601</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.9523</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.4536</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0143</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.164</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.9319</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.5673</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.7661</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.4784</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.675</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.861</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4143,60 +4188,60 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.234</c:v>
+                  <c:v>0.0438</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.998</c:v>
+                  <c:v>0.7798</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.057</c:v>
+                  <c:v>0.3087</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.878</c:v>
+                  <c:v>0.7657</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.779</c:v>
+                  <c:v>0.0032</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.14</c:v>
+                  <c:v>0.9617</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.0136</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.829</c:v>
+                  <c:v>0.1385</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.469</c:v>
+                  <c:v>0.0065</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.987</c:v>
+                  <c:v>0.8456</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.409</c:v>
+                  <c:v>0.8006</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.134</c:v>
+                  <c:v>0.8894</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.645</c:v>
+                  <c:v>0.545</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.902</c:v>
+                  <c:v>0.6834</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.967</c:v>
+                  <c:v>0.8504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="65711864"/>
-        <c:axId val="54209610"/>
+        <c:axId val="16570679"/>
+        <c:axId val="29865868"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="65711864"/>
+        <c:axId val="16570679"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4238,12 +4283,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54209610"/>
+        <c:crossAx val="29865868"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="54209610"/>
+        <c:axId val="29865868"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4285,7 +4330,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65711864"/>
+        <c:crossAx val="16570679"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4403,52 +4448,52 @@
             <c:numRef>
               <c:f>ComparLD!$K$3:$K$17</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>0.1602</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.932</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8348</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3964</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2117</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7229</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7961</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8415</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6937</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7286</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.8848</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.8227</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0634</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.0952</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.8348</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.3964</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1602</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.7118</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.932</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.7961</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.8415</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.7229</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.2117</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.8227</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.0634</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.7286</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.8848</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.6937</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4460,60 +4505,60 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.286</c:v>
+                  <c:v>0.2444</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.327</c:v>
+                  <c:v>0.9349</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.768</c:v>
+                  <c:v>0.7696</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.058</c:v>
+                  <c:v>0.8346</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.525</c:v>
+                  <c:v>0.4383</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.94</c:v>
+                  <c:v>0.0153</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.46</c:v>
+                  <c:v>0.2831</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.017</c:v>
+                  <c:v>0.6933</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.294</c:v>
+                  <c:v>0.0159</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.083</c:v>
+                  <c:v>0.7023</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.344</c:v>
+                  <c:v>0.7418</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.179</c:v>
+                  <c:v>0.7258</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.401</c:v>
+                  <c:v>0.8107</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.209</c:v>
+                  <c:v>0.0091</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.878</c:v>
+                  <c:v>0.1785</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="51522076"/>
-        <c:axId val="93503597"/>
+        <c:axId val="69849872"/>
+        <c:axId val="8592957"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="51522076"/>
+        <c:axId val="69849872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4555,12 +4600,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93503597"/>
+        <c:crossAx val="8592957"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="93503597"/>
+        <c:axId val="8592957"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4602,7 +4647,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51522076"/>
+        <c:crossAx val="69849872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4720,52 +4765,52 @@
             <c:numRef>
               <c:f>ComparLD!$M$3:$M$17</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>0.2359</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8188</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0947</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0927</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6194</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3286</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.7474</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1128</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.585</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6967</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1136</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.244</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.3245</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0947</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2359</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.8188</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5006</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.3286</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.7474</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.6194</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0927</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.1136</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.244</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.585</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.6967</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.1128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4777,60 +4822,60 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.287</c:v>
+                  <c:v>0.1661</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.659</c:v>
+                  <c:v>0.4746</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.29</c:v>
+                  <c:v>0.651</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.161</c:v>
+                  <c:v>0.4074</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.653</c:v>
+                  <c:v>0.1804</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.089</c:v>
+                  <c:v>0.102</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.985</c:v>
+                  <c:v>0.6666</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.058</c:v>
+                  <c:v>0.4243</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.231</c:v>
+                  <c:v>0.1936</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.57</c:v>
+                  <c:v>0.0809</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.944</c:v>
+                  <c:v>0.5892</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.977</c:v>
+                  <c:v>0.4809</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.413</c:v>
+                  <c:v>0.1465</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.529</c:v>
+                  <c:v>0.2865</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.169</c:v>
+                  <c:v>0.1304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="8055820"/>
-        <c:axId val="45394805"/>
+        <c:axId val="88587499"/>
+        <c:axId val="90020300"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="8055820"/>
+        <c:axId val="88587499"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4872,12 +4917,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45394805"/>
+        <c:crossAx val="90020300"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="45394805"/>
+        <c:axId val="90020300"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4919,7 +4964,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8055820"/>
+        <c:crossAx val="88587499"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5037,52 +5082,52 @@
             <c:numRef>
               <c:f>ComparLD!$O$3:$O$17</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>0.4969</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.119</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6473</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4172</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3068</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3707</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5981</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.6081</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.7753</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.8556</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.2893</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.2285</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7014</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.0505</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.4172</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.3068</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.4969</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.6473</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.119</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6081</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.5256</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.5981</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.3707</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.2285</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.7014</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.8556</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.2893</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.7753</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5094,60 +5139,60 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.065</c:v>
+                  <c:v>0.4204</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12</c:v>
+                  <c:v>0.1058</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.938</c:v>
+                  <c:v>0.269</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.462</c:v>
+                  <c:v>0.238</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.107</c:v>
+                  <c:v>0.2904</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.251</c:v>
+                  <c:v>0.645</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.02</c:v>
+                  <c:v>0.8182</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.798</c:v>
+                  <c:v>0.5788</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.885</c:v>
+                  <c:v>0.1561</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.302</c:v>
+                  <c:v>0.2874</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.059</c:v>
+                  <c:v>0.8293</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.526</c:v>
+                  <c:v>0.4964</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.115</c:v>
+                  <c:v>0.3099</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.423</c:v>
+                  <c:v>0.5864</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.002</c:v>
+                  <c:v>0.0625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="79459673"/>
-        <c:axId val="91549927"/>
+        <c:axId val="8606910"/>
+        <c:axId val="75808867"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79459673"/>
+        <c:axId val="8606910"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5189,12 +5234,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91549927"/>
+        <c:crossAx val="75808867"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="91549927"/>
+        <c:axId val="75808867"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5236,7 +5281,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79459673"/>
+        <c:crossAx val="8606910"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5370,52 +5415,52 @@
             <c:numRef>
               <c:f>ComparLD!$Q$3:$Q$17</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>0.9632</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9817</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6317</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9188</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1096</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7657</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9158</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6679</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3441</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.8923</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.2615</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.764</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.6317</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.9188</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.9632</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.9817</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.8987</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.9158</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.6679</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.7657</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.1096</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.8923</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.2615</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.3441</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5427,60 +5472,60 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.764</c:v>
+                  <c:v>0.9652</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.403</c:v>
+                  <c:v>0.9683</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.525</c:v>
+                  <c:v>0.9792</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.924</c:v>
+                  <c:v>0.6254</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.522</c:v>
+                  <c:v>0.9196</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.661</c:v>
+                  <c:v>0.263</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.912</c:v>
+                  <c:v>0.7696</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.927</c:v>
+                  <c:v>0.9183</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.069</c:v>
+                  <c:v>0.6697</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.681</c:v>
+                  <c:v>0.3497</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.074</c:v>
+                  <c:v>0.9933</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.573</c:v>
+                  <c:v>0.9274</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.777</c:v>
+                  <c:v>0.892</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.467</c:v>
+                  <c:v>0.2696</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.747</c:v>
+                  <c:v>0.7637</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="83931343"/>
-        <c:axId val="4242837"/>
+        <c:axId val="36972728"/>
+        <c:axId val="87014316"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="83931343"/>
+        <c:axId val="36972728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5522,12 +5567,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4242837"/>
+        <c:crossAx val="87014316"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="4242837"/>
+        <c:axId val="87014316"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5569,7 +5614,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83931343"/>
+        <c:crossAx val="36972728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6086,8 +6131,8 @@
   </sheetPr>
   <dimension ref="A1:AJ349"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G148" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y188" activeCellId="0" sqref="Y188"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I135" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O171" activeCellId="0" sqref="O171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.56640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10009,6 +10054,10 @@
         <f aca="false">AC153</f>
         <v>0.9652</v>
       </c>
+      <c r="X153" s="0" t="n">
+        <f aca="false">AD153</f>
+        <v>0.5480625</v>
+      </c>
       <c r="AB153" s="0" t="n">
         <v>1</v>
       </c>
@@ -10079,6 +10128,10 @@
         <f aca="false">AC154</f>
         <v>0.9683</v>
       </c>
+      <c r="X154" s="0" t="n">
+        <f aca="false">AD154</f>
+        <v>0.5817125</v>
+      </c>
       <c r="AB154" s="0" t="n">
         <v>2</v>
       </c>
@@ -10149,6 +10202,10 @@
         <f aca="false">AC155</f>
         <v>0.9792</v>
       </c>
+      <c r="X155" s="0" t="n">
+        <f aca="false">AD155</f>
+        <v>0.5126375</v>
+      </c>
       <c r="AB155" s="0" t="n">
         <v>3</v>
       </c>
@@ -10219,6 +10276,10 @@
         <f aca="false">AC156</f>
         <v>0.6254</v>
       </c>
+      <c r="X156" s="0" t="n">
+        <f aca="false">AD156</f>
+        <v>0.5299125</v>
+      </c>
       <c r="AB156" s="0" t="n">
         <v>4</v>
       </c>
@@ -10289,6 +10350,10 @@
         <f aca="false">AC157</f>
         <v>0.9196</v>
       </c>
+      <c r="X157" s="0" t="n">
+        <f aca="false">AD157</f>
+        <v>0.514125</v>
+      </c>
       <c r="AB157" s="0" t="n">
         <v>5</v>
       </c>
@@ -10359,6 +10424,10 @@
         <f aca="false">AC158</f>
         <v>0.263</v>
       </c>
+      <c r="X158" s="0" t="n">
+        <f aca="false">AD158</f>
+        <v>0.5811875</v>
+      </c>
       <c r="AB158" s="0" t="n">
         <v>6</v>
       </c>
@@ -10429,6 +10498,10 @@
         <f aca="false">AC159</f>
         <v>0.7696</v>
       </c>
+      <c r="X159" s="0" t="n">
+        <f aca="false">AD159</f>
+        <v>0.595725</v>
+      </c>
       <c r="AB159" s="0" t="n">
         <v>7</v>
       </c>
@@ -10499,6 +10572,10 @@
         <f aca="false">AC160</f>
         <v>0.9183</v>
       </c>
+      <c r="X160" s="0" t="n">
+        <f aca="false">AD160</f>
+        <v>0.6034</v>
+      </c>
       <c r="AB160" s="0" t="n">
         <v>8</v>
       </c>
@@ -10569,6 +10646,10 @@
         <f aca="false">AC161</f>
         <v>0.6697</v>
       </c>
+      <c r="X161" s="2" t="n">
+        <f aca="false">AD161</f>
+        <v>0.495775</v>
+      </c>
       <c r="AB161" s="0" t="n">
         <v>9</v>
       </c>
@@ -10639,6 +10720,10 @@
         <f aca="false">AC162</f>
         <v>0.3497</v>
       </c>
+      <c r="X162" s="0" t="n">
+        <f aca="false">AD162</f>
+        <v>0.61475</v>
+      </c>
       <c r="AB162" s="0" t="n">
         <v>10</v>
       </c>
@@ -10709,6 +10794,10 @@
         <f aca="false">AC163</f>
         <v>0.9933</v>
       </c>
+      <c r="X163" s="0" t="n">
+        <f aca="false">AD163</f>
+        <v>0.6059125</v>
+      </c>
       <c r="AB163" s="0" t="n">
         <v>11</v>
       </c>
@@ -10779,6 +10868,10 @@
         <f aca="false">AC164</f>
         <v>0.9274</v>
       </c>
+      <c r="X164" s="0" t="n">
+        <f aca="false">AD164</f>
+        <v>0.625175</v>
+      </c>
       <c r="AB164" s="0" t="n">
         <v>12</v>
       </c>
@@ -10849,6 +10942,10 @@
         <f aca="false">AC165</f>
         <v>0.892</v>
       </c>
+      <c r="X165" s="0" t="n">
+        <f aca="false">AD165</f>
+        <v>0.4519625</v>
+      </c>
       <c r="AB165" s="0" t="n">
         <v>13</v>
       </c>
@@ -10919,6 +11016,10 @@
         <f aca="false">AC166</f>
         <v>0.2696</v>
       </c>
+      <c r="X166" s="0" t="n">
+        <f aca="false">AD166</f>
+        <v>0.5005125</v>
+      </c>
       <c r="AB166" s="0" t="n">
         <v>14</v>
       </c>
@@ -10989,6 +11090,10 @@
         <f aca="false">AC167</f>
         <v>0.7637</v>
       </c>
+      <c r="X167" s="0" t="n">
+        <f aca="false">AD167</f>
+        <v>0.4752375</v>
+      </c>
       <c r="AB167" s="0" t="n">
         <v>15</v>
       </c>
@@ -11117,7 +11222,7 @@
       </c>
       <c r="X174" s="4" t="n">
         <f aca="false">ABS(K153-X153)</f>
-        <v>0.3753</v>
+        <v>0.1727625</v>
       </c>
       <c r="AB174" s="3" t="s">
         <v>156</v>
@@ -11188,7 +11293,7 @@
       </c>
       <c r="X175" s="4" t="n">
         <f aca="false">ABS(K154-X154)</f>
-        <v>0.556</v>
+        <v>0.0257124999999999</v>
       </c>
       <c r="AB175" s="3" t="s">
         <v>158</v>
@@ -11256,7 +11361,7 @@
       </c>
       <c r="X176" s="4" t="n">
         <f aca="false">ABS(K155-X155)</f>
-        <v>0.9352</v>
+        <v>0.4225625</v>
       </c>
       <c r="AB176" s="3" t="s">
         <v>159</v>
@@ -11324,7 +11429,7 @@
       </c>
       <c r="X177" s="4" t="n">
         <f aca="false">ABS(K156-X156)</f>
-        <v>0.828</v>
+        <v>0.2980875</v>
       </c>
       <c r="AB177" s="3" t="s">
         <v>160</v>
@@ -11395,7 +11500,7 @@
       </c>
       <c r="X178" s="4" t="n">
         <f aca="false">ABS(K157-X157)</f>
-        <v>0.1667</v>
+        <v>0.347425</v>
       </c>
       <c r="AB178" s="3" t="s">
         <v>162</v>
@@ -11490,7 +11595,7 @@
       </c>
       <c r="X179" s="4" t="n">
         <f aca="false">ABS(K158-X158)</f>
-        <v>0.1202</v>
+        <v>0.4609875</v>
       </c>
       <c r="AB179" s="3" t="s">
         <v>172</v>
@@ -11573,7 +11678,7 @@
       </c>
       <c r="X180" s="4" t="n">
         <f aca="false">ABS(K159-X159)</f>
-        <v>0.7692</v>
+        <v>0.173475</v>
       </c>
       <c r="AB180" s="3" t="s">
         <v>173</v>
@@ -11656,7 +11761,7 @@
       </c>
       <c r="X181" s="4" t="n">
         <f aca="false">ABS(K160-X160)</f>
-        <v>0.7973</v>
+        <v>0.1939</v>
       </c>
       <c r="AB181" s="3" t="s">
         <v>174</v>
@@ -11739,7 +11844,7 @@
       </c>
       <c r="X182" s="4" t="n">
         <f aca="false">ABS(K161-X161)</f>
-        <v>0.444</v>
+        <v>0.051775</v>
       </c>
       <c r="AB182" s="3" t="s">
         <v>175</v>
@@ -11822,7 +11927,7 @@
       </c>
       <c r="X183" s="4" t="n">
         <f aca="false">ABS(K162-X162)</f>
-        <v>0.6161</v>
+        <v>0.00134999999999996</v>
       </c>
       <c r="AB183" s="3" t="s">
         <v>176</v>
@@ -11905,7 +12010,7 @@
       </c>
       <c r="X184" s="4" t="n">
         <f aca="false">ABS(K163-X163)</f>
-        <v>0.7226</v>
+        <v>0.1166875</v>
       </c>
       <c r="AB184" s="3" t="s">
         <v>177</v>
@@ -11988,7 +12093,7 @@
       </c>
       <c r="X185" s="4" t="n">
         <f aca="false">ABS(K164-X164)</f>
-        <v>0.9392</v>
+        <v>0.314025</v>
       </c>
       <c r="AB185" s="3" t="s">
         <v>178</v>
@@ -12083,7 +12188,7 @@
       </c>
       <c r="X186" s="4" t="n">
         <f aca="false">ABS(K165-X165)</f>
-        <v>0.3343</v>
+        <v>0.1176625</v>
       </c>
       <c r="AB186" s="3" t="s">
         <v>180</v>
@@ -12151,7 +12256,7 @@
       </c>
       <c r="X187" s="4" t="n">
         <f aca="false">ABS(K166-X166)</f>
-        <v>0.7117</v>
+        <v>0.2111875</v>
       </c>
       <c r="AB187" s="3" t="s">
         <v>181</v>
@@ -12222,7 +12327,7 @@
       </c>
       <c r="X188" s="4" t="n">
         <f aca="false">ABS(K167-X167)</f>
-        <v>0.0766</v>
+        <v>0.3986375</v>
       </c>
       <c r="AB188" s="3" t="s">
         <v>183</v>
@@ -14197,8 +14302,8 @@
   </sheetPr>
   <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K49" activeCellId="0" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.56640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14304,59 +14409,77 @@
       <c r="B3" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C3" s="1" t="n">
-        <v>0.7319</v>
+      <c r="C3" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!C153</f>
+        <v>0.9926</v>
       </c>
       <c r="D3" s="12" t="n">
-        <v>0.957</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>0.58</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!P153</f>
+        <v>0.9963</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!D153</f>
+        <v>0.5548</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.709</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>0.0792</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!Q153</f>
+        <v>0.1839</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!E153</f>
+        <v>0.5362</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>0.186</v>
-      </c>
-      <c r="I3" s="1" t="n">
-        <v>0.8436</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!R153</f>
+        <v>0.4332</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!F153</f>
+        <v>0.093</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>0.234</v>
-      </c>
-      <c r="K3" s="1" t="n">
-        <v>0.0952</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!S153</f>
+        <v>0.0438</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!G153</f>
+        <v>0.1602</v>
       </c>
       <c r="L3" s="1" t="n">
-        <v>0.286</v>
-      </c>
-      <c r="M3" s="1" t="n">
-        <v>0.3245</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!T153</f>
+        <v>0.2444</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!H153</f>
+        <v>0.2359</v>
       </c>
       <c r="N3" s="1" t="n">
-        <v>0.287</v>
-      </c>
-      <c r="O3" s="1" t="n">
-        <v>0.0505</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!U153</f>
+        <v>0.1661</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!I153</f>
+        <v>0.4969</v>
       </c>
       <c r="P3" s="1" t="n">
-        <v>0.065</v>
-      </c>
-      <c r="Q3" s="1" t="n">
-        <v>0.764</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!V153</f>
+        <v>0.4204</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!J153</f>
+        <v>0.9632</v>
       </c>
       <c r="R3" s="1" t="n">
-        <v>0.764</v>
-      </c>
-      <c r="S3" s="1" t="n">
-        <v>0.0766</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!W153</f>
+        <v>0.9652</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!K153</f>
+        <v>0.3753</v>
       </c>
       <c r="T3" s="1" t="n">
-        <v>0.338625</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!X153</f>
+        <v>0.5480625</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14366,59 +14489,77 @@
       <c r="B4" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>0.2515</v>
+      <c r="C4" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!C154</f>
+        <v>0.2956</v>
       </c>
       <c r="D4" s="12" t="n">
-        <v>0.286</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>0.69</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!P154</f>
+        <v>0.2888</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!D154</f>
+        <v>0.3006</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.229</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>0.6785</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!Q154</f>
+        <v>0.2198</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!E154</f>
+        <v>0.4338</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>0.155</v>
-      </c>
-      <c r="I4" s="1" t="n">
-        <v>0.9054</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!R154</f>
+        <v>0.4282</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!F154</f>
+        <v>0.9523</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>0.998</v>
-      </c>
-      <c r="K4" s="1" t="n">
-        <v>0.8348</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!S154</f>
+        <v>0.7798</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!G154</f>
+        <v>0.932</v>
       </c>
       <c r="L4" s="1" t="n">
-        <v>0.327</v>
-      </c>
-      <c r="M4" s="1" t="n">
-        <v>0.5005</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!T154</f>
+        <v>0.9349</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!H154</f>
+        <v>0.5006</v>
       </c>
       <c r="N4" s="1" t="n">
-        <v>0.659</v>
-      </c>
-      <c r="O4" s="1" t="n">
-        <v>0.4172</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!U154</f>
+        <v>0.4746</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!I154</f>
+        <v>0.119</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="Q4" s="1" t="n">
-        <v>0.6317</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!V154</f>
+        <v>0.1058</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!J154</f>
+        <v>0.8987</v>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0.403</v>
-      </c>
-      <c r="S4" s="1" t="n">
-        <v>0.828</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!W154</f>
+        <v>0.9683</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!K154</f>
+        <v>0.556</v>
       </c>
       <c r="T4" s="1" t="n">
-        <v>0.54375</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!X154</f>
+        <v>0.5817125</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14428,59 +14569,77 @@
       <c r="B5" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C5" s="1" t="n">
-        <v>0.1959</v>
+      <c r="C5" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!C155</f>
+        <v>0.6106</v>
       </c>
       <c r="D5" s="12" t="n">
-        <v>0.587</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>0.8965</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!P155</f>
+        <v>0.6081</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!D155</f>
+        <v>0.8696</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.752</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>0.8504</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!Q155</f>
+        <v>0.9042</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!E155</f>
+        <v>0.3137</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>0.405</v>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>0.004</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!R155</f>
+        <v>0.2265</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!F155</f>
+        <v>0.601</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>0.057</v>
-      </c>
-      <c r="K5" s="1" t="n">
-        <v>0.3964</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!S155</f>
+        <v>0.3087</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!G155</f>
+        <v>0.7118</v>
       </c>
       <c r="L5" s="1" t="n">
-        <v>0.768</v>
-      </c>
-      <c r="M5" s="1" t="n">
-        <v>0.0947</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!T155</f>
+        <v>0.7696</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!H155</f>
+        <v>0.8188</v>
       </c>
       <c r="N5" s="1" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="O5" s="1" t="n">
-        <v>0.3068</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!U155</f>
+        <v>0.651</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!I155</f>
+        <v>0.6473</v>
       </c>
       <c r="P5" s="1" t="n">
-        <v>0.938</v>
-      </c>
-      <c r="Q5" s="1" t="n">
-        <v>0.9188</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!V155</f>
+        <v>0.269</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!J155</f>
+        <v>0.9817</v>
       </c>
       <c r="R5" s="1" t="n">
-        <v>0.525</v>
-      </c>
-      <c r="S5" s="1" t="n">
-        <v>0.1667</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!W155</f>
+        <v>0.9792</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!K155</f>
+        <v>0.9352</v>
       </c>
       <c r="T5" s="1" t="n">
-        <v>0.40425</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!X155</f>
+        <v>0.5126375</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14490,59 +14649,77 @@
       <c r="B6" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>0.9926</v>
+      <c r="C6" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!C156</f>
+        <v>0.2515</v>
       </c>
       <c r="D6" s="12" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>0.5548</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!P156</f>
+        <v>0.3548</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!D156</f>
+        <v>0.69</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>0.686</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>0.5362</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!Q156</f>
+        <v>0.7275</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!E156</f>
+        <v>0.6785</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>0.093</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!R156</f>
+        <v>0.5972</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!F156</f>
+        <v>0.9054</v>
       </c>
       <c r="J6" s="1" t="n">
-        <v>0.878</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <v>0.1602</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!S156</f>
+        <v>0.7657</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!G156</f>
+        <v>0.8348</v>
       </c>
       <c r="L6" s="1" t="n">
-        <v>0.058</v>
-      </c>
-      <c r="M6" s="1" t="n">
-        <v>0.2359</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!T156</f>
+        <v>0.8346</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!H156</f>
+        <v>0.5005</v>
       </c>
       <c r="N6" s="1" t="n">
-        <v>0.161</v>
-      </c>
-      <c r="O6" s="1" t="n">
-        <v>0.4969</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!U156</f>
+        <v>0.4074</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!I156</f>
+        <v>0.4172</v>
       </c>
       <c r="P6" s="1" t="n">
-        <v>0.462</v>
-      </c>
-      <c r="Q6" s="1" t="n">
-        <v>0.9632</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!V156</f>
+        <v>0.238</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!J156</f>
+        <v>0.6317</v>
       </c>
       <c r="R6" s="1" t="n">
-        <v>0.924</v>
-      </c>
-      <c r="S6" s="1" t="n">
-        <v>0.3753</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!W156</f>
+        <v>0.6254</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!K156</f>
+        <v>0.828</v>
       </c>
       <c r="T6" s="1" t="n">
-        <v>0.345375</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!X156</f>
+        <v>0.5299125</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14552,59 +14729,77 @@
       <c r="B7" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>0.6106</v>
+      <c r="C7" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!C157</f>
+        <v>0.1959</v>
       </c>
       <c r="D7" s="12" t="n">
-        <v>0.182</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <v>0.8696</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!P157</f>
+        <v>0.1981</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!D157</f>
+        <v>0.8965</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>0.798</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <v>0.3137</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!Q157</f>
+        <v>0.7984</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!E157</f>
+        <v>0.8504</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>0.601</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!R157</f>
+        <v>0.8889</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!F157</f>
+        <v>0.004</v>
       </c>
       <c r="J7" s="1" t="n">
-        <v>0.779</v>
-      </c>
-      <c r="K7" s="1" t="n">
-        <v>0.7118</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!S157</f>
+        <v>0.0032</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!G157</f>
+        <v>0.3964</v>
       </c>
       <c r="L7" s="1" t="n">
-        <v>0.525</v>
-      </c>
-      <c r="M7" s="1" t="n">
-        <v>0.8188</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!T157</f>
+        <v>0.4383</v>
+      </c>
+      <c r="M7" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!H157</f>
+        <v>0.0947</v>
       </c>
       <c r="N7" s="1" t="n">
-        <v>0.653</v>
-      </c>
-      <c r="O7" s="1" t="n">
-        <v>0.6473</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!U157</f>
+        <v>0.1804</v>
+      </c>
+      <c r="O7" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!I157</f>
+        <v>0.3068</v>
       </c>
       <c r="P7" s="1" t="n">
-        <v>0.107</v>
-      </c>
-      <c r="Q7" s="1" t="n">
-        <v>0.9817</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!V157</f>
+        <v>0.2904</v>
+      </c>
+      <c r="Q7" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!J157</f>
+        <v>0.9188</v>
       </c>
       <c r="R7" s="1" t="n">
-        <v>0.522</v>
-      </c>
-      <c r="S7" s="1" t="n">
-        <v>0.9352</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!W157</f>
+        <v>0.9196</v>
+      </c>
+      <c r="S7" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!K157</f>
+        <v>0.1667</v>
       </c>
       <c r="T7" s="1" t="n">
-        <v>0.44675</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!X157</f>
+        <v>0.514125</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14614,59 +14809,77 @@
       <c r="B8" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>0.2956</v>
+      <c r="C8" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!C158</f>
+        <v>0.0397</v>
       </c>
       <c r="D8" s="12" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>0.3006</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!P158</f>
+        <v>0.0353</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!D158</f>
+        <v>0.832</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>0.786</v>
-      </c>
-      <c r="G8" s="1" t="n">
-        <v>0.4338</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!Q158</f>
+        <v>0.6725</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!E158</f>
+        <v>0.1626</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>0.296</v>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>0.9523</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!R158</f>
+        <v>0.0713</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!F158</f>
+        <v>0.9319</v>
       </c>
       <c r="J8" s="1" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="K8" s="1" t="n">
-        <v>0.932</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!S158</f>
+        <v>0.9617</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!G158</f>
+        <v>0.2117</v>
       </c>
       <c r="L8" s="1" t="n">
-        <v>0.94</v>
-      </c>
-      <c r="M8" s="1" t="n">
-        <v>0.5006</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!T158</f>
+        <v>0.0153</v>
+      </c>
+      <c r="M8" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!H158</f>
+        <v>0.0927</v>
       </c>
       <c r="N8" s="1" t="n">
-        <v>0.089</v>
-      </c>
-      <c r="O8" s="1" t="n">
-        <v>0.119</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!U158</f>
+        <v>0.102</v>
+      </c>
+      <c r="O8" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!I158</f>
+        <v>0.3707</v>
       </c>
       <c r="P8" s="1" t="n">
-        <v>0.251</v>
-      </c>
-      <c r="Q8" s="1" t="n">
-        <v>0.8987</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!V158</f>
+        <v>0.645</v>
+      </c>
+      <c r="Q8" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!J158</f>
+        <v>0.1096</v>
       </c>
       <c r="R8" s="1" t="n">
-        <v>0.661</v>
-      </c>
-      <c r="S8" s="1" t="n">
-        <v>0.556</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!W158</f>
+        <v>0.263</v>
+      </c>
+      <c r="S8" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!K158</f>
+        <v>0.1202</v>
       </c>
       <c r="T8" s="1" t="n">
-        <v>0.32625</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!X158</f>
+        <v>0.5811875</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14676,59 +14889,77 @@
       <c r="B9" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>0.5848</v>
+      <c r="C9" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!C159</f>
+        <v>0.4409</v>
       </c>
       <c r="D9" s="12" t="n">
-        <v>0.778</v>
-      </c>
-      <c r="E9" s="1" t="n">
-        <v>0.4805</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!P159</f>
+        <v>0.4317</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!D159</f>
+        <v>0.5598</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>0.247</v>
-      </c>
-      <c r="G9" s="1" t="n">
-        <v>0.8633</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!Q159</f>
+        <v>0.2683</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!E159</f>
+        <v>0.8777</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>0.433</v>
-      </c>
-      <c r="I9" s="1" t="n">
-        <v>0.4536</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!R159</f>
+        <v>0.8517</v>
+      </c>
+      <c r="I9" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!F159</f>
+        <v>0.164</v>
       </c>
       <c r="J9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1" t="n">
-        <v>0.7961</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!S159</f>
+        <v>0.0136</v>
+      </c>
+      <c r="K9" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!G159</f>
+        <v>0.7229</v>
       </c>
       <c r="L9" s="1" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="M9" s="1" t="n">
-        <v>0.3286</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!T159</f>
+        <v>0.2831</v>
+      </c>
+      <c r="M9" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!H159</f>
+        <v>0.6194</v>
       </c>
       <c r="N9" s="1" t="n">
-        <v>0.985</v>
-      </c>
-      <c r="O9" s="1" t="n">
-        <v>0.6081</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!U159</f>
+        <v>0.6666</v>
+      </c>
+      <c r="O9" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!I159</f>
+        <v>0.5981</v>
       </c>
       <c r="P9" s="1" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Q9" s="1" t="n">
-        <v>0.9158</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!V159</f>
+        <v>0.8182</v>
+      </c>
+      <c r="Q9" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!J159</f>
+        <v>0.7657</v>
       </c>
       <c r="R9" s="1" t="n">
-        <v>0.912</v>
-      </c>
-      <c r="S9" s="1" t="n">
-        <v>0.7973</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!W159</f>
+        <v>0.7696</v>
+      </c>
+      <c r="S9" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!K159</f>
+        <v>0.7692</v>
       </c>
       <c r="T9" s="1" t="n">
-        <v>0.36575</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!X159</f>
+        <v>0.595725</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14738,59 +14969,77 @@
       <c r="B10" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>0.8428</v>
+      <c r="C10" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!C160</f>
+        <v>0.5848</v>
       </c>
       <c r="D10" s="12" t="n">
-        <v>0.437</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <v>0.9132</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!P160</f>
+        <v>0.4652</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!D160</f>
+        <v>0.4805</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>0.341</v>
-      </c>
-      <c r="G10" s="1" t="n">
-        <v>0.0398</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!Q160</f>
+        <v>0.3087</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!E160</f>
+        <v>0.8633</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="I10" s="1" t="n">
-        <v>0.0143</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!R160</f>
+        <v>0.8918</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!F160</f>
+        <v>0.4536</v>
       </c>
       <c r="J10" s="1" t="n">
-        <v>0.829</v>
-      </c>
-      <c r="K10" s="1" t="n">
-        <v>0.8415</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!S160</f>
+        <v>0.1385</v>
+      </c>
+      <c r="K10" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!G160</f>
+        <v>0.7961</v>
       </c>
       <c r="L10" s="1" t="n">
-        <v>0.017</v>
-      </c>
-      <c r="M10" s="1" t="n">
-        <v>0.7474</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!T160</f>
+        <v>0.6933</v>
+      </c>
+      <c r="M10" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!H160</f>
+        <v>0.3286</v>
       </c>
       <c r="N10" s="1" t="n">
-        <v>0.058</v>
-      </c>
-      <c r="O10" s="1" t="n">
-        <v>0.5256</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!U160</f>
+        <v>0.4243</v>
+      </c>
+      <c r="O10" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!I160</f>
+        <v>0.6081</v>
       </c>
       <c r="P10" s="1" t="n">
-        <v>0.798</v>
-      </c>
-      <c r="Q10" s="1" t="n">
-        <v>0.6679</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!V160</f>
+        <v>0.5788</v>
+      </c>
+      <c r="Q10" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!J160</f>
+        <v>0.9158</v>
       </c>
       <c r="R10" s="1" t="n">
-        <v>0.927</v>
-      </c>
-      <c r="S10" s="1" t="n">
-        <v>0.444</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!W160</f>
+        <v>0.9183</v>
+      </c>
+      <c r="S10" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!K160</f>
+        <v>0.7973</v>
       </c>
       <c r="T10" s="1" t="n">
-        <v>0.35225</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!X160</f>
+        <v>0.6034</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14800,59 +15049,77 @@
       <c r="B11" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>0.4409</v>
+      <c r="C11" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!C161</f>
+        <v>0.8428</v>
       </c>
       <c r="D11" s="12" t="n">
-        <v>0.725</v>
-      </c>
-      <c r="E11" s="1" t="n">
-        <v>0.5598</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!P161</f>
+        <v>0.8347</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!D161</f>
+        <v>0.9132</v>
       </c>
       <c r="F11" s="4" t="n">
-        <v>0.705</v>
-      </c>
-      <c r="G11" s="1" t="n">
-        <v>0.8777</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!Q161</f>
+        <v>0.4787</v>
+      </c>
+      <c r="G11" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!E161</f>
+        <v>0.0398</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>0.417</v>
-      </c>
-      <c r="I11" s="1" t="n">
-        <v>0.164</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!R161</f>
+        <v>0.0216</v>
+      </c>
+      <c r="I11" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!F161</f>
+        <v>0.0143</v>
       </c>
       <c r="J11" s="1" t="n">
-        <v>0.469</v>
-      </c>
-      <c r="K11" s="1" t="n">
-        <v>0.7229</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!S161</f>
+        <v>0.0065</v>
+      </c>
+      <c r="K11" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!G161</f>
+        <v>0.8415</v>
       </c>
       <c r="L11" s="1" t="n">
-        <v>0.294</v>
-      </c>
-      <c r="M11" s="1" t="n">
-        <v>0.6194</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!T161</f>
+        <v>0.0159</v>
+      </c>
+      <c r="M11" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!H161</f>
+        <v>0.7474</v>
       </c>
       <c r="N11" s="1" t="n">
-        <v>0.231</v>
-      </c>
-      <c r="O11" s="1" t="n">
-        <v>0.5981</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!U161</f>
+        <v>0.1936</v>
+      </c>
+      <c r="O11" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!I161</f>
+        <v>0.5256</v>
       </c>
       <c r="P11" s="1" t="n">
-        <v>0.885</v>
-      </c>
-      <c r="Q11" s="1" t="n">
-        <v>0.7657</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!V161</f>
+        <v>0.1561</v>
+      </c>
+      <c r="Q11" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!J161</f>
+        <v>0.6679</v>
       </c>
       <c r="R11" s="1" t="n">
-        <v>0.069</v>
-      </c>
-      <c r="S11" s="1" t="n">
-        <v>0.7692</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!W161</f>
+        <v>0.6697</v>
+      </c>
+      <c r="S11" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!K161</f>
+        <v>0.444</v>
       </c>
       <c r="T11" s="1" t="n">
-        <v>0.467875</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!X161</f>
+        <v>0.495775</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14862,59 +15129,77 @@
       <c r="B12" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>0.0397</v>
+      <c r="C12" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!C162</f>
+        <v>0.71</v>
       </c>
       <c r="D12" s="12" t="n">
-        <v>0.726</v>
-      </c>
-      <c r="E12" s="1" t="n">
-        <v>0.832</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!P162</f>
+        <v>0.7098</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!D162</f>
+        <v>0.1365</v>
       </c>
       <c r="F12" s="4" t="n">
-        <v>0.098</v>
-      </c>
-      <c r="G12" s="1" t="n">
-        <v>0.1626</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!Q162</f>
+        <v>0.138</v>
+      </c>
+      <c r="G12" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!E162</f>
+        <v>0.8218</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>0.036</v>
-      </c>
-      <c r="I12" s="1" t="n">
-        <v>0.9319</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!R162</f>
+        <v>0.8916</v>
+      </c>
+      <c r="I12" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!F162</f>
+        <v>0.861</v>
       </c>
       <c r="J12" s="1" t="n">
-        <v>0.987</v>
-      </c>
-      <c r="K12" s="1" t="n">
-        <v>0.2117</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!S162</f>
+        <v>0.8456</v>
+      </c>
+      <c r="K12" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!G162</f>
+        <v>0.6937</v>
       </c>
       <c r="L12" s="1" t="n">
-        <v>0.083</v>
-      </c>
-      <c r="M12" s="1" t="n">
-        <v>0.0927</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!T162</f>
+        <v>0.7023</v>
+      </c>
+      <c r="M12" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!H162</f>
+        <v>0.1128</v>
       </c>
       <c r="N12" s="1" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="O12" s="1" t="n">
-        <v>0.3707</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!U162</f>
+        <v>0.0809</v>
+      </c>
+      <c r="O12" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!I162</f>
+        <v>0.7753</v>
       </c>
       <c r="P12" s="1" t="n">
-        <v>0.302</v>
-      </c>
-      <c r="Q12" s="1" t="n">
-        <v>0.1096</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!V162</f>
+        <v>0.2874</v>
+      </c>
+      <c r="Q12" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!J162</f>
+        <v>0.3441</v>
       </c>
       <c r="R12" s="1" t="n">
-        <v>0.681</v>
-      </c>
-      <c r="S12" s="1" t="n">
-        <v>0.1202</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!W162</f>
+        <v>0.3497</v>
+      </c>
+      <c r="S12" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!K162</f>
+        <v>0.6161</v>
       </c>
       <c r="T12" s="1" t="n">
-        <v>0.474625</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!X162</f>
+        <v>0.61475</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14924,59 +15209,77 @@
       <c r="B13" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <v>0.4602</v>
+      <c r="C13" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!C163</f>
+        <v>0.357</v>
       </c>
       <c r="D13" s="12" t="n">
-        <v>0.206</v>
-      </c>
-      <c r="E13" s="1" t="n">
-        <v>0.2109</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!P163</f>
+        <v>0.3412</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!D163</f>
+        <v>0.4331</v>
       </c>
       <c r="F13" s="4" t="n">
-        <v>0.557</v>
-      </c>
-      <c r="G13" s="1" t="n">
-        <v>0.6985</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!Q163</f>
+        <v>0.4555</v>
+      </c>
+      <c r="G13" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!E163</f>
+        <v>0.1518</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>0.602</v>
-      </c>
-      <c r="I13" s="1" t="n">
-        <v>0.5673</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!R163</f>
+        <v>0.1552</v>
+      </c>
+      <c r="I13" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!F163</f>
+        <v>0.4784</v>
       </c>
       <c r="J13" s="1" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K13" s="1" t="n">
-        <v>0.8227</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!S163</f>
+        <v>0.8006</v>
+      </c>
+      <c r="K13" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!G163</f>
+        <v>0.7286</v>
       </c>
       <c r="L13" s="1" t="n">
-        <v>0.344</v>
-      </c>
-      <c r="M13" s="1" t="n">
-        <v>0.1136</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!T163</f>
+        <v>0.7418</v>
+      </c>
+      <c r="M13" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!H163</f>
+        <v>0.585</v>
       </c>
       <c r="N13" s="1" t="n">
-        <v>0.944</v>
-      </c>
-      <c r="O13" s="1" t="n">
-        <v>0.2285</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!U163</f>
+        <v>0.5892</v>
+      </c>
+      <c r="O13" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!I163</f>
+        <v>0.8556</v>
       </c>
       <c r="P13" s="1" t="n">
-        <v>0.059</v>
-      </c>
-      <c r="Q13" s="1" t="n">
-        <v>0.8923</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!V163</f>
+        <v>0.8293</v>
+      </c>
+      <c r="Q13" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!J163</f>
+        <v>1</v>
       </c>
       <c r="R13" s="1" t="n">
-        <v>0.074</v>
-      </c>
-      <c r="S13" s="1" t="n">
-        <v>0.3343</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!W163</f>
+        <v>0.9933</v>
+      </c>
+      <c r="S13" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!K163</f>
+        <v>0.7226</v>
       </c>
       <c r="T13" s="1" t="n">
-        <v>0.451875</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!X163</f>
+        <v>0.6059125</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14986,59 +15289,77 @@
       <c r="B14" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <v>0.8555</v>
+      <c r="C14" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!C164</f>
+        <v>0.9276</v>
       </c>
       <c r="D14" s="12" t="n">
-        <v>0.898</v>
-      </c>
-      <c r="E14" s="1" t="n">
-        <v>0.4529</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!P164</f>
+        <v>0.9313</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!D164</f>
+        <v>0.4969</v>
       </c>
       <c r="F14" s="4" t="n">
-        <v>0.463</v>
-      </c>
-      <c r="G14" s="1" t="n">
-        <v>0.987</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!Q164</f>
+        <v>0.3822</v>
+      </c>
+      <c r="G14" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!E164</f>
+        <v>0.969</v>
       </c>
       <c r="H14" s="1" t="n">
-        <v>0.695</v>
-      </c>
-      <c r="I14" s="1" t="n">
-        <v>0.7661</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!R164</f>
+        <v>0.6269</v>
+      </c>
+      <c r="I14" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!F164</f>
+        <v>0.675</v>
       </c>
       <c r="J14" s="1" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="K14" s="1" t="n">
-        <v>0.0634</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!S164</f>
+        <v>0.8894</v>
+      </c>
+      <c r="K14" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!G164</f>
+        <v>0.8848</v>
       </c>
       <c r="L14" s="1" t="n">
-        <v>0.179</v>
-      </c>
-      <c r="M14" s="1" t="n">
-        <v>0.244</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!T164</f>
+        <v>0.7258</v>
+      </c>
+      <c r="M14" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!H164</f>
+        <v>0.6967</v>
       </c>
       <c r="N14" s="1" t="n">
-        <v>0.977</v>
-      </c>
-      <c r="O14" s="1" t="n">
-        <v>0.7014</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!U164</f>
+        <v>0.4809</v>
+      </c>
+      <c r="O14" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!I164</f>
+        <v>0.2893</v>
       </c>
       <c r="P14" s="1" t="n">
-        <v>0.526</v>
-      </c>
-      <c r="Q14" s="1" t="n">
-        <v>0.2615</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!V164</f>
+        <v>0.4964</v>
+      </c>
+      <c r="Q14" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!J164</f>
+        <v>1</v>
       </c>
       <c r="R14" s="1" t="n">
-        <v>0.573</v>
-      </c>
-      <c r="S14" s="1" t="n">
-        <v>0.7117</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!W164</f>
+        <v>0.9274</v>
+      </c>
+      <c r="S14" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!K164</f>
+        <v>0.9392</v>
       </c>
       <c r="T14" s="1" t="n">
-        <v>0.532</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!X164</f>
+        <v>0.625175</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15048,59 +15369,77 @@
       <c r="B15" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <v>0.357</v>
+      <c r="C15" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!C165</f>
+        <v>0.4602</v>
       </c>
       <c r="D15" s="12" t="n">
-        <v>0.774</v>
-      </c>
-      <c r="E15" s="1" t="n">
-        <v>0.4331</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!P165</f>
+        <v>0.4496</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!D165</f>
+        <v>0.2109</v>
       </c>
       <c r="F15" s="4" t="n">
-        <v>0.177</v>
-      </c>
-      <c r="G15" s="1" t="n">
-        <v>0.1518</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!Q165</f>
+        <v>0.2354</v>
+      </c>
+      <c r="G15" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!E165</f>
+        <v>0.6985</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>0.041</v>
-      </c>
-      <c r="I15" s="1" t="n">
-        <v>0.4784</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!R165</f>
+        <v>0.6726</v>
+      </c>
+      <c r="I15" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!F165</f>
+        <v>0.5673</v>
       </c>
       <c r="J15" s="1" t="n">
-        <v>0.645</v>
-      </c>
-      <c r="K15" s="1" t="n">
-        <v>0.7286</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!S165</f>
+        <v>0.545</v>
+      </c>
+      <c r="K15" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!G165</f>
+        <v>0.8227</v>
       </c>
       <c r="L15" s="1" t="n">
-        <v>0.401</v>
-      </c>
-      <c r="M15" s="1" t="n">
-        <v>0.585</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!T165</f>
+        <v>0.8107</v>
+      </c>
+      <c r="M15" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!H165</f>
+        <v>0.1136</v>
       </c>
       <c r="N15" s="1" t="n">
-        <v>0.413</v>
-      </c>
-      <c r="O15" s="1" t="n">
-        <v>0.8556</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!U165</f>
+        <v>0.1465</v>
+      </c>
+      <c r="O15" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!I165</f>
+        <v>0.2285</v>
       </c>
       <c r="P15" s="1" t="n">
-        <v>0.115</v>
-      </c>
-      <c r="Q15" s="1" t="n">
-        <v>1</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!V165</f>
+        <v>0.3099</v>
+      </c>
+      <c r="Q15" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!J165</f>
+        <v>0.8923</v>
       </c>
       <c r="R15" s="1" t="n">
-        <v>0.777</v>
-      </c>
-      <c r="S15" s="1" t="n">
-        <v>0.7226</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!W165</f>
+        <v>0.892</v>
+      </c>
+      <c r="S15" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!K165</f>
+        <v>0.3343</v>
       </c>
       <c r="T15" s="1" t="n">
-        <v>0.412375</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!X165</f>
+        <v>0.4519625</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15110,59 +15449,77 @@
       <c r="B16" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <v>0.9276</v>
+      <c r="C16" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!C166</f>
+        <v>0.8555</v>
       </c>
       <c r="D16" s="12" t="n">
-        <v>0.843</v>
-      </c>
-      <c r="E16" s="1" t="n">
-        <v>0.4969</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!P166</f>
+        <v>0.8557</v>
+      </c>
+      <c r="E16" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!D166</f>
+        <v>0.4529</v>
       </c>
       <c r="F16" s="4" t="n">
-        <v>0.429</v>
-      </c>
-      <c r="G16" s="1" t="n">
-        <v>0.969</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!Q166</f>
+        <v>0.4849</v>
+      </c>
+      <c r="G16" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!E166</f>
+        <v>0.987</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>0.038</v>
-      </c>
-      <c r="I16" s="1" t="n">
-        <v>0.675</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!R166</f>
+        <v>0.9426</v>
+      </c>
+      <c r="I16" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!F166</f>
+        <v>0.7661</v>
       </c>
       <c r="J16" s="1" t="n">
-        <v>0.902</v>
-      </c>
-      <c r="K16" s="1" t="n">
-        <v>0.8848</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!S166</f>
+        <v>0.6834</v>
+      </c>
+      <c r="K16" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!G166</f>
+        <v>0.0634</v>
       </c>
       <c r="L16" s="1" t="n">
-        <v>0.209</v>
-      </c>
-      <c r="M16" s="1" t="n">
-        <v>0.6967</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!T166</f>
+        <v>0.0091</v>
+      </c>
+      <c r="M16" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!H166</f>
+        <v>0.244</v>
       </c>
       <c r="N16" s="1" t="n">
-        <v>0.529</v>
-      </c>
-      <c r="O16" s="1" t="n">
-        <v>0.2893</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!U166</f>
+        <v>0.2865</v>
+      </c>
+      <c r="O16" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!I166</f>
+        <v>0.7014</v>
       </c>
       <c r="P16" s="1" t="n">
-        <v>0.423</v>
-      </c>
-      <c r="Q16" s="1" t="n">
-        <v>1</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!V166</f>
+        <v>0.5864</v>
+      </c>
+      <c r="Q16" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!J166</f>
+        <v>0.2615</v>
       </c>
       <c r="R16" s="1" t="n">
-        <v>0.467</v>
-      </c>
-      <c r="S16" s="1" t="n">
-        <v>0.9392</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!W166</f>
+        <v>0.2696</v>
+      </c>
+      <c r="S16" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!K166</f>
+        <v>0.7117</v>
       </c>
       <c r="T16" s="1" t="n">
-        <v>0.4645</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!X166</f>
+        <v>0.5005125</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15172,59 +15529,77 @@
       <c r="B17" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>0.71</v>
+      <c r="C17" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!C167</f>
+        <v>0.7319</v>
       </c>
       <c r="D17" s="12" t="n">
-        <v>0.554</v>
-      </c>
-      <c r="E17" s="1" t="n">
-        <v>0.1365</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!P167</f>
+        <v>0.7278</v>
+      </c>
+      <c r="E17" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!D167</f>
+        <v>0.58</v>
       </c>
       <c r="F17" s="4" t="n">
-        <v>0.337</v>
-      </c>
-      <c r="G17" s="1" t="n">
-        <v>0.8218</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!Q167</f>
+        <v>0.2786</v>
+      </c>
+      <c r="G17" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!E167</f>
+        <v>0.0792</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>0.487</v>
-      </c>
-      <c r="I17" s="1" t="n">
-        <v>0.861</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!R167</f>
+        <v>0.0919</v>
+      </c>
+      <c r="I17" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!F167</f>
+        <v>0.8436</v>
       </c>
       <c r="J17" s="1" t="n">
-        <v>0.967</v>
-      </c>
-      <c r="K17" s="1" t="n">
-        <v>0.6937</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!S167</f>
+        <v>0.8504</v>
+      </c>
+      <c r="K17" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!G167</f>
+        <v>0.0952</v>
       </c>
       <c r="L17" s="1" t="n">
-        <v>0.878</v>
-      </c>
-      <c r="M17" s="1" t="n">
-        <v>0.1128</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!T167</f>
+        <v>0.1785</v>
+      </c>
+      <c r="M17" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!H167</f>
+        <v>0.3245</v>
       </c>
       <c r="N17" s="1" t="n">
-        <v>0.169</v>
-      </c>
-      <c r="O17" s="1" t="n">
-        <v>0.7753</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!U167</f>
+        <v>0.1304</v>
+      </c>
+      <c r="O17" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!I167</f>
+        <v>0.0505</v>
       </c>
       <c r="P17" s="1" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="Q17" s="1" t="n">
-        <v>0.3441</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!V167</f>
+        <v>0.0625</v>
+      </c>
+      <c r="Q17" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!J167</f>
+        <v>0.764</v>
       </c>
       <c r="R17" s="1" t="n">
-        <v>0.747</v>
-      </c>
-      <c r="S17" s="1" t="n">
-        <v>0.6161</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!W167</f>
+        <v>0.7637</v>
+      </c>
+      <c r="S17" s="4" t="n">
+        <f aca="false">BoophilusAdultsDataCattleFarm!K167</f>
+        <v>0.0766</v>
       </c>
       <c r="T17" s="1" t="n">
-        <v>0.523875</v>
+        <f aca="false">BoophilusAdultsDataCattleFarm!X167</f>
+        <v>0.4752375</v>
       </c>
     </row>
   </sheetData>
